--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2099"/>
+  <dimension ref="A1:H2076"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57649,10 +57649,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H1766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1766" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1767">
@@ -57687,10 +57685,8 @@
           <t>7%</t>
         </is>
       </c>
-      <c r="H1767" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1767" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1768">
@@ -57721,10 +57717,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1768" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1768" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1769">
@@ -57759,10 +57753,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1769" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1769" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1770">
@@ -57797,10 +57789,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1770" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1771">
@@ -57835,10 +57825,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1771" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1772">
@@ -57873,10 +57861,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1772" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1772" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1773">
@@ -57911,10 +57897,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1773" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1774">
@@ -57949,10 +57933,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1774" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1775">
@@ -57987,10 +57969,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1776">
@@ -58025,10 +58005,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1777">
@@ -58063,10 +58041,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1777" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1777" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1778">
@@ -58101,10 +58077,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1778" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1778" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1779">
@@ -58139,10 +58113,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1779" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1779" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1780">
@@ -58177,10 +58149,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1780" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1781">
@@ -58203,10 +58173,8 @@
       <c r="E1781" t="inlineStr"/>
       <c r="F1781" t="inlineStr"/>
       <c r="G1781" t="inlineStr"/>
-      <c r="H1781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1782">
@@ -58237,10 +58205,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1782" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1783">
@@ -58263,10 +58229,8 @@
       <c r="E1783" t="inlineStr"/>
       <c r="F1783" t="inlineStr"/>
       <c r="G1783" t="inlineStr"/>
-      <c r="H1783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1783" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1784">
@@ -58301,10 +58265,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1784" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1785">
@@ -58331,10 +58293,8 @@
       </c>
       <c r="F1785" t="inlineStr"/>
       <c r="G1785" t="inlineStr"/>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1786">
@@ -58369,10 +58329,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1787">
@@ -58407,10 +58365,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1787" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1788">
@@ -58441,10 +58397,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1789">
@@ -58479,10 +58433,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1790">
@@ -58517,10 +58469,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1790" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1791">
@@ -58555,10 +58505,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1792">
@@ -58589,10 +58537,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1793">
@@ -58623,10 +58569,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1794">
@@ -58657,10 +58601,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1795">
@@ -58695,10 +58637,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1796">
@@ -58733,10 +58673,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1797">
@@ -58771,10 +58709,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1798">
@@ -58805,10 +58741,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1799">
@@ -58843,10 +58777,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1800">
@@ -58881,10 +58813,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1801">
@@ -58919,10 +58849,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1802">
@@ -58957,10 +58885,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1803">
@@ -58995,10 +58921,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1804">
@@ -59029,10 +58953,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1805">
@@ -59063,10 +58985,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1806">
@@ -59093,10 +59013,8 @@
       </c>
       <c r="F1806" t="inlineStr"/>
       <c r="G1806" t="inlineStr"/>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -59123,10 +59041,8 @@
       </c>
       <c r="F1807" t="inlineStr"/>
       <c r="G1807" t="inlineStr"/>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1808">
@@ -59171,10 +59087,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1810">
@@ -59201,10 +59115,8 @@
       </c>
       <c r="F1810" t="inlineStr"/>
       <c r="G1810" t="inlineStr"/>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -59231,10 +59143,8 @@
       </c>
       <c r="F1811" t="inlineStr"/>
       <c r="G1811" t="inlineStr"/>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1812">
@@ -59261,10 +59171,8 @@
       </c>
       <c r="F1812" t="inlineStr"/>
       <c r="G1812" t="inlineStr"/>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1813">
@@ -59291,10 +59199,8 @@
       </c>
       <c r="F1813" t="inlineStr"/>
       <c r="G1813" t="inlineStr"/>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1814">
@@ -59321,10 +59227,8 @@
       </c>
       <c r="F1814" t="inlineStr"/>
       <c r="G1814" t="inlineStr"/>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1815">
@@ -59355,10 +59259,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1816">
@@ -59389,10 +59291,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -59419,10 +59319,8 @@
       </c>
       <c r="F1817" t="inlineStr"/>
       <c r="G1817" t="inlineStr"/>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1818">
@@ -59449,10 +59347,8 @@
       </c>
       <c r="F1818" t="inlineStr"/>
       <c r="G1818" t="inlineStr"/>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -59479,10 +59375,8 @@
       </c>
       <c r="F1819" t="inlineStr"/>
       <c r="G1819" t="inlineStr"/>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -59505,10 +59399,8 @@
       <c r="E1820" t="inlineStr"/>
       <c r="F1820" t="inlineStr"/>
       <c r="G1820" t="inlineStr"/>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -59539,10 +59431,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1822">
@@ -59573,10 +59463,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59607,10 +59495,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59641,10 +59527,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1825">
@@ -59675,10 +59559,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59709,10 +59591,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1827">
@@ -59743,10 +59623,8 @@
           <t>46.2</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59773,10 +59651,8 @@
       </c>
       <c r="F1828" t="inlineStr"/>
       <c r="G1828" t="inlineStr"/>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59803,10 +59679,8 @@
       </c>
       <c r="F1829" t="inlineStr"/>
       <c r="G1829" t="inlineStr"/>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59833,10 +59707,8 @@
       </c>
       <c r="F1830" t="inlineStr"/>
       <c r="G1830" t="inlineStr"/>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59867,10 +59739,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1832">
@@ -59901,10 +59771,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1833">
@@ -59935,10 +59803,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1834">
@@ -59961,10 +59827,8 @@
       <c r="E1834" t="inlineStr"/>
       <c r="F1834" t="inlineStr"/>
       <c r="G1834" t="inlineStr"/>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -59987,10 +59851,8 @@
       <c r="E1835" t="inlineStr"/>
       <c r="F1835" t="inlineStr"/>
       <c r="G1835" t="inlineStr"/>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -60017,10 +59879,8 @@
       </c>
       <c r="F1836" t="inlineStr"/>
       <c r="G1836" t="inlineStr"/>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -60047,10 +59907,8 @@
       </c>
       <c r="F1837" t="inlineStr"/>
       <c r="G1837" t="inlineStr"/>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -60069,10 +59927,8 @@
       <c r="E1838" t="inlineStr"/>
       <c r="F1838" t="inlineStr"/>
       <c r="G1838" t="inlineStr"/>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -60099,10 +59955,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -60133,10 +59987,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -60181,10 +60033,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1843">
@@ -60215,10 +60065,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -60245,10 +60093,8 @@
       </c>
       <c r="F1844" t="inlineStr"/>
       <c r="G1844" t="inlineStr"/>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -60279,10 +60125,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -60313,10 +60157,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -60347,10 +60189,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -60381,10 +60221,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60411,10 +60249,8 @@
       </c>
       <c r="F1849" t="inlineStr"/>
       <c r="G1849" t="inlineStr"/>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -60445,10 +60281,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -60475,10 +60309,8 @@
       </c>
       <c r="F1851" t="inlineStr"/>
       <c r="G1851" t="inlineStr"/>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60501,10 +60333,8 @@
       <c r="E1852" t="inlineStr"/>
       <c r="F1852" t="inlineStr"/>
       <c r="G1852" t="inlineStr"/>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60527,10 +60357,8 @@
       <c r="E1853" t="inlineStr"/>
       <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr"/>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60553,10 +60381,8 @@
       <c r="E1854" t="inlineStr"/>
       <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr"/>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60583,10 +60409,8 @@
       </c>
       <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr"/>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60617,10 +60441,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1857">
@@ -60651,10 +60473,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1858">
@@ -60685,10 +60505,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60719,10 +60537,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60745,10 +60561,8 @@
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
       <c r="G1860" t="inlineStr"/>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60779,10 +60593,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1862">
@@ -60813,10 +60625,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60847,10 +60657,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60881,10 +60689,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60915,10 +60721,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60949,10 +60753,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1867">
@@ -60983,10 +60785,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -61017,10 +60817,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -61051,10 +60849,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -61085,10 +60881,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -61119,10 +60913,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -61149,10 +60941,8 @@
       </c>
       <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr"/>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -61179,10 +60969,8 @@
       </c>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -61209,10 +60997,8 @@
       </c>
       <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr"/>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61249,10 +61035,8 @@
       <c r="E1876" t="inlineStr"/>
       <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr"/>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1877">
@@ -61283,10 +61067,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1878">
@@ -61317,10 +61099,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1879">
@@ -61351,10 +61131,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1880">
@@ -61385,10 +61163,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1881">
@@ -61419,10 +61195,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1882">
@@ -61449,10 +61223,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61479,10 +61251,8 @@
       </c>
       <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61509,10 +61279,8 @@
       </c>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61539,10 +61307,8 @@
       </c>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61569,10 +61335,8 @@
       </c>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1887">
@@ -61599,10 +61363,8 @@
       </c>
       <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr"/>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1888">
@@ -61633,10 +61395,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1889">
@@ -61667,10 +61427,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1890">
@@ -61697,10 +61455,8 @@
       </c>
       <c r="F1890" t="inlineStr"/>
       <c r="G1890" t="inlineStr"/>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61731,10 +61487,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61761,10 +61515,8 @@
       </c>
       <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr"/>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61791,10 +61543,8 @@
       </c>
       <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1894">
@@ -61821,10 +61571,8 @@
       </c>
       <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr"/>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1895">
@@ -61851,10 +61599,8 @@
       </c>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61877,10 +61623,8 @@
       <c r="E1896" t="inlineStr"/>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61907,10 +61651,8 @@
       </c>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61941,10 +61683,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1899">
@@ -61967,10 +61707,8 @@
       <c r="E1899" t="inlineStr"/>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr"/>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1900">
@@ -61993,10 +61731,8 @@
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
       <c r="G1900" t="inlineStr"/>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -62019,10 +61755,8 @@
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -62045,10 +61779,8 @@
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr"/>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -62071,10 +61803,8 @@
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -62105,10 +61835,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1905">
@@ -62139,10 +61867,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1906">
@@ -62173,10 +61899,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1907">
@@ -62199,10 +61923,8 @@
       <c r="E1907" t="inlineStr"/>
       <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr"/>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1908">
@@ -62237,10 +61959,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1909">
@@ -62263,10 +61983,8 @@
       <c r="E1909" t="inlineStr"/>
       <c r="F1909" t="inlineStr"/>
       <c r="G1909" t="inlineStr"/>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1910">
@@ -62289,10 +62007,8 @@
       <c r="E1910" t="inlineStr"/>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1911">
@@ -62315,10 +62031,8 @@
       <c r="E1911" t="inlineStr"/>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr"/>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1912">
@@ -62341,10 +62055,8 @@
       <c r="E1912" t="inlineStr"/>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr"/>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62367,10 +62079,8 @@
       <c r="E1913" t="inlineStr"/>
       <c r="F1913" t="inlineStr"/>
       <c r="G1913" t="inlineStr"/>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62393,10 +62103,8 @@
       <c r="E1914" t="inlineStr"/>
       <c r="F1914" t="inlineStr"/>
       <c r="G1914" t="inlineStr"/>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1915">
@@ -62419,10 +62127,8 @@
       <c r="E1915" t="inlineStr"/>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -62445,10 +62151,8 @@
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62471,10 +62175,8 @@
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62497,10 +62199,8 @@
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62531,10 +62231,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62565,10 +62263,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62591,10 +62287,8 @@
       <c r="E1921" t="inlineStr"/>
       <c r="F1921" t="inlineStr"/>
       <c r="G1921" t="inlineStr"/>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62643,10 +62337,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1924">
@@ -62669,10 +62361,8 @@
       <c r="E1924" t="inlineStr"/>
       <c r="F1924" t="inlineStr"/>
       <c r="G1924" t="inlineStr"/>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1925">
@@ -62703,10 +62393,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1926">
@@ -62729,10 +62417,8 @@
       <c r="E1926" t="inlineStr"/>
       <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr"/>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -62755,10 +62441,8 @@
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62785,10 +62469,8 @@
       </c>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr"/>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -62811,10 +62493,8 @@
       <c r="E1929" t="inlineStr"/>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1930">
@@ -62845,10 +62525,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -62879,10 +62557,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62913,10 +62589,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1933">
@@ -62943,10 +62617,8 @@
       </c>
       <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr"/>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -62977,10 +62649,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
@@ -63011,10 +62681,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -63045,10 +62713,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1937">
@@ -63079,10 +62745,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1938">
@@ -63113,10 +62777,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -63143,10 +62805,8 @@
       </c>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr"/>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -63173,10 +62833,8 @@
       </c>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr"/>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1941">
@@ -63199,10 +62857,8 @@
       <c r="E1941" t="inlineStr"/>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr"/>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -63225,10 +62881,8 @@
       <c r="E1942" t="inlineStr"/>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr"/>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63251,10 +62905,8 @@
       <c r="E1943" t="inlineStr"/>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr"/>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63285,10 +62937,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1945">
@@ -63319,10 +62969,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1946">
@@ -63353,10 +63001,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1947">
@@ -63387,10 +63033,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1948">
@@ -63421,10 +63065,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1949">
@@ -63455,10 +63097,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
@@ -63485,10 +63125,8 @@
       </c>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1951">
@@ -63519,10 +63157,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1952">
@@ -63553,10 +63189,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1953">
@@ -63587,10 +63221,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1954">
@@ -63617,10 +63249,8 @@
       </c>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr"/>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
@@ -63651,10 +63281,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1956">
@@ -63685,10 +63313,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1957">
@@ -63719,10 +63345,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1958">
@@ -63749,10 +63373,8 @@
       </c>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr"/>
-      <c r="H1958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1959">
@@ -63775,10 +63397,8 @@
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr"/>
-      <c r="H1959" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1959" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1960">
@@ -63809,10 +63429,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1961">
@@ -63839,10 +63457,8 @@
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr"/>
-      <c r="H1961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1962">
@@ -63869,10 +63485,8 @@
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr"/>
-      <c r="H1962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1963">
@@ -63899,10 +63513,8 @@
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr"/>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -63929,10 +63541,8 @@
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr"/>
-      <c r="H1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1965">
@@ -63963,10 +63573,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1966">
@@ -63989,10 +63597,8 @@
       <c r="E1966" t="inlineStr"/>
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr"/>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1967">
@@ -64015,10 +63621,8 @@
       <c r="E1967" t="inlineStr"/>
       <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr"/>
-      <c r="H1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1968">
@@ -64041,10 +63645,8 @@
       <c r="E1968" t="inlineStr"/>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr"/>
-      <c r="H1968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1969">
@@ -64067,10 +63669,8 @@
       <c r="E1969" t="inlineStr"/>
       <c r="F1969" t="inlineStr"/>
       <c r="G1969" t="inlineStr"/>
-      <c r="H1969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1970">
@@ -64101,10 +63701,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1970" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1971">
@@ -64135,10 +63733,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1971" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1971" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1972">
@@ -64165,10 +63761,8 @@
       </c>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr"/>
-      <c r="H1972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1972" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1973">
@@ -64195,10 +63789,8 @@
       </c>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr"/>
-      <c r="H1973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1974">
@@ -64225,10 +63817,8 @@
       </c>
       <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr"/>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1975">
@@ -64263,10 +63853,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1976">
@@ -64301,10 +63889,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1977">
@@ -64335,10 +63921,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1978">
@@ -64369,10 +63953,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1979">
@@ -64403,10 +63985,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1979" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1979" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1980">
@@ -64437,10 +64017,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1981">
@@ -64463,10 +64041,8 @@
       <c r="E1981" t="inlineStr"/>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr"/>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1982">
@@ -64489,10 +64065,8 @@
       <c r="E1982" t="inlineStr"/>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -64523,10 +64097,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1984">
@@ -64557,10 +64129,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -64583,10 +64153,8 @@
       <c r="E1985" t="inlineStr"/>
       <c r="F1985" t="inlineStr"/>
       <c r="G1985" t="inlineStr"/>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1986">
@@ -64617,10 +64185,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64651,10 +64217,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1988">
@@ -64677,10 +64241,8 @@
       <c r="E1988" t="inlineStr"/>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr"/>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1989">
@@ -64711,10 +64273,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1990">
@@ -64745,10 +64305,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1991">
@@ -64771,10 +64329,8 @@
       <c r="E1991" t="inlineStr"/>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1992">
@@ -64797,10 +64353,8 @@
       <c r="E1992" t="inlineStr"/>
       <c r="F1992" t="inlineStr"/>
       <c r="G1992" t="inlineStr"/>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1993">
@@ -64823,10 +64377,8 @@
       <c r="E1993" t="inlineStr"/>
       <c r="F1993" t="inlineStr"/>
       <c r="G1993" t="inlineStr"/>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1994">
@@ -64849,10 +64401,8 @@
       <c r="E1994" t="inlineStr"/>
       <c r="F1994" t="inlineStr"/>
       <c r="G1994" t="inlineStr"/>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1995">
@@ -64875,10 +64425,8 @@
       <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr"/>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -64901,10 +64449,8 @@
       </c>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr"/>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1997">
@@ -64931,10 +64477,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1998">
@@ -64961,10 +64505,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1999">
@@ -64991,46 +64533,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr"/>
-      <c r="C2000" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>Housing Starts YoYDEC</t>
+        </is>
+      </c>
       <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr"/>
+      <c r="E2000" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr"/>
-      <c r="H2000" t="inlineStr"/>
+      <c r="G2000" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H2000" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Construction Orders YoYDEC</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
-      <c r="E2001" t="inlineStr"/>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>-10.2%</t>
+        </is>
+      </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H2001" t="inlineStr">
         <is>
           <t>3</t>
@@ -65040,117 +64608,125 @@
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H2002" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr"/>
+      <c r="G2003" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr"/>
+      <c r="G2004" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H2004" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
@@ -65164,27 +64740,31 @@
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr"/>
+      <c r="G2006" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H2006" t="inlineStr">
         <is>
           <t>3</t>
@@ -65194,27 +64774,31 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr"/>
+      <c r="G2007" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H2007" t="inlineStr">
         <is>
           <t>2</t>
@@ -65224,63 +64808,63 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>$22.29B</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H2008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H2009" t="inlineStr">
@@ -65292,29 +64876,29 @@
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr"/>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H2010" t="inlineStr">
@@ -65326,29 +64910,29 @@
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
       <c r="G2011" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H2011" t="inlineStr">
@@ -65360,133 +64944,121 @@
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
       <c r="G2012" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2013" t="inlineStr"/>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G2014" t="inlineStr"/>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+      <c r="G2015" t="inlineStr"/>
       <c r="H2015" t="inlineStr">
         <is>
           <t>3</t>
@@ -65496,97 +65068,93 @@
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>NBS Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="G2016" t="inlineStr"/>
       <c r="H2016" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>NBS Non Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2017" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>NBS General PMIJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
       <c r="G2018" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2018" t="inlineStr">
@@ -65598,63 +65166,59 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="E2019" t="inlineStr"/>
       <c r="F2019" t="inlineStr"/>
       <c r="G2019" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2019" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
       <c r="E2020" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2020" t="inlineStr"/>
       <c r="G2020" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2020" t="inlineStr">
@@ -65666,23 +65230,23 @@
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
       <c r="E2021" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2021" t="inlineStr"/>
@@ -65696,55 +65260,63 @@
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr"/>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
+      <c r="G2022" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2022" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2023" t="inlineStr"/>
       <c r="G2023" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2023" t="inlineStr">
@@ -65756,65 +65328,57 @@
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G2024" t="inlineStr"/>
       <c r="H2024" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2025" t="inlineStr"/>
       <c r="H2025" t="inlineStr">
         <is>
           <t>3</t>
@@ -65824,7 +65388,7 @@
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
@@ -65834,31 +65398,27 @@
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2026" t="inlineStr"/>
       <c r="H2026" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
@@ -65868,31 +65428,27 @@
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2027" t="inlineStr"/>
       <c r="H2027" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
@@ -65902,13 +65458,13 @@
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
       <c r="E2028" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2028" t="inlineStr"/>
@@ -65922,7 +65478,7 @@
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
@@ -65932,21 +65488,17 @@
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2029" t="inlineStr"/>
       <c r="H2029" t="inlineStr">
         <is>
           <t>3</t>
@@ -65956,65 +65508,57 @@
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
       <c r="E2030" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2030" t="inlineStr"/>
       <c r="H2030" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>$22.29B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+      <c r="G2031" t="inlineStr"/>
       <c r="H2031" t="inlineStr">
         <is>
           <t>3</t>
@@ -66024,31 +65568,23 @@
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E2032" t="inlineStr"/>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2032" t="inlineStr"/>
       <c r="H2032" t="inlineStr">
         <is>
           <t>3</t>
@@ -66058,31 +65594,23 @@
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E2033" t="inlineStr"/>
       <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2033" t="inlineStr"/>
       <c r="H2033" t="inlineStr">
         <is>
           <t>3</t>
@@ -66092,155 +65620,151 @@
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2034" t="inlineStr"/>
       <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2034" t="inlineStr"/>
       <c r="H2034" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E2035" t="inlineStr"/>
       <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2035" t="inlineStr"/>
       <c r="H2035" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2036" t="inlineStr"/>
       <c r="E2036" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr"/>
+      <c r="G2036" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H2036" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr"/>
       <c r="E2037" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
+      <c r="G2037" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2037" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2038" t="inlineStr"/>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr"/>
+      <c r="G2038" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2038" t="inlineStr">
         <is>
           <t>3</t>
@@ -66250,23 +65774,23 @@
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr"/>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr"/>
@@ -66280,29 +65804,29 @@
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2040" t="inlineStr"/>
       <c r="E2040" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2040" t="inlineStr"/>
       <c r="G2040" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2040" t="inlineStr">
@@ -66314,29 +65838,29 @@
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2041" t="inlineStr"/>
       <c r="E2041" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2041" t="inlineStr"/>
       <c r="G2041" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2041" t="inlineStr">
@@ -66348,27 +65872,27 @@
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr"/>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2042" t="inlineStr"/>
       <c r="H2042" t="inlineStr">
         <is>
           <t>3</t>
@@ -66378,31 +65902,27 @@
     <row r="2043">
       <c r="A2043" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2043" t="inlineStr"/>
       <c r="E2043" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2043" t="inlineStr"/>
       <c r="H2043" t="inlineStr">
         <is>
           <t>3</t>
@@ -66412,25 +65932,21 @@
     <row r="2044">
       <c r="A2044" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2044" t="inlineStr"/>
-      <c r="E2044" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2044" t="inlineStr"/>
       <c r="F2044" t="inlineStr"/>
       <c r="G2044" t="inlineStr"/>
       <c r="H2044" t="inlineStr">
@@ -66442,63 +65958,63 @@
     <row r="2045">
       <c r="A2045" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2045" t="inlineStr"/>
       <c r="E2045" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2045" t="inlineStr"/>
       <c r="G2045" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2045" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2046" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2046" t="inlineStr"/>
       <c r="E2046" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2046" t="inlineStr"/>
       <c r="G2046" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2046" t="inlineStr">
@@ -66510,27 +66026,31 @@
     <row r="2047">
       <c r="A2047" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2047" t="inlineStr"/>
       <c r="E2047" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2047" t="inlineStr"/>
-      <c r="G2047" t="inlineStr"/>
+      <c r="G2047" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2047" t="inlineStr">
         <is>
           <t>2</t>
@@ -66540,7 +66060,7 @@
     <row r="2048">
       <c r="A2048" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2048" t="inlineStr">
@@ -66550,27 +66070,27 @@
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2048" t="inlineStr"/>
       <c r="E2048" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2048" t="inlineStr"/>
       <c r="G2048" t="inlineStr"/>
       <c r="H2048" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2049" t="inlineStr">
@@ -66580,27 +66100,27 @@
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2049" t="inlineStr"/>
       <c r="E2049" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr"/>
       <c r="H2049" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2050" t="inlineStr">
@@ -66610,13 +66130,13 @@
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr"/>
       <c r="E2050" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2050" t="inlineStr"/>
@@ -66630,7 +66150,7 @@
     <row r="2051">
       <c r="A2051" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2051" t="inlineStr">
@@ -66640,13 +66160,13 @@
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr"/>
       <c r="E2051" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2051" t="inlineStr"/>
@@ -66660,323 +66180,371 @@
     <row r="2052">
       <c r="A2052" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2052" t="inlineStr"/>
       <c r="E2052" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr"/>
+      <c r="G2052" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2052" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2053" t="inlineStr"/>
       <c r="E2053" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr"/>
+      <c r="G2053" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2053" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2054">
       <c r="A2054" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2054" t="inlineStr"/>
       <c r="E2054" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
+      <c r="G2054" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2054" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2055">
       <c r="A2055" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2055" t="inlineStr"/>
-      <c r="E2055" t="inlineStr"/>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr"/>
+      <c r="G2055" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2055" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2056">
       <c r="A2056" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2056" t="inlineStr"/>
-      <c r="E2056" t="inlineStr"/>
+      <c r="E2056" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr"/>
+      <c r="G2056" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2056" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2057">
       <c r="A2057" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2057" t="inlineStr"/>
-      <c r="E2057" t="inlineStr"/>
+      <c r="E2057" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr"/>
+      <c r="G2057" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2057" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2058">
       <c r="A2058" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2058" t="inlineStr"/>
-      <c r="E2058" t="inlineStr"/>
+      <c r="E2058" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2058" t="inlineStr"/>
-      <c r="G2058" t="inlineStr"/>
+      <c r="G2058" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2058" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2059" t="inlineStr"/>
       <c r="E2059" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2059" t="inlineStr"/>
       <c r="G2059" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2059" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2060">
       <c r="A2060" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr"/>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2060" t="inlineStr"/>
       <c r="G2060" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2060" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2061">
       <c r="A2061" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2061" t="inlineStr"/>
       <c r="E2061" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2061" t="inlineStr"/>
       <c r="G2061" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2061" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2062" t="inlineStr"/>
       <c r="E2062" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2062" t="inlineStr"/>
-      <c r="G2062" t="inlineStr"/>
+      <c r="G2062" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2062" t="inlineStr">
         <is>
           <t>3</t>
@@ -66986,63 +66554,63 @@
     <row r="2063">
       <c r="A2063" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2063" t="inlineStr"/>
       <c r="E2063" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2063" t="inlineStr"/>
       <c r="G2063" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2063" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2064">
       <c r="A2064" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2064" t="inlineStr"/>
       <c r="E2064" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2064" t="inlineStr"/>
       <c r="G2064" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2064" t="inlineStr">
@@ -67054,25 +66622,21 @@
     <row r="2065">
       <c r="A2065" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2065" t="inlineStr"/>
-      <c r="E2065" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2065" t="inlineStr"/>
       <c r="F2065" t="inlineStr"/>
       <c r="G2065" t="inlineStr"/>
       <c r="H2065" t="inlineStr">
@@ -67084,25 +66648,21 @@
     <row r="2066">
       <c r="A2066" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2066" t="inlineStr"/>
-      <c r="E2066" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2066" t="inlineStr"/>
       <c r="F2066" t="inlineStr"/>
       <c r="G2066" t="inlineStr"/>
       <c r="H2066" t="inlineStr">
@@ -67112,25 +66672,29 @@
       </c>
     </row>
     <row r="2067">
-      <c r="A2067" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2067" t="inlineStr"/>
       <c r="B2067" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2067" t="inlineStr"/>
-      <c r="E2067" t="inlineStr"/>
+      <c r="E2067" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2067" t="inlineStr"/>
-      <c r="G2067" t="inlineStr"/>
+      <c r="G2067" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2067" t="inlineStr">
         <is>
           <t>3</t>
@@ -67138,33 +66702,21 @@
       </c>
     </row>
     <row r="2068">
-      <c r="A2068" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2068" t="inlineStr"/>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2068" t="inlineStr"/>
-      <c r="E2068" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E2068" t="inlineStr"/>
       <c r="F2068" t="inlineStr"/>
-      <c r="G2068" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2068" t="inlineStr"/>
       <c r="H2068" t="inlineStr">
         <is>
           <t>3</t>
@@ -67172,946 +66724,212 @@
       </c>
     </row>
     <row r="2069">
-      <c r="A2069" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2069" t="inlineStr"/>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2069" t="inlineStr"/>
       <c r="E2069" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2069" t="inlineStr"/>
-      <c r="G2069" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2069" t="inlineStr"/>
       <c r="H2069" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2070">
-      <c r="A2070" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2070" t="inlineStr"/>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2070" t="inlineStr"/>
-      <c r="E2070" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2070" t="inlineStr"/>
       <c r="F2070" t="inlineStr"/>
       <c r="G2070" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2070" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2071">
-      <c r="A2071" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2071" t="inlineStr"/>
       <c r="B2071" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2071" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2071" t="inlineStr"/>
       <c r="E2071" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2071" t="inlineStr"/>
       <c r="G2071" t="inlineStr"/>
       <c r="H2071" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2072">
-      <c r="A2072" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2072" t="inlineStr"/>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2072" t="inlineStr"/>
       <c r="E2072" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2072" t="inlineStr"/>
-      <c r="G2072" t="inlineStr"/>
+      <c r="G2072" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2072" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2073">
       <c r="A2073" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2073" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2073" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2073" t="inlineStr"/>
+      <c r="C2073" t="inlineStr"/>
       <c r="D2073" t="inlineStr"/>
-      <c r="E2073" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2073" t="inlineStr"/>
       <c r="F2073" t="inlineStr"/>
       <c r="G2073" t="inlineStr"/>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2073" t="inlineStr"/>
     </row>
     <row r="2074">
       <c r="A2074" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2074" t="inlineStr"/>
       <c r="E2074" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2074" t="inlineStr"/>
       <c r="G2074" t="inlineStr"/>
       <c r="H2074" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2075">
       <c r="A2075" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2075" t="inlineStr"/>
       <c r="E2075" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2075" t="inlineStr"/>
-      <c r="G2075" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2075" t="inlineStr"/>
       <c r="H2075" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2076">
       <c r="A2076" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2076" t="inlineStr"/>
       <c r="E2076" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2076" t="inlineStr"/>
-      <c r="G2076" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2076" t="inlineStr"/>
       <c r="H2076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2077" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2077" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2077" t="inlineStr"/>
-      <c r="E2077" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2077" t="inlineStr"/>
-      <c r="G2077" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2078" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2078" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2078" t="inlineStr"/>
-      <c r="E2078" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2078" t="inlineStr"/>
-      <c r="G2078" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2079">
-      <c r="A2079" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2079" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2079" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2079" t="inlineStr"/>
-      <c r="E2079" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2079" t="inlineStr"/>
-      <c r="G2079" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2080">
-      <c r="A2080" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2080" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2080" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2080" t="inlineStr"/>
-      <c r="E2080" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2080" t="inlineStr"/>
-      <c r="G2080" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2081">
-      <c r="A2081" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2081" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2081" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2081" t="inlineStr"/>
-      <c r="E2081" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2081" t="inlineStr"/>
-      <c r="G2081" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2082">
-      <c r="A2082" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2082" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2082" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2082" t="inlineStr"/>
-      <c r="E2082" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2082" t="inlineStr"/>
-      <c r="G2082" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2083">
-      <c r="A2083" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2083" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2083" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2083" t="inlineStr"/>
-      <c r="E2083" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2083" t="inlineStr"/>
-      <c r="G2083" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2084">
-      <c r="A2084" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2084" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2084" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2084" t="inlineStr"/>
-      <c r="E2084" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2084" t="inlineStr"/>
-      <c r="G2084" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2085">
-      <c r="A2085" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2085" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2085" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2085" t="inlineStr"/>
-      <c r="E2085" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2085" t="inlineStr"/>
-      <c r="G2085" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2086">
-      <c r="A2086" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2086" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2086" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2086" t="inlineStr"/>
-      <c r="E2086" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2086" t="inlineStr"/>
-      <c r="G2086" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2087">
-      <c r="A2087" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2087" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2087" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2087" t="inlineStr"/>
-      <c r="E2087" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2087" t="inlineStr"/>
-      <c r="G2087" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2088">
-      <c r="A2088" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2088" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2088" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2088" t="inlineStr"/>
-      <c r="E2088" t="inlineStr"/>
-      <c r="F2088" t="inlineStr"/>
-      <c r="G2088" t="inlineStr"/>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2089">
-      <c r="A2089" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2089" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2089" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2089" t="inlineStr"/>
-      <c r="E2089" t="inlineStr"/>
-      <c r="F2089" t="inlineStr"/>
-      <c r="G2089" t="inlineStr"/>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2090">
-      <c r="A2090" t="inlineStr"/>
-      <c r="B2090" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2090" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2090" t="inlineStr"/>
-      <c r="E2090" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2091">
-      <c r="A2091" t="inlineStr"/>
-      <c r="B2091" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2091" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2091" t="inlineStr"/>
-      <c r="E2091" t="inlineStr"/>
-      <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr"/>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2092">
-      <c r="A2092" t="inlineStr"/>
-      <c r="B2092" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2092" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2092" t="inlineStr"/>
-      <c r="E2092" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr"/>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2093">
-      <c r="A2093" t="inlineStr"/>
-      <c r="B2093" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2093" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2093" t="inlineStr"/>
-      <c r="E2093" t="inlineStr"/>
-      <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2094">
-      <c r="A2094" t="inlineStr"/>
-      <c r="B2094" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2094" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2094" t="inlineStr"/>
-      <c r="E2094" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr"/>
-      <c r="H2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2095">
-      <c r="A2095" t="inlineStr"/>
-      <c r="B2095" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2095" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2095" t="inlineStr"/>
-      <c r="E2095" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2095" t="inlineStr"/>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2096">
-      <c r="A2096" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2096" t="inlineStr"/>
-      <c r="C2096" t="inlineStr"/>
-      <c r="D2096" t="inlineStr"/>
-      <c r="E2096" t="inlineStr"/>
-      <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr"/>
-      <c r="H2096" t="inlineStr"/>
-    </row>
-    <row r="2097">
-      <c r="A2097" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2097" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2097" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2097" t="inlineStr"/>
-      <c r="E2097" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr"/>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2098">
-      <c r="A2098" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2098" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2098" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2098" t="inlineStr"/>
-      <c r="E2098" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr"/>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2099">
-      <c r="A2099" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2099" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2099" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2099" t="inlineStr"/>
-      <c r="E2099" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr"/>
-      <c r="H2099" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2078"/>
+  <dimension ref="A1:H2055"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59069,10 +59069,8 @@
       </c>
       <c r="F1808" t="inlineStr"/>
       <c r="G1808" t="inlineStr"/>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1809">
@@ -59099,10 +59097,8 @@
       </c>
       <c r="F1809" t="inlineStr"/>
       <c r="G1809" t="inlineStr"/>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1810">
@@ -59133,10 +59129,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1811">
@@ -59167,10 +59161,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1812">
@@ -59201,10 +59193,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1813">
@@ -59227,10 +59217,8 @@
       <c r="E1813" t="inlineStr"/>
       <c r="F1813" t="inlineStr"/>
       <c r="G1813" t="inlineStr"/>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1814">
@@ -59253,10 +59241,8 @@
       <c r="E1814" t="inlineStr"/>
       <c r="F1814" t="inlineStr"/>
       <c r="G1814" t="inlineStr"/>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1815">
@@ -59283,10 +59269,8 @@
       </c>
       <c r="F1815" t="inlineStr"/>
       <c r="G1815" t="inlineStr"/>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1816">
@@ -59313,10 +59297,8 @@
       </c>
       <c r="F1816" t="inlineStr"/>
       <c r="G1816" t="inlineStr"/>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -59335,10 +59317,8 @@
       <c r="E1817" t="inlineStr"/>
       <c r="F1817" t="inlineStr"/>
       <c r="G1817" t="inlineStr"/>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -59365,10 +59345,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -59399,10 +59377,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -59447,10 +59423,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1822">
@@ -59481,10 +59455,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59511,10 +59483,8 @@
       </c>
       <c r="F1823" t="inlineStr"/>
       <c r="G1823" t="inlineStr"/>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59545,10 +59515,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1825">
@@ -59579,10 +59547,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59613,10 +59579,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1827">
@@ -59647,10 +59611,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59677,10 +59639,8 @@
       </c>
       <c r="F1828" t="inlineStr"/>
       <c r="G1828" t="inlineStr"/>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1829">
@@ -59711,10 +59671,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1830">
@@ -59741,10 +59699,8 @@
       </c>
       <c r="F1830" t="inlineStr"/>
       <c r="G1830" t="inlineStr"/>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59767,10 +59723,8 @@
       <c r="E1831" t="inlineStr"/>
       <c r="F1831" t="inlineStr"/>
       <c r="G1831" t="inlineStr"/>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59793,10 +59747,8 @@
       <c r="E1832" t="inlineStr"/>
       <c r="F1832" t="inlineStr"/>
       <c r="G1832" t="inlineStr"/>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -59819,10 +59771,8 @@
       <c r="E1833" t="inlineStr"/>
       <c r="F1833" t="inlineStr"/>
       <c r="G1833" t="inlineStr"/>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1834">
@@ -59849,10 +59799,8 @@
       </c>
       <c r="F1834" t="inlineStr"/>
       <c r="G1834" t="inlineStr"/>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -59883,10 +59831,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1836">
@@ -59917,10 +59863,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -59951,10 +59895,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -59985,10 +59927,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -60011,10 +59951,8 @@
       <c r="E1839" t="inlineStr"/>
       <c r="F1839" t="inlineStr"/>
       <c r="G1839" t="inlineStr"/>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -60045,10 +59983,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1841">
@@ -60079,10 +60015,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -60113,10 +60047,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -60147,10 +60079,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -60181,10 +60111,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -60215,10 +60143,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1846">
@@ -60249,10 +60175,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -60283,10 +60207,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -60317,10 +60239,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60351,10 +60271,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60385,10 +60303,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -60415,10 +60331,8 @@
       </c>
       <c r="F1851" t="inlineStr"/>
       <c r="G1851" t="inlineStr"/>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60445,10 +60359,8 @@
       </c>
       <c r="F1852" t="inlineStr"/>
       <c r="G1852" t="inlineStr"/>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60475,10 +60387,8 @@
       </c>
       <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr"/>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60515,10 +60425,8 @@
       <c r="E1855" t="inlineStr"/>
       <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr"/>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1856">
@@ -60549,10 +60457,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1857">
@@ -60583,10 +60489,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1858">
@@ -60617,10 +60521,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1859">
@@ -60651,10 +60553,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1860">
@@ -60685,10 +60585,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1861">
@@ -60715,10 +60613,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60745,10 +60641,8 @@
       </c>
       <c r="F1862" t="inlineStr"/>
       <c r="G1862" t="inlineStr"/>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60775,10 +60669,8 @@
       </c>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60805,10 +60697,8 @@
       </c>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60835,10 +60725,8 @@
       </c>
       <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr"/>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1866">
@@ -60865,10 +60753,8 @@
       </c>
       <c r="F1866" t="inlineStr"/>
       <c r="G1866" t="inlineStr"/>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1867">
@@ -60899,10 +60785,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1868">
@@ -60933,10 +60817,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1869">
@@ -60963,10 +60845,8 @@
       </c>
       <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr"/>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -60997,10 +60877,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -61027,10 +60905,8 @@
       </c>
       <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr"/>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -61057,10 +60933,8 @@
       </c>
       <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr"/>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1873">
@@ -61087,10 +60961,8 @@
       </c>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1874">
@@ -61117,10 +60989,8 @@
       </c>
       <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr"/>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61143,10 +61013,8 @@
       <c r="E1875" t="inlineStr"/>
       <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr"/>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -61173,10 +61041,8 @@
       </c>
       <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr"/>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -61207,10 +61073,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1878">
@@ -61233,10 +61097,8 @@
       <c r="E1878" t="inlineStr"/>
       <c r="F1878" t="inlineStr"/>
       <c r="G1878" t="inlineStr"/>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1879">
@@ -61259,10 +61121,8 @@
       <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr"/>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61285,10 +61145,8 @@
       <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
       <c r="G1880" t="inlineStr"/>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61311,10 +61169,8 @@
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61337,10 +61193,8 @@
       <c r="E1882" t="inlineStr"/>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61371,10 +61225,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1884">
@@ -61405,10 +61257,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1885">
@@ -61439,10 +61289,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1886">
@@ -61465,10 +61313,8 @@
       <c r="E1886" t="inlineStr"/>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1887">
@@ -61503,10 +61349,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1888">
@@ -61529,10 +61373,8 @@
       <c r="E1888" t="inlineStr"/>
       <c r="F1888" t="inlineStr"/>
       <c r="G1888" t="inlineStr"/>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1889">
@@ -61555,10 +61397,8 @@
       <c r="E1889" t="inlineStr"/>
       <c r="F1889" t="inlineStr"/>
       <c r="G1889" t="inlineStr"/>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1890">
@@ -61581,10 +61421,8 @@
       <c r="E1890" t="inlineStr"/>
       <c r="F1890" t="inlineStr"/>
       <c r="G1890" t="inlineStr"/>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1891">
@@ -61607,10 +61445,8 @@
       <c r="E1891" t="inlineStr"/>
       <c r="F1891" t="inlineStr"/>
       <c r="G1891" t="inlineStr"/>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61633,10 +61469,8 @@
       <c r="E1892" t="inlineStr"/>
       <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr"/>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61659,10 +61493,8 @@
       <c r="E1893" t="inlineStr"/>
       <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61685,10 +61517,8 @@
       <c r="E1894" t="inlineStr"/>
       <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr"/>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61711,10 +61541,8 @@
       <c r="E1895" t="inlineStr"/>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61737,10 +61565,8 @@
       <c r="E1896" t="inlineStr"/>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61763,10 +61589,8 @@
       <c r="E1897" t="inlineStr"/>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61797,10 +61621,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -61831,10 +61653,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -61857,10 +61677,8 @@
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
       <c r="G1900" t="inlineStr"/>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -61909,10 +61727,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1903">
@@ -61935,10 +61751,8 @@
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1904">
@@ -61969,10 +61783,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1905">
@@ -61995,10 +61807,8 @@
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr"/>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -62021,10 +61831,8 @@
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr"/>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -62051,10 +61859,8 @@
       </c>
       <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr"/>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -62077,10 +61883,8 @@
       <c r="E1908" t="inlineStr"/>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1909">
@@ -62111,10 +61915,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62145,10 +61947,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62179,10 +61979,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1912">
@@ -62209,10 +62007,8 @@
       </c>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr"/>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62243,10 +62039,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62277,10 +62071,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1915">
@@ -62311,10 +62103,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -62345,10 +62135,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62379,10 +62167,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62409,10 +62195,8 @@
       </c>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1919">
@@ -62439,10 +62223,8 @@
       </c>
       <c r="F1919" t="inlineStr"/>
       <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1920">
@@ -62465,10 +62247,8 @@
       <c r="E1920" t="inlineStr"/>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62491,10 +62271,8 @@
       <c r="E1921" t="inlineStr"/>
       <c r="F1921" t="inlineStr"/>
       <c r="G1921" t="inlineStr"/>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62517,10 +62295,8 @@
       <c r="E1922" t="inlineStr"/>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62551,10 +62327,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1924">
@@ -62585,10 +62359,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1925">
@@ -62619,10 +62391,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1926">
@@ -62653,10 +62423,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1927">
@@ -62687,10 +62455,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1928">
@@ -62721,10 +62487,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -62751,10 +62515,8 @@
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -62785,10 +62547,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1931">
@@ -62819,10 +62579,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1932">
@@ -62853,10 +62611,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1933">
@@ -62883,10 +62639,8 @@
       </c>
       <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr"/>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -62917,10 +62671,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
@@ -62951,10 +62703,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -62985,10 +62735,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1937">
@@ -63015,10 +62763,8 @@
       </c>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr"/>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -63041,10 +62787,8 @@
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -63075,10 +62819,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -63105,10 +62847,8 @@
       </c>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr"/>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -63135,10 +62875,8 @@
       </c>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr"/>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -63165,10 +62903,8 @@
       </c>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr"/>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63195,10 +62931,8 @@
       </c>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr"/>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63229,10 +62963,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -63255,10 +62987,8 @@
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
       <c r="G1945" t="inlineStr"/>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -63281,10 +63011,8 @@
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
       <c r="G1946" t="inlineStr"/>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -63307,10 +63035,8 @@
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr"/>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1948">
@@ -63333,10 +63059,8 @@
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr"/>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -63367,10 +63091,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1950">
@@ -63401,10 +63123,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1951">
@@ -63431,10 +63151,8 @@
       </c>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr"/>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1952">
@@ -63461,10 +63179,8 @@
       </c>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr"/>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -63491,10 +63207,8 @@
       </c>
       <c r="F1953" t="inlineStr"/>
       <c r="G1953" t="inlineStr"/>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1954">
@@ -63529,10 +63243,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1955">
@@ -63567,10 +63279,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1956">
@@ -63601,10 +63311,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1957">
@@ -63635,10 +63343,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1958">
@@ -63669,10 +63375,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1958" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1958" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1959">
@@ -63703,10 +63407,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1959" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1959" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1960">
@@ -63729,10 +63431,8 @@
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr"/>
-      <c r="H1960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1961">
@@ -63755,10 +63455,8 @@
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr"/>
-      <c r="H1961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1962">
@@ -63789,10 +63487,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1963">
@@ -63823,10 +63519,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -63849,10 +63543,8 @@
       <c r="E1964" t="inlineStr"/>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr"/>
-      <c r="H1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1965">
@@ -63883,10 +63575,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1966">
@@ -63917,10 +63607,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1967">
@@ -63943,10 +63631,8 @@
       <c r="E1967" t="inlineStr"/>
       <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr"/>
-      <c r="H1967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1968">
@@ -63977,10 +63663,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1969">
@@ -64011,10 +63695,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1970">
@@ -64037,10 +63719,8 @@
       <c r="E1970" t="inlineStr"/>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr"/>
-      <c r="H1970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1971">
@@ -64063,10 +63743,8 @@
       <c r="E1971" t="inlineStr"/>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr"/>
-      <c r="H1971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1972">
@@ -64089,10 +63767,8 @@
       <c r="E1972" t="inlineStr"/>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr"/>
-      <c r="H1972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1973">
@@ -64115,10 +63791,8 @@
       <c r="E1973" t="inlineStr"/>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr"/>
-      <c r="H1973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1974">
@@ -64141,10 +63815,8 @@
       <c r="E1974" t="inlineStr"/>
       <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr"/>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1975">
@@ -64167,10 +63839,8 @@
       </c>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr"/>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1976">
@@ -64197,10 +63867,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -64227,10 +63895,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1978">
@@ -64257,46 +63923,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1979" t="inlineStr"/>
-      <c r="C1979" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>Housing Starts YoYDEC</t>
+        </is>
+      </c>
       <c r="D1979" t="inlineStr"/>
-      <c r="E1979" t="inlineStr"/>
+      <c r="E1979" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
       <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr"/>
-      <c r="H1979" t="inlineStr"/>
+      <c r="G1979" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H1979" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Construction Orders YoYDEC</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
-      <c r="E1980" t="inlineStr"/>
+      <c r="E1980" t="inlineStr">
+        <is>
+          <t>-10.2%</t>
+        </is>
+      </c>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr"/>
+      <c r="G1980" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H1980" t="inlineStr">
         <is>
           <t>3</t>
@@ -64306,117 +63998,125 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr"/>
+      <c r="G1982" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1982" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr"/>
+      <c r="G1983" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1983" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
@@ -64430,27 +64130,31 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr"/>
+      <c r="G1985" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1985" t="inlineStr">
         <is>
           <t>3</t>
@@ -64460,27 +64164,31 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr"/>
+      <c r="G1986" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1986" t="inlineStr">
         <is>
           <t>2</t>
@@ -64490,63 +64198,63 @@
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>$22.29B</t>
         </is>
       </c>
       <c r="F1987" t="inlineStr"/>
       <c r="G1987" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H1988" t="inlineStr">
@@ -64558,29 +64266,29 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H1989" t="inlineStr">
@@ -64592,29 +64300,29 @@
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H1990" t="inlineStr">
@@ -64626,133 +64334,121 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1992" t="inlineStr"/>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G1993" t="inlineStr"/>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+      <c r="G1994" t="inlineStr"/>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64762,97 +64458,93 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>NBS Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="G1995" t="inlineStr"/>
       <c r="H1995" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>NBS Non Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>NBS General PMIJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1997" t="inlineStr">
@@ -64864,63 +64556,59 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1998" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1999" t="inlineStr">
@@ -64932,23 +64620,23 @@
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr"/>
@@ -64962,55 +64650,63 @@
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
-      <c r="E2001" t="inlineStr"/>
+      <c r="E2001" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2002" t="inlineStr">
@@ -65022,65 +64718,57 @@
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G2003" t="inlineStr"/>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2004" t="inlineStr"/>
       <c r="H2004" t="inlineStr">
         <is>
           <t>3</t>
@@ -65090,7 +64778,7 @@
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
@@ -65100,31 +64788,27 @@
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2005" t="inlineStr"/>
       <c r="H2005" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
@@ -65134,31 +64818,27 @@
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2006" t="inlineStr"/>
       <c r="H2006" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
@@ -65168,13 +64848,13 @@
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
@@ -65188,7 +64868,7 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
@@ -65198,21 +64878,17 @@
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2008" t="inlineStr"/>
       <c r="H2008" t="inlineStr">
         <is>
           <t>3</t>
@@ -65222,65 +64898,57 @@
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2009" t="inlineStr"/>
       <c r="H2009" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>$22.29B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+      <c r="G2010" t="inlineStr"/>
       <c r="H2010" t="inlineStr">
         <is>
           <t>3</t>
@@ -65290,31 +64958,23 @@
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E2011" t="inlineStr"/>
       <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2011" t="inlineStr"/>
       <c r="H2011" t="inlineStr">
         <is>
           <t>3</t>
@@ -65324,31 +64984,23 @@
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E2012" t="inlineStr"/>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2012" t="inlineStr"/>
       <c r="H2012" t="inlineStr">
         <is>
           <t>3</t>
@@ -65358,155 +65010,151 @@
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2013" t="inlineStr"/>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2013" t="inlineStr"/>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E2014" t="inlineStr"/>
       <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2014" t="inlineStr"/>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr"/>
+      <c r="G2015" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H2015" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr"/>
+      <c r="G2016" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2016" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
+      <c r="G2017" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2017" t="inlineStr">
         <is>
           <t>3</t>
@@ -65516,23 +65164,23 @@
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
@@ -65546,29 +65194,29 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2019" t="inlineStr"/>
       <c r="G2019" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2019" t="inlineStr">
@@ -65580,29 +65228,29 @@
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
       <c r="E2020" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2020" t="inlineStr"/>
       <c r="G2020" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2020" t="inlineStr">
@@ -65614,27 +65262,27 @@
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr"/>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2021" t="inlineStr"/>
       <c r="H2021" t="inlineStr">
         <is>
           <t>3</t>
@@ -65644,31 +65292,27 @@
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
       <c r="E2022" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2022" t="inlineStr"/>
       <c r="H2022" t="inlineStr">
         <is>
           <t>3</t>
@@ -65678,25 +65322,21 @@
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2023" t="inlineStr"/>
       <c r="F2023" t="inlineStr"/>
       <c r="G2023" t="inlineStr"/>
       <c r="H2023" t="inlineStr">
@@ -65708,63 +65348,63 @@
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2024" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2025" t="inlineStr">
@@ -65776,27 +65416,31 @@
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr"/>
+      <c r="G2026" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2026" t="inlineStr">
         <is>
           <t>2</t>
@@ -65806,7 +65450,7 @@
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
@@ -65816,27 +65460,27 @@
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr"/>
       <c r="H2027" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
@@ -65846,27 +65490,27 @@
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
       <c r="E2028" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2028" t="inlineStr"/>
       <c r="G2028" t="inlineStr"/>
       <c r="H2028" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
@@ -65876,13 +65520,13 @@
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2029" t="inlineStr"/>
@@ -65896,7 +65540,7 @@
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
@@ -65906,13 +65550,13 @@
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
       <c r="E2030" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2030" t="inlineStr"/>
@@ -65926,323 +65570,371 @@
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr"/>
+      <c r="G2031" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2031" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
       <c r="E2032" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr"/>
+      <c r="G2032" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2032" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2033" t="inlineStr"/>
       <c r="E2033" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr"/>
+      <c r="G2033" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2033" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr"/>
+      <c r="E2034" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr"/>
+      <c r="G2034" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2034" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr"/>
+      <c r="E2035" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr"/>
+      <c r="G2035" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2035" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr"/>
+      <c r="E2036" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr"/>
+      <c r="G2036" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2036" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr"/>
+      <c r="E2037" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
+      <c r="G2037" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2037" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2038" t="inlineStr"/>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2038" t="inlineStr"/>
       <c r="G2038" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2038" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr"/>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr"/>
       <c r="G2039" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2039" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2040" t="inlineStr"/>
       <c r="E2040" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2040" t="inlineStr"/>
       <c r="G2040" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2040" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2041" t="inlineStr"/>
       <c r="E2041" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr"/>
+      <c r="G2041" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2041" t="inlineStr">
         <is>
           <t>3</t>
@@ -66252,63 +65944,63 @@
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2042" t="inlineStr"/>
       <c r="E2042" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2042" t="inlineStr"/>
       <c r="G2042" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2043" t="inlineStr"/>
       <c r="E2043" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2043" t="inlineStr"/>
       <c r="G2043" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2043" t="inlineStr">
@@ -66320,25 +66012,21 @@
     <row r="2044">
       <c r="A2044" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2044" t="inlineStr"/>
-      <c r="E2044" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2044" t="inlineStr"/>
       <c r="F2044" t="inlineStr"/>
       <c r="G2044" t="inlineStr"/>
       <c r="H2044" t="inlineStr">
@@ -66350,25 +66038,21 @@
     <row r="2045">
       <c r="A2045" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2045" t="inlineStr"/>
-      <c r="E2045" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2045" t="inlineStr"/>
       <c r="F2045" t="inlineStr"/>
       <c r="G2045" t="inlineStr"/>
       <c r="H2045" t="inlineStr">
@@ -66378,25 +66062,29 @@
       </c>
     </row>
     <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2046" t="inlineStr"/>
       <c r="B2046" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2046" t="inlineStr"/>
-      <c r="E2046" t="inlineStr"/>
+      <c r="E2046" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2046" t="inlineStr"/>
-      <c r="G2046" t="inlineStr"/>
+      <c r="G2046" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2046" t="inlineStr">
         <is>
           <t>3</t>
@@ -66404,33 +66092,21 @@
       </c>
     </row>
     <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2047" t="inlineStr"/>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2047" t="inlineStr"/>
-      <c r="E2047" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E2047" t="inlineStr"/>
       <c r="F2047" t="inlineStr"/>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2047" t="inlineStr"/>
       <c r="H2047" t="inlineStr">
         <is>
           <t>3</t>
@@ -66438,946 +66114,212 @@
       </c>
     </row>
     <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2048" t="inlineStr"/>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2048" t="inlineStr"/>
       <c r="E2048" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2048" t="inlineStr"/>
       <c r="H2048" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2049" t="inlineStr"/>
       <c r="B2049" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2049" t="inlineStr"/>
-      <c r="E2049" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2049" t="inlineStr"/>
       <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2049" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2050" t="inlineStr"/>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr"/>
       <c r="E2050" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr"/>
       <c r="H2050" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2051" t="inlineStr"/>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr"/>
       <c r="E2051" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2051" t="inlineStr"/>
-      <c r="G2051" t="inlineStr"/>
+      <c r="G2051" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2051" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2052" t="inlineStr"/>
+      <c r="C2052" t="inlineStr"/>
       <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2052" t="inlineStr"/>
       <c r="F2052" t="inlineStr"/>
       <c r="G2052" t="inlineStr"/>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2052" t="inlineStr"/>
     </row>
     <row r="2053">
       <c r="A2053" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2053" t="inlineStr"/>
       <c r="E2053" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2053" t="inlineStr"/>
       <c r="G2053" t="inlineStr"/>
       <c r="H2053" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2054">
       <c r="A2054" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2054" t="inlineStr"/>
       <c r="E2054" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2054" t="inlineStr"/>
       <c r="H2054" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2055">
       <c r="A2055" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2055" t="inlineStr"/>
       <c r="E2055" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2055" t="inlineStr"/>
       <c r="H2055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2056" t="inlineStr"/>
-      <c r="E2056" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2056" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2057" t="inlineStr"/>
-      <c r="E2057" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2057" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2058">
-      <c r="A2058" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2058" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2058" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2058" t="inlineStr"/>
-      <c r="E2058" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2058" t="inlineStr"/>
-      <c r="G2058" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2058" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2059">
-      <c r="A2059" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2059" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2059" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2059" t="inlineStr"/>
-      <c r="E2059" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2059" t="inlineStr"/>
-      <c r="G2059" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2059" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2060">
-      <c r="A2060" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2060" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2060" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2060" t="inlineStr"/>
-      <c r="E2060" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2060" t="inlineStr"/>
-      <c r="G2060" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2061">
-      <c r="A2061" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2061" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2061" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2061" t="inlineStr"/>
-      <c r="E2061" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2061" t="inlineStr"/>
-      <c r="G2061" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2061" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2062">
-      <c r="A2062" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2062" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2062" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2062" t="inlineStr"/>
-      <c r="E2062" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2062" t="inlineStr"/>
-      <c r="G2062" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2063">
-      <c r="A2063" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2063" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2063" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2063" t="inlineStr"/>
-      <c r="E2063" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2063" t="inlineStr"/>
-      <c r="G2063" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2063" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2064">
-      <c r="A2064" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2064" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2064" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2064" t="inlineStr"/>
-      <c r="E2064" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2064" t="inlineStr"/>
-      <c r="G2064" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2065">
-      <c r="A2065" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2065" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2065" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2065" t="inlineStr"/>
-      <c r="E2065" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2065" t="inlineStr"/>
-      <c r="G2065" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2066">
-      <c r="A2066" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2066" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2066" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2066" t="inlineStr"/>
-      <c r="E2066" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2066" t="inlineStr"/>
-      <c r="G2066" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2067">
-      <c r="A2067" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2067" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2067" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2067" t="inlineStr"/>
-      <c r="E2067" t="inlineStr"/>
-      <c r="F2067" t="inlineStr"/>
-      <c r="G2067" t="inlineStr"/>
-      <c r="H2067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2068">
-      <c r="A2068" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2068" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2068" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2068" t="inlineStr"/>
-      <c r="E2068" t="inlineStr"/>
-      <c r="F2068" t="inlineStr"/>
-      <c r="G2068" t="inlineStr"/>
-      <c r="H2068" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2069">
-      <c r="A2069" t="inlineStr"/>
-      <c r="B2069" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2069" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2069" t="inlineStr"/>
-      <c r="E2069" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2069" t="inlineStr"/>
-      <c r="G2069" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2070">
-      <c r="A2070" t="inlineStr"/>
-      <c r="B2070" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2070" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2070" t="inlineStr"/>
-      <c r="E2070" t="inlineStr"/>
-      <c r="F2070" t="inlineStr"/>
-      <c r="G2070" t="inlineStr"/>
-      <c r="H2070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2071">
-      <c r="A2071" t="inlineStr"/>
-      <c r="B2071" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2071" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2071" t="inlineStr"/>
-      <c r="E2071" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2071" t="inlineStr"/>
-      <c r="G2071" t="inlineStr"/>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2072">
-      <c r="A2072" t="inlineStr"/>
-      <c r="B2072" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2072" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2072" t="inlineStr"/>
-      <c r="E2072" t="inlineStr"/>
-      <c r="F2072" t="inlineStr"/>
-      <c r="G2072" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2073">
-      <c r="A2073" t="inlineStr"/>
-      <c r="B2073" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2073" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2073" t="inlineStr"/>
-      <c r="E2073" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2073" t="inlineStr"/>
-      <c r="G2073" t="inlineStr"/>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2074">
-      <c r="A2074" t="inlineStr"/>
-      <c r="B2074" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2074" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2074" t="inlineStr"/>
-      <c r="E2074" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2074" t="inlineStr"/>
-      <c r="G2074" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2075">
-      <c r="A2075" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2075" t="inlineStr"/>
-      <c r="C2075" t="inlineStr"/>
-      <c r="D2075" t="inlineStr"/>
-      <c r="E2075" t="inlineStr"/>
-      <c r="F2075" t="inlineStr"/>
-      <c r="G2075" t="inlineStr"/>
-      <c r="H2075" t="inlineStr"/>
-    </row>
-    <row r="2076">
-      <c r="A2076" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2076" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2076" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2076" t="inlineStr"/>
-      <c r="E2076" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2076" t="inlineStr"/>
-      <c r="G2076" t="inlineStr"/>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2077" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2077" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2077" t="inlineStr"/>
-      <c r="E2077" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2077" t="inlineStr"/>
-      <c r="G2077" t="inlineStr"/>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2078" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2078" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2078" t="inlineStr"/>
-      <c r="E2078" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2078" t="inlineStr"/>
-      <c r="G2078" t="inlineStr"/>
-      <c r="H2078" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2055"/>
+  <dimension ref="A1:H2032"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61709,10 +61709,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1902">
@@ -61743,10 +61741,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1903">
@@ -61777,10 +61773,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1904">
@@ -61811,10 +61805,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1905">
@@ -61845,10 +61837,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -61875,10 +61865,8 @@
       </c>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr"/>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -61909,10 +61897,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1908">
@@ -61943,10 +61929,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1909">
@@ -61977,10 +61961,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1910">
@@ -62007,10 +61989,8 @@
       </c>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62041,10 +62021,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62075,10 +62053,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1913">
@@ -62109,10 +62085,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1914">
@@ -62139,10 +62113,8 @@
       </c>
       <c r="F1914" t="inlineStr"/>
       <c r="G1914" t="inlineStr"/>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1915">
@@ -62165,10 +62137,8 @@
       <c r="E1915" t="inlineStr"/>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -62199,10 +62169,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -62229,10 +62197,8 @@
       </c>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62259,10 +62225,8 @@
       </c>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62289,10 +62253,8 @@
       </c>
       <c r="F1919" t="inlineStr"/>
       <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62319,10 +62281,8 @@
       </c>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62353,10 +62313,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62379,10 +62337,8 @@
       <c r="E1922" t="inlineStr"/>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62405,10 +62361,8 @@
       <c r="E1923" t="inlineStr"/>
       <c r="F1923" t="inlineStr"/>
       <c r="G1923" t="inlineStr"/>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62431,10 +62385,8 @@
       <c r="E1924" t="inlineStr"/>
       <c r="F1924" t="inlineStr"/>
       <c r="G1924" t="inlineStr"/>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1925">
@@ -62457,10 +62409,8 @@
       <c r="E1925" t="inlineStr"/>
       <c r="F1925" t="inlineStr"/>
       <c r="G1925" t="inlineStr"/>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -62491,10 +62441,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -62525,10 +62473,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1928">
@@ -62555,10 +62501,8 @@
       </c>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr"/>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1929">
@@ -62585,10 +62529,8 @@
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -62615,10 +62557,8 @@
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -62653,10 +62593,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1932">
@@ -62691,10 +62629,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1933">
@@ -62725,10 +62661,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -62759,10 +62693,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
@@ -62793,10 +62725,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -62827,10 +62757,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1937">
@@ -62853,10 +62781,8 @@
       <c r="E1937" t="inlineStr"/>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr"/>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -62879,10 +62805,8 @@
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -62913,10 +62837,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1940">
@@ -62947,10 +62869,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -62973,10 +62893,8 @@
       <c r="E1941" t="inlineStr"/>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr"/>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -63007,10 +62925,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63041,10 +62957,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63067,10 +62981,8 @@
       <c r="E1944" t="inlineStr"/>
       <c r="F1944" t="inlineStr"/>
       <c r="G1944" t="inlineStr"/>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1945">
@@ -63101,10 +63013,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1946">
@@ -63135,10 +63045,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1947">
@@ -63161,10 +63069,8 @@
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr"/>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -63187,10 +63093,8 @@
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr"/>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -63213,10 +63117,8 @@
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr"/>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
@@ -63239,10 +63141,8 @@
       <c r="E1950" t="inlineStr"/>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1951">
@@ -63265,10 +63165,8 @@
       <c r="E1951" t="inlineStr"/>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr"/>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1952">
@@ -63291,10 +63189,8 @@
       </c>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr"/>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -63321,10 +63217,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1954">
@@ -63351,10 +63245,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
@@ -63381,46 +63273,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1956" t="inlineStr"/>
-      <c r="C1956" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1956" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C1956" t="inlineStr">
+        <is>
+          <t>Housing Starts YoYDEC</t>
+        </is>
+      </c>
       <c r="D1956" t="inlineStr"/>
-      <c r="E1956" t="inlineStr"/>
+      <c r="E1956" t="inlineStr">
+        <is>
+          <t>-1.8%</t>
+        </is>
+      </c>
       <c r="F1956" t="inlineStr"/>
-      <c r="G1956" t="inlineStr"/>
-      <c r="H1956" t="inlineStr"/>
+      <c r="G1956" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H1956" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Construction Orders YoYDEC</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
-      <c r="E1957" t="inlineStr"/>
+      <c r="E1957" t="inlineStr">
+        <is>
+          <t>-10.2%</t>
+        </is>
+      </c>
       <c r="F1957" t="inlineStr"/>
-      <c r="G1957" t="inlineStr"/>
+      <c r="G1957" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H1957" t="inlineStr">
         <is>
           <t>3</t>
@@ -63430,117 +63348,125 @@
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Business ConfidenceQ4</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H1958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
-      <c r="G1959" t="inlineStr"/>
+      <c r="G1959" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1959" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr"/>
+      <c r="G1960" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H1960" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
@@ -63554,27 +63480,31 @@
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr"/>
-      <c r="G1962" t="inlineStr"/>
+      <c r="G1962" t="inlineStr">
+        <is>
+          <t>3.6%</t>
+        </is>
+      </c>
       <c r="H1962" t="inlineStr">
         <is>
           <t>3</t>
@@ -63584,27 +63514,31 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr"/>
+      <c r="G1963" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1963" t="inlineStr">
         <is>
           <t>2</t>
@@ -63614,63 +63548,63 @@
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>$22.29B</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H1964" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H1965" t="inlineStr">
@@ -63682,29 +63616,29 @@
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H1966" t="inlineStr">
@@ -63716,29 +63650,29 @@
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H1967" t="inlineStr">
@@ -63750,133 +63684,121 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1969" t="inlineStr"/>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G1970" t="inlineStr"/>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+      <c r="G1971" t="inlineStr"/>
       <c r="H1971" t="inlineStr">
         <is>
           <t>3</t>
@@ -63886,97 +63808,93 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>NBS Manufacturing PMIJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>50.1</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+      <c r="G1972" t="inlineStr"/>
       <c r="H1972" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>NBS Non Manufacturing PMIJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>51.8</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>NBS General PMIJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>51.7</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1974" t="inlineStr">
@@ -63988,63 +63906,59 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Caixin Manufacturing PMIJAN</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>50.5</t>
-        </is>
-      </c>
+      <c r="E1975" t="inlineStr"/>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>50.5</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1975" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1976" t="inlineStr">
@@ -64056,23 +63970,23 @@
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
@@ -64086,55 +64000,63 @@
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
-      <c r="E1978" t="inlineStr"/>
+      <c r="E1978" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr"/>
+      <c r="G1978" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1979" t="inlineStr">
@@ -64146,65 +64068,57 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G1980" t="inlineStr"/>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1981" t="inlineStr"/>
       <c r="H1981" t="inlineStr">
         <is>
           <t>3</t>
@@ -64214,7 +64128,7 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
@@ -64224,31 +64138,27 @@
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1982" t="inlineStr"/>
       <c r="H1982" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
@@ -64258,31 +64168,27 @@
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1983" t="inlineStr"/>
       <c r="H1983" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
@@ -64292,13 +64198,13 @@
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
@@ -64312,7 +64218,7 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
@@ -64322,21 +64228,17 @@
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1985" t="inlineStr"/>
       <c r="H1985" t="inlineStr">
         <is>
           <t>3</t>
@@ -64346,65 +64248,57 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1986" t="inlineStr"/>
       <c r="H1986" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>$22.29B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+      <c r="G1987" t="inlineStr"/>
       <c r="H1987" t="inlineStr">
         <is>
           <t>3</t>
@@ -64414,31 +64308,23 @@
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E1988" t="inlineStr"/>
       <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1988" t="inlineStr"/>
       <c r="H1988" t="inlineStr">
         <is>
           <t>3</t>
@@ -64448,31 +64334,23 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
-      <c r="E1989" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E1989" t="inlineStr"/>
       <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1989" t="inlineStr"/>
       <c r="H1989" t="inlineStr">
         <is>
           <t>3</t>
@@ -64482,155 +64360,151 @@
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
-      <c r="E1990" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1990" t="inlineStr"/>
       <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1990" t="inlineStr"/>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
-      <c r="E1991" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E1991" t="inlineStr"/>
       <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr"/>
+      <c r="G1992" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr"/>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64640,23 +64514,23 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
@@ -64670,29 +64544,29 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1996" t="inlineStr">
@@ -64704,29 +64578,29 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1997" t="inlineStr">
@@ -64738,27 +64612,27 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr"/>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
         <is>
           <t>3</t>
@@ -64768,31 +64642,27 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1999" t="inlineStr"/>
       <c r="H1999" t="inlineStr">
         <is>
           <t>3</t>
@@ -64802,25 +64672,21 @@
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr"/>
       <c r="H2000" t="inlineStr">
@@ -64832,63 +64698,63 @@
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2002" t="inlineStr">
@@ -64900,27 +64766,31 @@
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr"/>
+      <c r="G2003" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2003" t="inlineStr">
         <is>
           <t>2</t>
@@ -64930,7 +64800,7 @@
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
@@ -64940,27 +64810,27 @@
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr"/>
       <c r="H2004" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
@@ -64970,27 +64840,27 @@
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
       <c r="H2005" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
@@ -65000,13 +64870,13 @@
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
@@ -65020,7 +64890,7 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
@@ -65030,13 +64900,13 @@
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
@@ -65050,323 +64920,371 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr"/>
+      <c r="G2008" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2008" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr"/>
+      <c r="G2009" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2009" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr"/>
+      <c r="G2010" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2010" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr"/>
+      <c r="G2011" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr"/>
+      <c r="E2012" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr"/>
+      <c r="E2013" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr"/>
+      <c r="G2013" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr"/>
+      <c r="E2014" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr"/>
+      <c r="G2014" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2015" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2016" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
+      <c r="G2018" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2018" t="inlineStr">
         <is>
           <t>3</t>
@@ -65376,63 +65294,63 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2019" t="inlineStr"/>
       <c r="G2019" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2019" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
       <c r="E2020" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2020" t="inlineStr"/>
       <c r="G2020" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2020" t="inlineStr">
@@ -65444,25 +65362,21 @@
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2021" t="inlineStr"/>
       <c r="F2021" t="inlineStr"/>
       <c r="G2021" t="inlineStr"/>
       <c r="H2021" t="inlineStr">
@@ -65474,25 +65388,21 @@
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2022" t="inlineStr"/>
       <c r="F2022" t="inlineStr"/>
       <c r="G2022" t="inlineStr"/>
       <c r="H2022" t="inlineStr">
@@ -65502,25 +65412,29 @@
       </c>
     </row>
     <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2023" t="inlineStr"/>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr"/>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr"/>
+      <c r="G2023" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2023" t="inlineStr">
         <is>
           <t>3</t>
@@ -65528,33 +65442,21 @@
       </c>
     </row>
     <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2024" t="inlineStr"/>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E2024" t="inlineStr"/>
       <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2024" t="inlineStr"/>
       <c r="H2024" t="inlineStr">
         <is>
           <t>3</t>
@@ -65562,946 +65464,212 @@
       </c>
     </row>
     <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2025" t="inlineStr"/>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2025" t="inlineStr"/>
       <c r="H2025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2026" t="inlineStr"/>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
-      <c r="E2026" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2026" t="inlineStr"/>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2026" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2027" t="inlineStr"/>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr"/>
       <c r="H2027" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2028" t="inlineStr"/>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
       <c r="E2028" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr"/>
+      <c r="G2028" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2028" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2029" t="inlineStr"/>
+      <c r="C2029" t="inlineStr"/>
       <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2029" t="inlineStr"/>
       <c r="F2029" t="inlineStr"/>
       <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2029" t="inlineStr"/>
     </row>
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
       <c r="E2030" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2030" t="inlineStr"/>
       <c r="G2030" t="inlineStr"/>
       <c r="H2030" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2031" t="inlineStr"/>
       <c r="H2031" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
       <c r="E2032" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2032" t="inlineStr"/>
       <c r="H2032" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2037" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2043" t="inlineStr"/>
-      <c r="E2043" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2044" t="inlineStr"/>
-      <c r="E2044" t="inlineStr"/>
-      <c r="F2044" t="inlineStr"/>
-      <c r="G2044" t="inlineStr"/>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2045" t="inlineStr"/>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr"/>
-      <c r="G2045" t="inlineStr"/>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr"/>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2046" t="inlineStr"/>
-      <c r="E2046" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2046" t="inlineStr"/>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr"/>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2047" t="inlineStr"/>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr"/>
-      <c r="G2047" t="inlineStr"/>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr"/>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2048" t="inlineStr"/>
-      <c r="E2048" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr"/>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr"/>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2049" t="inlineStr"/>
-      <c r="E2049" t="inlineStr"/>
-      <c r="F2049" t="inlineStr"/>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr"/>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2050" t="inlineStr"/>
-      <c r="E2050" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2050" t="inlineStr"/>
-      <c r="G2050" t="inlineStr"/>
-      <c r="H2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr"/>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2051" t="inlineStr"/>
-      <c r="E2051" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2051" t="inlineStr"/>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr"/>
-      <c r="C2052" t="inlineStr"/>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr"/>
-      <c r="H2052" t="inlineStr"/>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr"/>
-      <c r="H2053" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2054" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-      <c r="H2054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2055" t="inlineStr"/>
-      <c r="E2055" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr"/>
-      <c r="H2055" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2053"/>
+  <dimension ref="A1:H2030"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59409,10 +59409,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -59443,10 +59441,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1822">
@@ -59477,10 +59473,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59511,10 +59505,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59545,10 +59537,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1825">
@@ -59579,10 +59569,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59613,10 +59601,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1827">
@@ -59647,10 +59633,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59681,10 +59665,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59715,10 +59697,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59745,10 +59725,8 @@
       </c>
       <c r="F1830" t="inlineStr"/>
       <c r="G1830" t="inlineStr"/>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59775,10 +59753,8 @@
       </c>
       <c r="F1831" t="inlineStr"/>
       <c r="G1831" t="inlineStr"/>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59805,10 +59781,8 @@
       </c>
       <c r="F1832" t="inlineStr"/>
       <c r="G1832" t="inlineStr"/>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -59845,10 +59819,8 @@
       <c r="E1834" t="inlineStr"/>
       <c r="F1834" t="inlineStr"/>
       <c r="G1834" t="inlineStr"/>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1835">
@@ -59879,10 +59851,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1836">
@@ -59913,10 +59883,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -59947,10 +59915,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1838">
@@ -59981,10 +59947,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -60015,10 +59979,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1840">
@@ -60045,10 +60007,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -60075,10 +60035,8 @@
       </c>
       <c r="F1841" t="inlineStr"/>
       <c r="G1841" t="inlineStr"/>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -60105,10 +60063,8 @@
       </c>
       <c r="F1842" t="inlineStr"/>
       <c r="G1842" t="inlineStr"/>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -60135,10 +60091,8 @@
       </c>
       <c r="F1843" t="inlineStr"/>
       <c r="G1843" t="inlineStr"/>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -60165,10 +60119,8 @@
       </c>
       <c r="F1844" t="inlineStr"/>
       <c r="G1844" t="inlineStr"/>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1845">
@@ -60195,10 +60147,8 @@
       </c>
       <c r="F1845" t="inlineStr"/>
       <c r="G1845" t="inlineStr"/>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1846">
@@ -60229,10 +60179,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1847">
@@ -60263,10 +60211,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1848">
@@ -60293,10 +60239,8 @@
       </c>
       <c r="F1848" t="inlineStr"/>
       <c r="G1848" t="inlineStr"/>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60327,10 +60271,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60357,10 +60299,8 @@
       </c>
       <c r="F1850" t="inlineStr"/>
       <c r="G1850" t="inlineStr"/>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -60387,10 +60327,8 @@
       </c>
       <c r="F1851" t="inlineStr"/>
       <c r="G1851" t="inlineStr"/>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1852">
@@ -60417,10 +60355,8 @@
       </c>
       <c r="F1852" t="inlineStr"/>
       <c r="G1852" t="inlineStr"/>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1853">
@@ -60447,10 +60383,8 @@
       </c>
       <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr"/>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60473,10 +60407,8 @@
       <c r="E1854" t="inlineStr"/>
       <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr"/>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60503,10 +60435,8 @@
       </c>
       <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr"/>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60537,10 +60467,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1857">
@@ -60563,10 +60491,8 @@
       <c r="E1857" t="inlineStr"/>
       <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr"/>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1858">
@@ -60589,10 +60515,8 @@
       <c r="E1858" t="inlineStr"/>
       <c r="F1858" t="inlineStr"/>
       <c r="G1858" t="inlineStr"/>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60615,10 +60539,8 @@
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
       <c r="G1859" t="inlineStr"/>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60641,10 +60563,8 @@
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
       <c r="G1860" t="inlineStr"/>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60667,10 +60587,8 @@
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
       <c r="G1861" t="inlineStr"/>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60701,10 +60619,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1863">
@@ -60735,10 +60651,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1864">
@@ -60769,10 +60683,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1865">
@@ -60795,10 +60707,8 @@
       <c r="E1865" t="inlineStr"/>
       <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr"/>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1866">
@@ -60833,10 +60743,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1867">
@@ -60859,10 +60767,8 @@
       <c r="E1867" t="inlineStr"/>
       <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr"/>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1868">
@@ -60885,10 +60791,8 @@
       <c r="E1868" t="inlineStr"/>
       <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr"/>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1869">
@@ -60911,10 +60815,8 @@
       <c r="E1869" t="inlineStr"/>
       <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr"/>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1870">
@@ -60937,10 +60839,8 @@
       <c r="E1870" t="inlineStr"/>
       <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr"/>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -60963,10 +60863,8 @@
       <c r="E1871" t="inlineStr"/>
       <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr"/>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -60989,10 +60887,8 @@
       <c r="E1872" t="inlineStr"/>
       <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr"/>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -61015,10 +60911,8 @@
       <c r="E1873" t="inlineStr"/>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -61041,10 +60935,8 @@
       <c r="E1874" t="inlineStr"/>
       <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr"/>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61067,10 +60959,8 @@
       <c r="E1875" t="inlineStr"/>
       <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr"/>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -61093,10 +60983,8 @@
       <c r="E1876" t="inlineStr"/>
       <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr"/>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -61127,10 +61015,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -61161,10 +61047,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1879">
@@ -61187,10 +61071,8 @@
       <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr"/>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61239,10 +61121,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1882">
@@ -61265,10 +61145,8 @@
       <c r="E1882" t="inlineStr"/>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1883">
@@ -61299,10 +61177,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1884">
@@ -61325,10 +61201,8 @@
       <c r="E1884" t="inlineStr"/>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61351,10 +61225,8 @@
       <c r="E1885" t="inlineStr"/>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61381,10 +61253,8 @@
       </c>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61407,10 +61277,8 @@
       <c r="E1887" t="inlineStr"/>
       <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr"/>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1888">
@@ -61441,10 +61309,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61475,10 +61341,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61509,10 +61373,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1891">
@@ -61539,10 +61401,8 @@
       </c>
       <c r="F1891" t="inlineStr"/>
       <c r="G1891" t="inlineStr"/>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61573,10 +61433,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61607,10 +61465,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1894">
@@ -61641,10 +61497,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1895">
@@ -61675,10 +61529,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61709,10 +61561,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61739,10 +61589,8 @@
       </c>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1898">
@@ -61769,10 +61617,8 @@
       </c>
       <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr"/>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1899">
@@ -61795,10 +61641,8 @@
       <c r="E1899" t="inlineStr"/>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr"/>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -61821,10 +61665,8 @@
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
       <c r="G1900" t="inlineStr"/>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -61847,10 +61689,8 @@
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -61881,10 +61721,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1903">
@@ -61915,10 +61753,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1904">
@@ -61949,10 +61785,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1905">
@@ -61983,10 +61817,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1906">
@@ -62017,10 +61849,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1907">
@@ -62051,10 +61881,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -62081,10 +61909,8 @@
       </c>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -62115,10 +61941,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1910">
@@ -62149,10 +61973,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1911">
@@ -62183,10 +62005,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1912">
@@ -62213,10 +62033,8 @@
       </c>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr"/>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62247,10 +62065,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62281,10 +62097,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1915">
@@ -62315,10 +62129,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1916">
@@ -62345,10 +62157,8 @@
       </c>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -62371,10 +62181,8 @@
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1918">
@@ -62405,10 +62213,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1919">
@@ -62435,10 +62241,8 @@
       </c>
       <c r="F1919" t="inlineStr"/>
       <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62465,10 +62269,8 @@
       </c>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62495,10 +62297,8 @@
       </c>
       <c r="F1921" t="inlineStr"/>
       <c r="G1921" t="inlineStr"/>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62525,10 +62325,8 @@
       </c>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62559,10 +62357,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62585,10 +62381,8 @@
       <c r="E1924" t="inlineStr"/>
       <c r="F1924" t="inlineStr"/>
       <c r="G1924" t="inlineStr"/>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1925">
@@ -62611,10 +62405,8 @@
       <c r="E1925" t="inlineStr"/>
       <c r="F1925" t="inlineStr"/>
       <c r="G1925" t="inlineStr"/>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -62637,10 +62429,8 @@
       <c r="E1926" t="inlineStr"/>
       <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr"/>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -62663,10 +62453,8 @@
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62697,10 +62485,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1929">
@@ -62731,10 +62517,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1930">
@@ -62761,10 +62545,8 @@
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1931">
@@ -62791,10 +62573,8 @@
       </c>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr"/>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62821,10 +62601,8 @@
       </c>
       <c r="F1932" t="inlineStr"/>
       <c r="G1932" t="inlineStr"/>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -62859,10 +62637,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1934">
@@ -62897,10 +62673,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1935">
@@ -62931,10 +62705,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1936">
@@ -62965,10 +62737,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -62999,10 +62769,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1938">
@@ -63033,10 +62801,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -63059,10 +62825,8 @@
       <c r="E1939" t="inlineStr"/>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr"/>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -63085,10 +62849,8 @@
       <c r="E1940" t="inlineStr"/>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr"/>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -63119,10 +62881,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -63153,10 +62913,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63179,10 +62937,8 @@
       <c r="E1943" t="inlineStr"/>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr"/>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63213,10 +62969,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -63247,10 +63001,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -63273,10 +63025,8 @@
       <c r="E1946" t="inlineStr"/>
       <c r="F1946" t="inlineStr"/>
       <c r="G1946" t="inlineStr"/>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1947">
@@ -63307,10 +63057,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1948">
@@ -63341,10 +63089,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1949">
@@ -63367,10 +63113,8 @@
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr"/>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
@@ -63393,10 +63137,8 @@
       <c r="E1950" t="inlineStr"/>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1951">
@@ -63419,10 +63161,8 @@
       <c r="E1951" t="inlineStr"/>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr"/>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1952">
@@ -63445,10 +63185,8 @@
       <c r="E1952" t="inlineStr"/>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr"/>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -63471,10 +63209,8 @@
       <c r="E1953" t="inlineStr"/>
       <c r="F1953" t="inlineStr"/>
       <c r="G1953" t="inlineStr"/>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1954">
@@ -63497,10 +63233,8 @@
       </c>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr"/>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
@@ -63527,10 +63261,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1956">
@@ -63557,10 +63289,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1957">
@@ -63587,44 +63317,66 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1958" t="inlineStr"/>
-      <c r="C1958" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1958" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1958" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1958" t="inlineStr"/>
-      <c r="E1958" t="inlineStr"/>
+      <c r="E1958" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F1958" t="inlineStr"/>
-      <c r="G1958" t="inlineStr"/>
-      <c r="H1958" t="inlineStr"/>
+      <c r="G1958" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H1958" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
-      <c r="E1959" t="inlineStr"/>
+      <c r="E1959" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr"/>
       <c r="H1959" t="inlineStr">
@@ -63636,91 +63388,103 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1960" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
-      <c r="G1961" t="inlineStr"/>
+      <c r="G1961" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1961" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1962" t="inlineStr"/>
-      <c r="G1962" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F1962" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G1962" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H1962" t="inlineStr">
         <is>
           <t>3</t>
@@ -63730,27 +63494,31 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr"/>
+      <c r="G1963" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H1963" t="inlineStr">
         <is>
           <t>3</t>
@@ -63760,27 +63528,31 @@
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H1964" t="inlineStr">
         <is>
           <t>3</t>
@@ -63790,27 +63562,31 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H1965" t="inlineStr">
         <is>
           <t>2</t>
@@ -63820,29 +63596,29 @@
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1966" t="inlineStr">
@@ -63854,133 +63630,117 @@
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
+      <c r="G1967" t="inlineStr"/>
       <c r="H1967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G1968" t="inlineStr"/>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1969" t="inlineStr"/>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1970" t="inlineStr"/>
       <c r="H1970" t="inlineStr">
         <is>
           <t>3</t>
@@ -63990,29 +63750,29 @@
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1971" t="inlineStr">
@@ -64024,29 +63784,29 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1972" t="inlineStr">
@@ -64058,29 +63818,25 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
-      <c r="E1973" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="E1973" t="inlineStr"/>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1973" t="inlineStr">
@@ -64092,29 +63848,29 @@
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1974" t="inlineStr">
@@ -64126,23 +63882,23 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
@@ -64156,55 +63912,63 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
-      <c r="E1976" t="inlineStr"/>
+      <c r="E1976" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr"/>
+      <c r="G1976" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1977" t="inlineStr">
@@ -64216,65 +63980,57 @@
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1979" t="inlineStr"/>
       <c r="H1979" t="inlineStr">
         <is>
           <t>3</t>
@@ -64284,7 +64040,7 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
@@ -64294,31 +64050,27 @@
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1980" t="inlineStr"/>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
@@ -64328,31 +64080,27 @@
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1981" t="inlineStr"/>
       <c r="H1981" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
@@ -64362,13 +64110,13 @@
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
@@ -64382,7 +64130,7 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
@@ -64392,21 +64140,17 @@
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1983" t="inlineStr"/>
       <c r="H1983" t="inlineStr">
         <is>
           <t>3</t>
@@ -64416,69 +64160,57 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1984" t="inlineStr"/>
       <c r="H1984" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1985" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F1985" t="inlineStr"/>
+      <c r="G1985" t="inlineStr"/>
       <c r="H1985" t="inlineStr">
         <is>
           <t>3</t>
@@ -64488,31 +64220,23 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E1986" t="inlineStr"/>
       <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1986" t="inlineStr"/>
       <c r="H1986" t="inlineStr">
         <is>
           <t>3</t>
@@ -64522,31 +64246,23 @@
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E1987" t="inlineStr"/>
       <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1987" t="inlineStr"/>
       <c r="H1987" t="inlineStr">
         <is>
           <t>3</t>
@@ -64556,155 +64272,151 @@
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1988" t="inlineStr"/>
       <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1988" t="inlineStr"/>
       <c r="H1988" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
-      <c r="E1989" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E1989" t="inlineStr"/>
       <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1989" t="inlineStr"/>
       <c r="H1989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr"/>
+      <c r="G1990" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr"/>
+      <c r="G1991" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr"/>
+      <c r="G1992" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1992" t="inlineStr">
         <is>
           <t>3</t>
@@ -64714,23 +64426,23 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
@@ -64744,29 +64456,29 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1994" t="inlineStr">
@@ -64778,29 +64490,29 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1995" t="inlineStr">
@@ -64812,27 +64524,27 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr"/>
+      <c r="E1996" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1996" t="inlineStr"/>
       <c r="H1996" t="inlineStr">
         <is>
           <t>3</t>
@@ -64842,31 +64554,27 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
         <is>
           <t>3</t>
@@ -64876,25 +64584,21 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
@@ -64906,63 +64610,63 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
       <c r="G1999" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H1999" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr"/>
       <c r="G2000" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2000" t="inlineStr">
@@ -64974,27 +64678,31 @@
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2001" t="inlineStr">
         <is>
           <t>2</t>
@@ -65004,7 +64712,7 @@
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
@@ -65014,27 +64722,27 @@
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr"/>
       <c r="H2002" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
@@ -65044,27 +64752,27 @@
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr"/>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
@@ -65074,13 +64782,13 @@
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
@@ -65094,7 +64802,7 @@
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
@@ -65104,13 +64812,13 @@
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
@@ -65124,323 +64832,371 @@
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr"/>
+      <c r="G2006" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2006" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr"/>
+      <c r="G2007" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2007" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr"/>
+      <c r="G2008" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2008" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
+      <c r="E2009" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr"/>
+      <c r="G2009" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2009" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr"/>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr"/>
+      <c r="G2010" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2010" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr"/>
+      <c r="G2011" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr"/>
+      <c r="E2012" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr"/>
       <c r="G2014" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2015" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr"/>
+      <c r="G2016" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2016" t="inlineStr">
         <is>
           <t>3</t>
@@ -65450,63 +65206,63 @@
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
       <c r="G2018" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2018" t="inlineStr">
@@ -65518,25 +65274,21 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2019" t="inlineStr"/>
       <c r="F2019" t="inlineStr"/>
       <c r="G2019" t="inlineStr"/>
       <c r="H2019" t="inlineStr">
@@ -65548,25 +65300,21 @@
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2020" t="inlineStr"/>
       <c r="F2020" t="inlineStr"/>
       <c r="G2020" t="inlineStr"/>
       <c r="H2020" t="inlineStr">
@@ -65576,25 +65324,29 @@
       </c>
     </row>
     <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2021" t="inlineStr"/>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr"/>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr"/>
+      <c r="G2021" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2021" t="inlineStr">
         <is>
           <t>3</t>
@@ -65602,33 +65354,21 @@
       </c>
     </row>
     <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2022" t="inlineStr"/>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E2022" t="inlineStr"/>
       <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2022" t="inlineStr"/>
       <c r="H2022" t="inlineStr">
         <is>
           <t>3</t>
@@ -65636,946 +65376,212 @@
       </c>
     </row>
     <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2023" t="inlineStr"/>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2023" t="inlineStr"/>
       <c r="H2023" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2024" t="inlineStr"/>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2024" t="inlineStr"/>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2024" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2025" t="inlineStr"/>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr"/>
       <c r="H2025" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2026" t="inlineStr"/>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr"/>
+      <c r="G2026" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2026" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2027" t="inlineStr"/>
+      <c r="C2027" t="inlineStr"/>
       <c r="D2027" t="inlineStr"/>
-      <c r="E2027" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2027" t="inlineStr"/>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2027" t="inlineStr"/>
     </row>
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
       <c r="E2028" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2028" t="inlineStr"/>
       <c r="G2028" t="inlineStr"/>
       <c r="H2028" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2029" t="inlineStr"/>
       <c r="H2029" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
       <c r="E2030" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2030" t="inlineStr"/>
       <c r="H2030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2037" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2037" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr"/>
-      <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr"/>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2043" t="inlineStr"/>
-      <c r="E2043" t="inlineStr"/>
-      <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr"/>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr"/>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2044" t="inlineStr"/>
-      <c r="E2044" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2044" t="inlineStr"/>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr"/>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2045" t="inlineStr"/>
-      <c r="E2045" t="inlineStr"/>
-      <c r="F2045" t="inlineStr"/>
-      <c r="G2045" t="inlineStr"/>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr"/>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2046" t="inlineStr"/>
-      <c r="E2046" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2046" t="inlineStr"/>
-      <c r="G2046" t="inlineStr"/>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr"/>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2047" t="inlineStr"/>
-      <c r="E2047" t="inlineStr"/>
-      <c r="F2047" t="inlineStr"/>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr"/>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2048" t="inlineStr"/>
-      <c r="E2048" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr"/>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr"/>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2049" t="inlineStr"/>
-      <c r="E2049" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2049" t="inlineStr"/>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr"/>
-      <c r="C2050" t="inlineStr"/>
-      <c r="D2050" t="inlineStr"/>
-      <c r="E2050" t="inlineStr"/>
-      <c r="F2050" t="inlineStr"/>
-      <c r="G2050" t="inlineStr"/>
-      <c r="H2050" t="inlineStr"/>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2051" t="inlineStr"/>
-      <c r="E2051" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2051" t="inlineStr"/>
-      <c r="G2051" t="inlineStr"/>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr"/>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr"/>
-      <c r="H2053" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2030"/>
+  <dimension ref="A1:H2007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61103,10 +61103,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1881">
@@ -61137,10 +61135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1882">
@@ -61171,10 +61167,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1883">
@@ -61205,10 +61199,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1884">
@@ -61239,10 +61231,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61269,10 +61259,8 @@
       </c>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61303,10 +61291,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1887">
@@ -61337,10 +61323,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1888">
@@ -61371,10 +61355,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1889">
@@ -61401,10 +61383,8 @@
       </c>
       <c r="F1889" t="inlineStr"/>
       <c r="G1889" t="inlineStr"/>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61435,10 +61415,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61469,10 +61447,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1892">
@@ -61503,10 +61479,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1893">
@@ -61533,10 +61507,8 @@
       </c>
       <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1894">
@@ -61559,10 +61531,8 @@
       <c r="E1894" t="inlineStr"/>
       <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr"/>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1895">
@@ -61593,10 +61563,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1896">
@@ -61623,10 +61591,8 @@
       </c>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61653,10 +61619,8 @@
       </c>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61683,10 +61647,8 @@
       </c>
       <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr"/>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -61713,10 +61675,8 @@
       </c>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr"/>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -61747,10 +61707,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -61773,10 +61731,8 @@
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -61799,10 +61755,8 @@
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr"/>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -61825,10 +61779,8 @@
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1904">
@@ -61851,10 +61803,8 @@
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -61885,10 +61835,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1906">
@@ -61919,10 +61867,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1907">
@@ -61949,10 +61895,8 @@
       </c>
       <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr"/>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1908">
@@ -61979,10 +61923,8 @@
       </c>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -62009,10 +61951,8 @@
       </c>
       <c r="F1909" t="inlineStr"/>
       <c r="G1909" t="inlineStr"/>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62047,10 +61987,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1911">
@@ -62085,10 +62023,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1912">
@@ -62119,10 +62055,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62153,10 +62087,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62187,10 +62119,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1915">
@@ -62221,10 +62151,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -62247,10 +62175,8 @@
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -62273,10 +62199,8 @@
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62307,10 +62231,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62341,10 +62263,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62367,10 +62287,8 @@
       <c r="E1920" t="inlineStr"/>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62401,10 +62319,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62435,10 +62351,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62461,10 +62375,8 @@
       <c r="E1923" t="inlineStr"/>
       <c r="F1923" t="inlineStr"/>
       <c r="G1923" t="inlineStr"/>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1924">
@@ -62495,10 +62407,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1925">
@@ -62529,10 +62439,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1926">
@@ -62555,10 +62463,8 @@
       <c r="E1926" t="inlineStr"/>
       <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr"/>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -62581,10 +62487,8 @@
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62607,10 +62511,8 @@
       <c r="E1928" t="inlineStr"/>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr"/>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -62633,10 +62535,8 @@
       <c r="E1929" t="inlineStr"/>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -62659,10 +62559,8 @@
       <c r="E1930" t="inlineStr"/>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -62685,10 +62583,8 @@
       </c>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr"/>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62715,10 +62611,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -62745,10 +62639,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -62775,44 +62667,66 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1935" t="inlineStr"/>
-      <c r="C1935" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1935" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1935" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1935" t="inlineStr"/>
-      <c r="E1935" t="inlineStr"/>
+      <c r="E1935" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F1935" t="inlineStr"/>
-      <c r="G1935" t="inlineStr"/>
-      <c r="H1935" t="inlineStr"/>
+      <c r="G1935" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H1935" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
-      <c r="E1936" t="inlineStr"/>
+      <c r="E1936" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr"/>
       <c r="H1936" t="inlineStr">
@@ -62824,91 +62738,103 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1937" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1938" t="inlineStr"/>
-      <c r="G1938" t="inlineStr"/>
+      <c r="G1938" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1938" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1939" t="inlineStr"/>
-      <c r="G1939" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F1939" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G1939" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H1939" t="inlineStr">
         <is>
           <t>3</t>
@@ -62918,27 +62844,31 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr"/>
-      <c r="G1940" t="inlineStr"/>
+      <c r="G1940" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H1940" t="inlineStr">
         <is>
           <t>3</t>
@@ -62948,27 +62878,31 @@
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1941" t="inlineStr"/>
-      <c r="G1941" t="inlineStr"/>
+      <c r="G1941" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H1941" t="inlineStr">
         <is>
           <t>3</t>
@@ -62978,27 +62912,31 @@
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr"/>
+      <c r="G1942" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H1942" t="inlineStr">
         <is>
           <t>2</t>
@@ -63008,29 +62946,29 @@
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1943" t="inlineStr">
@@ -63042,133 +62980,117 @@
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1944" t="inlineStr"/>
-      <c r="G1944" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
+      <c r="G1944" t="inlineStr"/>
       <c r="H1944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G1945" t="inlineStr"/>
       <c r="H1945" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1946" t="inlineStr"/>
       <c r="H1946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1947" t="inlineStr"/>
       <c r="H1947" t="inlineStr">
         <is>
           <t>3</t>
@@ -63178,29 +63100,29 @@
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1948" t="inlineStr">
@@ -63212,29 +63134,29 @@
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1949" t="inlineStr">
@@ -63246,29 +63168,25 @@
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
-      <c r="E1950" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="E1950" t="inlineStr"/>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1950" t="inlineStr">
@@ -63280,29 +63198,29 @@
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1951" t="inlineStr">
@@ -63314,23 +63232,23 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
@@ -63344,55 +63262,63 @@
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
-      <c r="E1953" t="inlineStr"/>
+      <c r="E1953" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr"/>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H1953" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1954" t="inlineStr">
@@ -63404,65 +63330,57 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1955" t="inlineStr"/>
-      <c r="G1955" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G1955" t="inlineStr"/>
       <c r="H1955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1956" t="inlineStr"/>
-      <c r="G1956" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1956" t="inlineStr"/>
       <c r="H1956" t="inlineStr">
         <is>
           <t>3</t>
@@ -63472,7 +63390,7 @@
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
@@ -63482,31 +63400,27 @@
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
-      <c r="G1957" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1957" t="inlineStr"/>
       <c r="H1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
@@ -63516,31 +63430,27 @@
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
-      <c r="G1958" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1958" t="inlineStr"/>
       <c r="H1958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
@@ -63550,13 +63460,13 @@
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
@@ -63570,7 +63480,7 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
@@ -63580,21 +63490,17 @@
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1960" t="inlineStr"/>
       <c r="H1960" t="inlineStr">
         <is>
           <t>3</t>
@@ -63604,69 +63510,57 @@
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
-      <c r="G1961" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1961" t="inlineStr"/>
       <c r="H1961" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1962" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1962" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F1962" t="inlineStr"/>
+      <c r="G1962" t="inlineStr"/>
       <c r="H1962" t="inlineStr">
         <is>
           <t>3</t>
@@ -63676,31 +63570,23 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
-      <c r="E1963" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E1963" t="inlineStr"/>
       <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1963" t="inlineStr"/>
       <c r="H1963" t="inlineStr">
         <is>
           <t>3</t>
@@ -63710,31 +63596,23 @@
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
-      <c r="E1964" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E1964" t="inlineStr"/>
       <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1964" t="inlineStr"/>
       <c r="H1964" t="inlineStr">
         <is>
           <t>3</t>
@@ -63744,155 +63622,151 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
-      <c r="E1965" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1965" t="inlineStr"/>
       <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1965" t="inlineStr"/>
       <c r="H1965" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E1966" t="inlineStr"/>
       <c r="F1966" t="inlineStr"/>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1966" t="inlineStr"/>
       <c r="H1966" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr"/>
+      <c r="G1967" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H1967" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr"/>
+      <c r="G1968" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr"/>
+      <c r="G1969" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1969" t="inlineStr">
         <is>
           <t>3</t>
@@ -63902,23 +63776,23 @@
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
@@ -63932,29 +63806,29 @@
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1971" t="inlineStr">
@@ -63966,29 +63840,29 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1972" t="inlineStr">
@@ -64000,27 +63874,27 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
-      <c r="E1973" t="inlineStr"/>
+      <c r="E1973" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F1973" t="inlineStr"/>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1973" t="inlineStr"/>
       <c r="H1973" t="inlineStr">
         <is>
           <t>3</t>
@@ -64030,31 +63904,27 @@
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
         <is>
           <t>3</t>
@@ -64064,25 +63934,21 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
-      <c r="E1975" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E1975" t="inlineStr"/>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
@@ -64094,63 +63960,63 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H1977" t="inlineStr">
@@ -64162,27 +64028,31 @@
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr"/>
+      <c r="G1978" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H1978" t="inlineStr">
         <is>
           <t>2</t>
@@ -64192,7 +64062,7 @@
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
@@ -64202,27 +64072,27 @@
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr"/>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
@@ -64232,27 +64102,27 @@
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr"/>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
@@ -64262,13 +64132,13 @@
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
@@ -64282,7 +64152,7 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
@@ -64292,13 +64162,13 @@
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
@@ -64312,323 +64182,371 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr"/>
+      <c r="G1983" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1983" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
-      <c r="G1984" t="inlineStr"/>
+      <c r="G1984" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1984" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr"/>
+      <c r="G1985" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr"/>
+      <c r="E1986" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr"/>
+      <c r="G1986" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1986" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr"/>
+      <c r="E1987" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr"/>
+      <c r="G1987" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr"/>
+      <c r="E1988" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr"/>
+      <c r="G1988" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1988" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
-      <c r="E1989" t="inlineStr"/>
+      <c r="E1989" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr"/>
+      <c r="G1989" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr"/>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1993" t="inlineStr">
         <is>
           <t>3</t>
@@ -64638,63 +64556,63 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
       <c r="G1994" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H1994" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H1995" t="inlineStr">
@@ -64706,25 +64624,21 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr"/>
       <c r="H1996" t="inlineStr">
@@ -64736,25 +64650,21 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
@@ -64764,25 +64674,29 @@
       </c>
     </row>
     <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A1998" t="inlineStr"/>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr"/>
+      <c r="E1998" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr"/>
+      <c r="G1998" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H1998" t="inlineStr">
         <is>
           <t>3</t>
@@ -64790,33 +64704,21 @@
       </c>
     </row>
     <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A1999" t="inlineStr"/>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G1999" t="inlineStr"/>
       <c r="H1999" t="inlineStr">
         <is>
           <t>3</t>
@@ -64824,946 +64726,212 @@
       </c>
     </row>
     <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2000" t="inlineStr"/>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2000" t="inlineStr"/>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2001" t="inlineStr"/>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
-      <c r="E2001" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2001" t="inlineStr"/>
       <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2002" t="inlineStr"/>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr"/>
       <c r="H2002" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2003" t="inlineStr"/>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr"/>
+      <c r="G2003" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2004" t="inlineStr"/>
+      <c r="C2004" t="inlineStr"/>
       <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2004" t="inlineStr"/>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr"/>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2004" t="inlineStr"/>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
       <c r="H2005" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2006" t="inlineStr"/>
       <c r="H2006" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2007" t="inlineStr"/>
       <c r="H2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2016" t="inlineStr"/>
-      <c r="E2016" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr"/>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr"/>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr"/>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr"/>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr"/>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr"/>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr"/>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr"/>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr"/>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr"/>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr"/>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr"/>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2026" t="inlineStr"/>
-      <c r="E2026" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr"/>
-      <c r="C2027" t="inlineStr"/>
-      <c r="D2027" t="inlineStr"/>
-      <c r="E2027" t="inlineStr"/>
-      <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr"/>
-      <c r="H2027" t="inlineStr"/>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr"/>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr"/>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr"/>
-      <c r="H2030" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2117"/>
+  <dimension ref="A1:H2094"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58271,10 +58271,8 @@
           <t>59.1</t>
         </is>
       </c>
-      <c r="H1783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1784">
@@ -58309,10 +58307,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1784" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1785">
@@ -58347,10 +58343,8 @@
           <t>7%</t>
         </is>
       </c>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1785" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1786">
@@ -58381,10 +58375,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1787">
@@ -58419,10 +58411,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1788">
@@ -58457,10 +58447,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1788" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1789">
@@ -58495,10 +58483,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1790">
@@ -58533,10 +58519,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1790" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1791">
@@ -58571,10 +58555,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1791" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1792">
@@ -58609,10 +58591,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1792" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1793">
@@ -58647,10 +58627,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1793" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1794">
@@ -58685,10 +58663,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1794" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1795">
@@ -58723,10 +58699,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1795" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1796">
@@ -58761,10 +58735,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1797">
@@ -58799,10 +58771,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1798">
@@ -58837,10 +58807,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1799">
@@ -58863,10 +58831,8 @@
       <c r="E1799" t="inlineStr"/>
       <c r="F1799" t="inlineStr"/>
       <c r="G1799" t="inlineStr"/>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1800">
@@ -58897,10 +58863,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1801">
@@ -58923,10 +58887,8 @@
       <c r="E1801" t="inlineStr"/>
       <c r="F1801" t="inlineStr"/>
       <c r="G1801" t="inlineStr"/>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1802">
@@ -58961,10 +58923,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1803">
@@ -58991,10 +58951,8 @@
       </c>
       <c r="F1803" t="inlineStr"/>
       <c r="G1803" t="inlineStr"/>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1804">
@@ -59029,10 +58987,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1805">
@@ -59067,10 +59023,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1806">
@@ -59101,10 +59055,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -59139,10 +59091,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1808">
@@ -59177,10 +59127,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1809">
@@ -59215,10 +59163,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1810">
@@ -59249,10 +59195,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1811">
@@ -59283,10 +59227,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1812">
@@ -59317,10 +59259,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1813">
@@ -59355,10 +59295,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1814">
@@ -59393,10 +59331,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1815">
@@ -59431,10 +59367,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1816">
@@ -59465,10 +59399,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1817">
@@ -59503,10 +59435,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1818">
@@ -59541,10 +59471,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -59579,10 +59507,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -59617,10 +59543,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -59655,10 +59579,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1822">
@@ -59689,10 +59611,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59723,10 +59643,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59753,10 +59671,8 @@
       </c>
       <c r="F1824" t="inlineStr"/>
       <c r="G1824" t="inlineStr"/>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1825">
@@ -59783,10 +59699,8 @@
       </c>
       <c r="F1825" t="inlineStr"/>
       <c r="G1825" t="inlineStr"/>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59831,10 +59745,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1828">
@@ -59865,10 +59777,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1829">
@@ -59899,10 +59809,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59933,10 +59841,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59963,10 +59869,8 @@
       </c>
       <c r="F1831" t="inlineStr"/>
       <c r="G1831" t="inlineStr"/>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59993,10 +59897,8 @@
       </c>
       <c r="F1832" t="inlineStr"/>
       <c r="G1832" t="inlineStr"/>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -60023,10 +59925,8 @@
       </c>
       <c r="F1833" t="inlineStr"/>
       <c r="G1833" t="inlineStr"/>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1834">
@@ -60053,10 +59953,8 @@
       </c>
       <c r="F1834" t="inlineStr"/>
       <c r="G1834" t="inlineStr"/>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -60083,10 +59981,8 @@
       </c>
       <c r="F1835" t="inlineStr"/>
       <c r="G1835" t="inlineStr"/>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -60117,10 +60013,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1837">
@@ -60151,10 +60045,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -60181,10 +60073,8 @@
       </c>
       <c r="F1838" t="inlineStr"/>
       <c r="G1838" t="inlineStr"/>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1839">
@@ -60211,10 +60101,8 @@
       </c>
       <c r="F1839" t="inlineStr"/>
       <c r="G1839" t="inlineStr"/>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -60241,10 +60129,8 @@
       </c>
       <c r="F1840" t="inlineStr"/>
       <c r="G1840" t="inlineStr"/>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -60267,10 +60153,8 @@
       <c r="E1841" t="inlineStr"/>
       <c r="F1841" t="inlineStr"/>
       <c r="G1841" t="inlineStr"/>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -60301,10 +60185,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1843">
@@ -60335,10 +60217,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -60369,10 +60249,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -60403,10 +60281,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1846">
@@ -60437,10 +60313,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -60471,10 +60345,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1848">
@@ -60505,10 +60377,8 @@
           <t>46.2</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60535,10 +60405,8 @@
       </c>
       <c r="F1849" t="inlineStr"/>
       <c r="G1849" t="inlineStr"/>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60565,10 +60433,8 @@
       </c>
       <c r="F1850" t="inlineStr"/>
       <c r="G1850" t="inlineStr"/>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -60595,10 +60461,8 @@
       </c>
       <c r="F1851" t="inlineStr"/>
       <c r="G1851" t="inlineStr"/>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60629,10 +60493,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1853">
@@ -60663,10 +60525,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1854">
@@ -60697,10 +60557,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1855">
@@ -60727,10 +60585,8 @@
       </c>
       <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr"/>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60757,10 +60613,8 @@
       </c>
       <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr"/>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60787,10 +60641,8 @@
       </c>
       <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr"/>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -60817,10 +60669,8 @@
       </c>
       <c r="F1858" t="inlineStr"/>
       <c r="G1858" t="inlineStr"/>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60839,10 +60689,8 @@
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
       <c r="G1859" t="inlineStr"/>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60873,10 +60721,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60907,10 +60753,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60955,10 +60799,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1864">
@@ -60989,10 +60831,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -61019,10 +60859,8 @@
       </c>
       <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr"/>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -61053,10 +60891,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1867">
@@ -61087,10 +60923,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -61121,10 +60955,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -61155,10 +60987,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -61185,10 +61015,8 @@
       </c>
       <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr"/>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1871">
@@ -61219,10 +61047,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1872">
@@ -61249,10 +61075,8 @@
       </c>
       <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr"/>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -61275,10 +61099,8 @@
       <c r="E1873" t="inlineStr"/>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -61301,10 +61123,8 @@
       <c r="E1874" t="inlineStr"/>
       <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr"/>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61327,10 +61147,8 @@
       <c r="E1875" t="inlineStr"/>
       <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr"/>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -61357,10 +61175,8 @@
       </c>
       <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr"/>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -61391,10 +61207,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1878">
@@ -61425,10 +61239,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1879">
@@ -61459,10 +61271,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61493,10 +61303,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61523,10 +61331,8 @@
       </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61557,10 +61363,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1883">
@@ -61591,10 +61395,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61625,10 +61427,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61659,10 +61459,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61693,10 +61491,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61727,10 +61523,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1888">
@@ -61761,10 +61555,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61795,10 +61587,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61829,10 +61619,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61863,10 +61651,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61897,10 +61683,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61927,10 +61711,8 @@
       </c>
       <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61957,10 +61739,8 @@
       </c>
       <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr"/>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61987,10 +61767,8 @@
       </c>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -62027,10 +61805,8 @@
       <c r="E1897" t="inlineStr"/>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1898">
@@ -62061,10 +61837,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1899">
@@ -62095,10 +61869,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1900">
@@ -62129,10 +61901,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1901">
@@ -62163,10 +61933,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1902">
@@ -62197,10 +61965,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1903">
@@ -62231,10 +61997,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -62261,10 +62025,8 @@
       </c>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -62291,10 +62053,8 @@
       </c>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr"/>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -62321,10 +62081,8 @@
       </c>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr"/>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -62351,10 +62109,8 @@
       </c>
       <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr"/>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1908">
@@ -62381,10 +62137,8 @@
       </c>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1909">
@@ -62415,10 +62169,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1910">
@@ -62449,10 +62201,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1911">
@@ -62479,10 +62229,8 @@
       </c>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr"/>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62513,10 +62261,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62543,10 +62289,8 @@
       </c>
       <c r="F1913" t="inlineStr"/>
       <c r="G1913" t="inlineStr"/>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62573,10 +62317,8 @@
       </c>
       <c r="F1914" t="inlineStr"/>
       <c r="G1914" t="inlineStr"/>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1915">
@@ -62603,10 +62345,8 @@
       </c>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -62633,10 +62373,8 @@
       </c>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62659,10 +62397,8 @@
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62689,10 +62425,8 @@
       </c>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62723,10 +62457,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1920">
@@ -62753,10 +62485,8 @@
       </c>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1921">
@@ -62783,10 +62513,8 @@
       </c>
       <c r="F1921" t="inlineStr"/>
       <c r="G1921" t="inlineStr"/>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62813,10 +62541,8 @@
       </c>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62843,10 +62569,8 @@
       </c>
       <c r="F1923" t="inlineStr"/>
       <c r="G1923" t="inlineStr"/>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62873,10 +62597,8 @@
       </c>
       <c r="F1924" t="inlineStr"/>
       <c r="G1924" t="inlineStr"/>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1925">
@@ -62907,10 +62629,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1926">
@@ -62941,10 +62661,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -62975,10 +62693,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1928">
@@ -63001,10 +62717,8 @@
       <c r="E1928" t="inlineStr"/>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr"/>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1929">
@@ -63039,10 +62753,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1930">
@@ -63065,10 +62777,8 @@
       <c r="E1930" t="inlineStr"/>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1931">
@@ -63091,10 +62801,8 @@
       <c r="E1931" t="inlineStr"/>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr"/>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1932">
@@ -63117,10 +62825,8 @@
       <c r="E1932" t="inlineStr"/>
       <c r="F1932" t="inlineStr"/>
       <c r="G1932" t="inlineStr"/>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1933">
@@ -63143,10 +62849,8 @@
       <c r="E1933" t="inlineStr"/>
       <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr"/>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -63169,10 +62873,8 @@
       <c r="E1934" t="inlineStr"/>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr"/>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
@@ -63195,10 +62897,8 @@
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr"/>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1936">
@@ -63221,10 +62921,8 @@
       <c r="E1936" t="inlineStr"/>
       <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr"/>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -63247,10 +62945,8 @@
       <c r="E1937" t="inlineStr"/>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr"/>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1938">
@@ -63273,10 +62969,8 @@
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -63299,10 +62993,8 @@
       <c r="E1939" t="inlineStr"/>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr"/>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1940">
@@ -63333,10 +63025,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -63367,10 +63057,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -63397,10 +63085,8 @@
       </c>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr"/>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63449,10 +63135,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1945">
@@ -63475,10 +63159,8 @@
       <c r="E1945" t="inlineStr"/>
       <c r="F1945" t="inlineStr"/>
       <c r="G1945" t="inlineStr"/>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1946">
@@ -63509,10 +63191,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1947">
@@ -63535,10 +63215,8 @@
       <c r="E1947" t="inlineStr"/>
       <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr"/>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -63561,10 +63239,8 @@
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr"/>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1949">
@@ -63591,10 +63267,8 @@
       </c>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr"/>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
@@ -63617,10 +63291,8 @@
       <c r="E1950" t="inlineStr"/>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1951">
@@ -63651,10 +63323,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1952">
@@ -63685,10 +63355,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -63719,10 +63387,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1954">
@@ -63749,10 +63415,8 @@
       </c>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr"/>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
@@ -63783,10 +63447,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1956">
@@ -63817,10 +63479,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1957">
@@ -63851,10 +63511,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1958">
@@ -63885,10 +63543,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1959">
@@ -63919,10 +63575,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1960">
@@ -63949,10 +63603,8 @@
       </c>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr"/>
-      <c r="H1960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1961">
@@ -63979,10 +63631,8 @@
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr"/>
-      <c r="H1961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1962">
@@ -64009,10 +63659,8 @@
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr"/>
-      <c r="H1962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1963">
@@ -64039,10 +63687,8 @@
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr"/>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -64069,10 +63715,8 @@
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr"/>
-      <c r="H1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1965">
@@ -64103,10 +63747,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1965" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1966">
@@ -64137,10 +63779,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1966" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1967">
@@ -64171,10 +63811,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1967" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1967" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1968">
@@ -64205,10 +63843,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1968" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1968" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1969">
@@ -64239,10 +63875,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1969" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1969" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1970">
@@ -64273,10 +63907,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1971">
@@ -64303,10 +63935,8 @@
       </c>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr"/>
-      <c r="H1971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1972">
@@ -64337,10 +63967,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1972" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1973">
@@ -64371,10 +63999,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1973" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1973" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1974">
@@ -64405,10 +64031,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1975">
@@ -64435,10 +64059,8 @@
       </c>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr"/>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1976">
@@ -64469,10 +64091,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -64503,10 +64123,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1978">
@@ -64537,10 +64155,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1979">
@@ -64567,10 +64183,8 @@
       </c>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr"/>
-      <c r="H1979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1979" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1980">
@@ -64597,10 +64211,8 @@
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr"/>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1981">
@@ -64631,10 +64243,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1982">
@@ -64661,10 +64271,8 @@
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -64691,10 +64299,8 @@
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr"/>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1984">
@@ -64721,10 +64327,8 @@
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr"/>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -64751,10 +64355,8 @@
       </c>
       <c r="F1985" t="inlineStr"/>
       <c r="G1985" t="inlineStr"/>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1986">
@@ -64777,10 +64379,8 @@
       <c r="E1986" t="inlineStr"/>
       <c r="F1986" t="inlineStr"/>
       <c r="G1986" t="inlineStr"/>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64811,10 +64411,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1988">
@@ -64841,10 +64439,8 @@
       </c>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr"/>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64871,10 +64467,8 @@
       </c>
       <c r="F1989" t="inlineStr"/>
       <c r="G1989" t="inlineStr"/>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1990">
@@ -64897,10 +64491,8 @@
       <c r="E1990" t="inlineStr"/>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr"/>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1991">
@@ -64923,10 +64515,8 @@
       <c r="E1991" t="inlineStr"/>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1992">
@@ -64957,10 +64547,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1993">
@@ -64991,10 +64579,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1994">
@@ -65021,10 +64607,8 @@
       </c>
       <c r="F1994" t="inlineStr"/>
       <c r="G1994" t="inlineStr"/>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1995">
@@ -65051,10 +64635,8 @@
       </c>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr"/>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -65081,10 +64663,8 @@
       </c>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr"/>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1997">
@@ -65119,10 +64699,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1998">
@@ -65157,10 +64735,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1999">
@@ -65191,10 +64767,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2000">
@@ -65225,10 +64799,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2001">
@@ -65259,10 +64831,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2001" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2002">
@@ -65293,10 +64863,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2002" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2003">
@@ -65319,10 +64887,8 @@
       <c r="E2003" t="inlineStr"/>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr"/>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2003" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2004">
@@ -65345,10 +64911,8 @@
       <c r="E2004" t="inlineStr"/>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr"/>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2005">
@@ -65379,10 +64943,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2006">
@@ -65413,10 +64975,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2007">
@@ -65439,10 +64999,8 @@
       <c r="E2007" t="inlineStr"/>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr"/>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2008">
@@ -65473,10 +65031,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2009">
@@ -65507,10 +65063,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2010">
@@ -65533,10 +65087,8 @@
       <c r="E2010" t="inlineStr"/>
       <c r="F2010" t="inlineStr"/>
       <c r="G2010" t="inlineStr"/>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H2010" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2011">
@@ -65567,10 +65119,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2011" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2012">
@@ -65601,10 +65151,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2012" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2013">
@@ -65627,10 +65175,8 @@
       <c r="E2013" t="inlineStr"/>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr"/>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2013" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2014">
@@ -65653,10 +65199,8 @@
       <c r="E2014" t="inlineStr"/>
       <c r="F2014" t="inlineStr"/>
       <c r="G2014" t="inlineStr"/>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2014" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2015">
@@ -65679,10 +65223,8 @@
       <c r="E2015" t="inlineStr"/>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr"/>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2015" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2016">
@@ -65705,10 +65247,8 @@
       <c r="E2016" t="inlineStr"/>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr"/>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2016" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2017">
@@ -65731,10 +65271,8 @@
       <c r="E2017" t="inlineStr"/>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr"/>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2017" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2018">
@@ -65757,10 +65295,8 @@
       </c>
       <c r="F2018" t="inlineStr"/>
       <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2018" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2019">
@@ -65787,10 +65323,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2019" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2020">
@@ -65817,10 +65351,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2020" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2021">
@@ -65847,44 +65379,66 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2021" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr"/>
-      <c r="C2022" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2022" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2022" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr"/>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
-      <c r="H2022" t="inlineStr"/>
+      <c r="G2022" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2022" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr"/>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F2023" t="inlineStr"/>
       <c r="G2023" t="inlineStr"/>
       <c r="H2023" t="inlineStr">
@@ -65896,91 +65450,103 @@
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H2024" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr"/>
+      <c r="G2025" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H2025" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2026" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G2026" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H2026" t="inlineStr">
         <is>
           <t>3</t>
@@ -65990,27 +65556,31 @@
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr"/>
+      <c r="G2027" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H2027" t="inlineStr">
         <is>
           <t>3</t>
@@ -66020,27 +65590,31 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
       <c r="E2028" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr"/>
+      <c r="G2028" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H2028" t="inlineStr">
         <is>
           <t>3</t>
@@ -66050,27 +65624,31 @@
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr"/>
+      <c r="G2029" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H2029" t="inlineStr">
         <is>
           <t>2</t>
@@ -66080,29 +65658,29 @@
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
       <c r="E2030" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2030" t="inlineStr"/>
       <c r="G2030" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2030" t="inlineStr">
@@ -66114,133 +65692,117 @@
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
+      <c r="G2031" t="inlineStr"/>
       <c r="H2031" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
       <c r="E2032" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G2032" t="inlineStr"/>
       <c r="H2032" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2033" t="inlineStr"/>
       <c r="E2033" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2033" t="inlineStr"/>
       <c r="H2033" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr"/>
       <c r="E2034" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2034" t="inlineStr"/>
       <c r="H2034" t="inlineStr">
         <is>
           <t>3</t>
@@ -66250,29 +65812,29 @@
     <row r="2035">
       <c r="A2035" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2035" t="inlineStr"/>
       <c r="E2035" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2035" t="inlineStr"/>
       <c r="G2035" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2035" t="inlineStr">
@@ -66284,29 +65846,29 @@
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2036" t="inlineStr"/>
       <c r="E2036" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2036" t="inlineStr"/>
       <c r="G2036" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2036" t="inlineStr">
@@ -66318,29 +65880,25 @@
     <row r="2037">
       <c r="A2037" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="E2037" t="inlineStr"/>
       <c r="F2037" t="inlineStr"/>
       <c r="G2037" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2037" t="inlineStr">
@@ -66352,29 +65910,29 @@
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2038" t="inlineStr"/>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2038" t="inlineStr"/>
       <c r="G2038" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2038" t="inlineStr">
@@ -66386,23 +65944,23 @@
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr"/>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr"/>
@@ -66416,55 +65974,63 @@
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr"/>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr"/>
+      <c r="G2040" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2040" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2041" t="inlineStr"/>
       <c r="E2041" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2041" t="inlineStr"/>
       <c r="G2041" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2041" t="inlineStr">
@@ -66476,65 +66042,57 @@
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2042" t="inlineStr"/>
       <c r="E2042" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G2042" t="inlineStr"/>
       <c r="H2042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2043" t="inlineStr"/>
       <c r="E2043" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2043" t="inlineStr"/>
       <c r="H2043" t="inlineStr">
         <is>
           <t>3</t>
@@ -66544,7 +66102,7 @@
     <row r="2044">
       <c r="A2044" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2044" t="inlineStr">
@@ -66554,31 +66112,27 @@
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2044" t="inlineStr"/>
       <c r="E2044" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2044" t="inlineStr"/>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2044" t="inlineStr"/>
       <c r="H2044" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2045" t="inlineStr">
@@ -66588,31 +66142,27 @@
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2045" t="inlineStr"/>
       <c r="E2045" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2045" t="inlineStr"/>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2045" t="inlineStr"/>
       <c r="H2045" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2046" t="inlineStr">
@@ -66622,13 +66172,13 @@
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2046" t="inlineStr"/>
       <c r="E2046" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2046" t="inlineStr"/>
@@ -66642,7 +66192,7 @@
     <row r="2047">
       <c r="A2047" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2047" t="inlineStr">
@@ -66652,21 +66202,17 @@
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2047" t="inlineStr"/>
       <c r="E2047" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2047" t="inlineStr"/>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2047" t="inlineStr"/>
       <c r="H2047" t="inlineStr">
         <is>
           <t>3</t>
@@ -66676,69 +66222,57 @@
     <row r="2048">
       <c r="A2048" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2048" t="inlineStr"/>
       <c r="E2048" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2048" t="inlineStr"/>
       <c r="H2048" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2049" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2049" t="inlineStr"/>
       <c r="E2049" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2049" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2049" t="inlineStr"/>
+      <c r="G2049" t="inlineStr"/>
       <c r="H2049" t="inlineStr">
         <is>
           <t>3</t>
@@ -66748,31 +66282,23 @@
     <row r="2050">
       <c r="A2050" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr"/>
-      <c r="E2050" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E2050" t="inlineStr"/>
       <c r="F2050" t="inlineStr"/>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2050" t="inlineStr"/>
       <c r="H2050" t="inlineStr">
         <is>
           <t>3</t>
@@ -66782,31 +66308,23 @@
     <row r="2051">
       <c r="A2051" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr"/>
-      <c r="E2051" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E2051" t="inlineStr"/>
       <c r="F2051" t="inlineStr"/>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2051" t="inlineStr"/>
       <c r="H2051" t="inlineStr">
         <is>
           <t>3</t>
@@ -66816,155 +66334,151 @@
     <row r="2052">
       <c r="A2052" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2052" t="inlineStr"/>
       <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2052" t="inlineStr"/>
       <c r="H2052" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E2053" t="inlineStr"/>
       <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2053" t="inlineStr"/>
       <c r="H2053" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2054">
       <c r="A2054" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2054" t="inlineStr"/>
       <c r="E2054" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
+      <c r="G2054" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H2054" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2055">
       <c r="A2055" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2055" t="inlineStr"/>
       <c r="E2055" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr"/>
+      <c r="G2055" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2055" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2056">
       <c r="A2056" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2056" t="inlineStr"/>
       <c r="E2056" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr"/>
+      <c r="G2056" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2056" t="inlineStr">
         <is>
           <t>3</t>
@@ -66974,23 +66488,23 @@
     <row r="2057">
       <c r="A2057" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2057" t="inlineStr"/>
       <c r="E2057" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2057" t="inlineStr"/>
@@ -67004,29 +66518,29 @@
     <row r="2058">
       <c r="A2058" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2058" t="inlineStr"/>
       <c r="E2058" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2058" t="inlineStr"/>
       <c r="G2058" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2058" t="inlineStr">
@@ -67038,29 +66552,29 @@
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2059" t="inlineStr"/>
       <c r="E2059" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2059" t="inlineStr"/>
       <c r="G2059" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2059" t="inlineStr">
@@ -67072,27 +66586,27 @@
     <row r="2060">
       <c r="A2060" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr"/>
-      <c r="E2060" t="inlineStr"/>
+      <c r="E2060" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F2060" t="inlineStr"/>
-      <c r="G2060" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2060" t="inlineStr"/>
       <c r="H2060" t="inlineStr">
         <is>
           <t>3</t>
@@ -67102,31 +66616,27 @@
     <row r="2061">
       <c r="A2061" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2061" t="inlineStr"/>
       <c r="E2061" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2061" t="inlineStr"/>
-      <c r="G2061" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2061" t="inlineStr"/>
       <c r="H2061" t="inlineStr">
         <is>
           <t>3</t>
@@ -67136,25 +66646,21 @@
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2062" t="inlineStr"/>
-      <c r="E2062" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2062" t="inlineStr"/>
       <c r="F2062" t="inlineStr"/>
       <c r="G2062" t="inlineStr"/>
       <c r="H2062" t="inlineStr">
@@ -67166,63 +66672,63 @@
     <row r="2063">
       <c r="A2063" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2063" t="inlineStr"/>
       <c r="E2063" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2063" t="inlineStr"/>
       <c r="G2063" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2063" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2064">
       <c r="A2064" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2064" t="inlineStr"/>
       <c r="E2064" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2064" t="inlineStr"/>
       <c r="G2064" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2064" t="inlineStr">
@@ -67234,27 +66740,31 @@
     <row r="2065">
       <c r="A2065" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2065" t="inlineStr"/>
       <c r="E2065" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2065" t="inlineStr"/>
-      <c r="G2065" t="inlineStr"/>
+      <c r="G2065" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2065" t="inlineStr">
         <is>
           <t>2</t>
@@ -67264,7 +66774,7 @@
     <row r="2066">
       <c r="A2066" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2066" t="inlineStr">
@@ -67274,27 +66784,27 @@
       </c>
       <c r="C2066" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2066" t="inlineStr"/>
       <c r="E2066" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2066" t="inlineStr"/>
       <c r="G2066" t="inlineStr"/>
       <c r="H2066" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2067">
       <c r="A2067" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2067" t="inlineStr">
@@ -67304,27 +66814,27 @@
       </c>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2067" t="inlineStr"/>
       <c r="E2067" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2067" t="inlineStr"/>
       <c r="G2067" t="inlineStr"/>
       <c r="H2067" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2068">
       <c r="A2068" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2068" t="inlineStr">
@@ -67334,13 +66844,13 @@
       </c>
       <c r="C2068" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2068" t="inlineStr"/>
       <c r="E2068" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2068" t="inlineStr"/>
@@ -67354,7 +66864,7 @@
     <row r="2069">
       <c r="A2069" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2069" t="inlineStr">
@@ -67364,13 +66874,13 @@
       </c>
       <c r="C2069" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2069" t="inlineStr"/>
       <c r="E2069" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2069" t="inlineStr"/>
@@ -67384,323 +66894,371 @@
     <row r="2070">
       <c r="A2070" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2070" t="inlineStr"/>
       <c r="E2070" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2070" t="inlineStr"/>
-      <c r="G2070" t="inlineStr"/>
+      <c r="G2070" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2070" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2071">
       <c r="A2071" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2071" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2071" t="inlineStr"/>
       <c r="E2071" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2071" t="inlineStr"/>
-      <c r="G2071" t="inlineStr"/>
+      <c r="G2071" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2071" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2072">
       <c r="A2072" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2072" t="inlineStr"/>
       <c r="E2072" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2072" t="inlineStr"/>
-      <c r="G2072" t="inlineStr"/>
+      <c r="G2072" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2072" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2073">
       <c r="A2073" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2073" t="inlineStr"/>
-      <c r="E2073" t="inlineStr"/>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2073" t="inlineStr"/>
-      <c r="G2073" t="inlineStr"/>
+      <c r="G2073" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2073" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2074">
       <c r="A2074" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2074" t="inlineStr"/>
-      <c r="E2074" t="inlineStr"/>
+      <c r="E2074" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2074" t="inlineStr"/>
-      <c r="G2074" t="inlineStr"/>
+      <c r="G2074" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2074" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2075">
       <c r="A2075" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2075" t="inlineStr"/>
-      <c r="E2075" t="inlineStr"/>
+      <c r="E2075" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2075" t="inlineStr"/>
-      <c r="G2075" t="inlineStr"/>
+      <c r="G2075" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2075" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2076">
       <c r="A2076" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2076" t="inlineStr"/>
-      <c r="E2076" t="inlineStr"/>
+      <c r="E2076" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2076" t="inlineStr"/>
-      <c r="G2076" t="inlineStr"/>
+      <c r="G2076" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2076" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2077">
       <c r="A2077" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2077" t="inlineStr"/>
       <c r="E2077" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2077" t="inlineStr"/>
       <c r="G2077" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2077" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2078">
       <c r="A2078" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2078" t="inlineStr"/>
       <c r="E2078" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2078" t="inlineStr"/>
       <c r="G2078" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2078" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2079">
       <c r="A2079" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2079" t="inlineStr"/>
       <c r="E2079" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2079" t="inlineStr"/>
       <c r="G2079" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2079" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2080">
       <c r="A2080" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2080" t="inlineStr"/>
       <c r="E2080" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2080" t="inlineStr"/>
-      <c r="G2080" t="inlineStr"/>
+      <c r="G2080" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2080" t="inlineStr">
         <is>
           <t>3</t>
@@ -67710,63 +67268,63 @@
     <row r="2081">
       <c r="A2081" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2081" t="inlineStr"/>
       <c r="E2081" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2081" t="inlineStr"/>
       <c r="G2081" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2081" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2082">
       <c r="A2082" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2082" t="inlineStr"/>
       <c r="E2082" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2082" t="inlineStr"/>
       <c r="G2082" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2082" t="inlineStr">
@@ -67778,25 +67336,21 @@
     <row r="2083">
       <c r="A2083" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2083" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2083" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2083" t="inlineStr"/>
-      <c r="E2083" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2083" t="inlineStr"/>
       <c r="F2083" t="inlineStr"/>
       <c r="G2083" t="inlineStr"/>
       <c r="H2083" t="inlineStr">
@@ -67808,25 +67362,21 @@
     <row r="2084">
       <c r="A2084" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2084" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2084" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2084" t="inlineStr"/>
-      <c r="E2084" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2084" t="inlineStr"/>
       <c r="F2084" t="inlineStr"/>
       <c r="G2084" t="inlineStr"/>
       <c r="H2084" t="inlineStr">
@@ -67836,25 +67386,29 @@
       </c>
     </row>
     <row r="2085">
-      <c r="A2085" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2085" t="inlineStr"/>
       <c r="B2085" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2085" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2085" t="inlineStr"/>
-      <c r="E2085" t="inlineStr"/>
+      <c r="E2085" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2085" t="inlineStr"/>
-      <c r="G2085" t="inlineStr"/>
+      <c r="G2085" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2085" t="inlineStr">
         <is>
           <t>3</t>
@@ -67862,33 +67416,25 @@
       </c>
     </row>
     <row r="2086">
-      <c r="A2086" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2086" t="inlineStr"/>
       <c r="B2086" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2086" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2086" t="inlineStr"/>
       <c r="E2086" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2086" t="inlineStr"/>
-      <c r="G2086" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2086" t="inlineStr"/>
       <c r="H2086" t="inlineStr">
         <is>
           <t>3</t>
@@ -67896,950 +67442,212 @@
       </c>
     </row>
     <row r="2087">
-      <c r="A2087" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2087" t="inlineStr"/>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2087" t="inlineStr"/>
       <c r="E2087" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2087" t="inlineStr"/>
-      <c r="G2087" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2087" t="inlineStr"/>
       <c r="H2087" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2088">
-      <c r="A2088" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2088" t="inlineStr"/>
       <c r="B2088" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2088" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2088" t="inlineStr"/>
-      <c r="E2088" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2088" t="inlineStr"/>
       <c r="F2088" t="inlineStr"/>
       <c r="G2088" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2088" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2089">
-      <c r="A2089" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2089" t="inlineStr"/>
       <c r="B2089" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2089" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2089" t="inlineStr"/>
       <c r="E2089" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2089" t="inlineStr"/>
       <c r="G2089" t="inlineStr"/>
       <c r="H2089" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2090">
-      <c r="A2090" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2090" t="inlineStr"/>
       <c r="B2090" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2090" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2090" t="inlineStr"/>
       <c r="E2090" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr"/>
+      <c r="G2090" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2090" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2091">
       <c r="A2091" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2091" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2091" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2091" t="inlineStr"/>
+      <c r="C2091" t="inlineStr"/>
       <c r="D2091" t="inlineStr"/>
-      <c r="E2091" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2091" t="inlineStr"/>
       <c r="F2091" t="inlineStr"/>
       <c r="G2091" t="inlineStr"/>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2091" t="inlineStr"/>
     </row>
     <row r="2092">
       <c r="A2092" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2092" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2092" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2092" t="inlineStr"/>
       <c r="E2092" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2092" t="inlineStr"/>
       <c r="G2092" t="inlineStr"/>
       <c r="H2092" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2093">
       <c r="A2093" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2093" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2093" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2093" t="inlineStr"/>
       <c r="E2093" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2093" t="inlineStr"/>
       <c r="H2093" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2094">
       <c r="A2094" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2094" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2094" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2094" t="inlineStr"/>
       <c r="E2094" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2094" t="inlineStr"/>
       <c r="H2094" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2095">
-      <c r="A2095" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2095" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2095" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2095" t="inlineStr"/>
-      <c r="E2095" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2095" t="inlineStr"/>
-      <c r="G2095" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2096">
-      <c r="A2096" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2096" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2096" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2096" t="inlineStr"/>
-      <c r="E2096" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2097">
-      <c r="A2097" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2097" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2097" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2097" t="inlineStr"/>
-      <c r="E2097" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2098">
-      <c r="A2098" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2098" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2098" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2098" t="inlineStr"/>
-      <c r="E2098" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2099">
-      <c r="A2099" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2099" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2099" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2099" t="inlineStr"/>
-      <c r="E2099" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2099" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2100">
-      <c r="A2100" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2100" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2100" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2100" t="inlineStr"/>
-      <c r="E2100" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2100" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2101">
-      <c r="A2101" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2101" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2101" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2101" t="inlineStr"/>
-      <c r="E2101" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2101" t="inlineStr"/>
-      <c r="G2101" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2101" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2102">
-      <c r="A2102" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2102" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2102" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2102" t="inlineStr"/>
-      <c r="E2102" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2102" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2103">
-      <c r="A2103" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2103" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2103" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2103" t="inlineStr"/>
-      <c r="E2103" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2103" t="inlineStr"/>
-      <c r="G2103" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2104">
-      <c r="A2104" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2104" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2104" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2104" t="inlineStr"/>
-      <c r="E2104" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2104" t="inlineStr"/>
-      <c r="G2104" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2104" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2105">
-      <c r="A2105" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2105" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2105" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2105" t="inlineStr"/>
-      <c r="E2105" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2105" t="inlineStr"/>
-      <c r="G2105" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2105" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2106">
-      <c r="A2106" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2106" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2106" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2106" t="inlineStr"/>
-      <c r="E2106" t="inlineStr"/>
-      <c r="F2106" t="inlineStr"/>
-      <c r="G2106" t="inlineStr"/>
-      <c r="H2106" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2107">
-      <c r="A2107" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2107" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2107" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2107" t="inlineStr"/>
-      <c r="E2107" t="inlineStr"/>
-      <c r="F2107" t="inlineStr"/>
-      <c r="G2107" t="inlineStr"/>
-      <c r="H2107" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2108">
-      <c r="A2108" t="inlineStr"/>
-      <c r="B2108" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2108" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2108" t="inlineStr"/>
-      <c r="E2108" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2108" t="inlineStr"/>
-      <c r="G2108" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2108" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2109">
-      <c r="A2109" t="inlineStr"/>
-      <c r="B2109" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2109" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2109" t="inlineStr"/>
-      <c r="E2109" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2109" t="inlineStr"/>
-      <c r="G2109" t="inlineStr"/>
-      <c r="H2109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2110">
-      <c r="A2110" t="inlineStr"/>
-      <c r="B2110" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2110" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2110" t="inlineStr"/>
-      <c r="E2110" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2110" t="inlineStr"/>
-      <c r="G2110" t="inlineStr"/>
-      <c r="H2110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2111">
-      <c r="A2111" t="inlineStr"/>
-      <c r="B2111" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2111" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2111" t="inlineStr"/>
-      <c r="E2111" t="inlineStr"/>
-      <c r="F2111" t="inlineStr"/>
-      <c r="G2111" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2112">
-      <c r="A2112" t="inlineStr"/>
-      <c r="B2112" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2112" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2112" t="inlineStr"/>
-      <c r="E2112" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2112" t="inlineStr"/>
-      <c r="G2112" t="inlineStr"/>
-      <c r="H2112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2113">
-      <c r="A2113" t="inlineStr"/>
-      <c r="B2113" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2113" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2113" t="inlineStr"/>
-      <c r="E2113" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2113" t="inlineStr"/>
-      <c r="G2113" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2114">
-      <c r="A2114" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2114" t="inlineStr"/>
-      <c r="C2114" t="inlineStr"/>
-      <c r="D2114" t="inlineStr"/>
-      <c r="E2114" t="inlineStr"/>
-      <c r="F2114" t="inlineStr"/>
-      <c r="G2114" t="inlineStr"/>
-      <c r="H2114" t="inlineStr"/>
-    </row>
-    <row r="2115">
-      <c r="A2115" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2115" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2115" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2115" t="inlineStr"/>
-      <c r="E2115" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2115" t="inlineStr"/>
-      <c r="G2115" t="inlineStr"/>
-      <c r="H2115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2116">
-      <c r="A2116" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2116" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2116" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2116" t="inlineStr"/>
-      <c r="E2116" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2116" t="inlineStr"/>
-      <c r="G2116" t="inlineStr"/>
-      <c r="H2116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2117">
-      <c r="A2117" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2117" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2117" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2117" t="inlineStr"/>
-      <c r="E2117" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2117" t="inlineStr"/>
-      <c r="G2117" t="inlineStr"/>
-      <c r="H2117" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2097"/>
+  <dimension ref="A1:H2074"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59731,10 +59731,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1827">
@@ -59765,10 +59763,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1828">
@@ -59799,10 +59795,8 @@
           <t>46.2</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59829,10 +59823,8 @@
       </c>
       <c r="F1829" t="inlineStr"/>
       <c r="G1829" t="inlineStr"/>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59859,10 +59851,8 @@
       </c>
       <c r="F1830" t="inlineStr"/>
       <c r="G1830" t="inlineStr"/>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59889,10 +59879,8 @@
       </c>
       <c r="F1831" t="inlineStr"/>
       <c r="G1831" t="inlineStr"/>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59923,10 +59911,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1833">
@@ -59957,10 +59943,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1834">
@@ -59991,10 +59975,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1835">
@@ -60021,10 +60003,8 @@
       </c>
       <c r="F1835" t="inlineStr"/>
       <c r="G1835" t="inlineStr"/>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -60051,10 +60031,8 @@
       </c>
       <c r="F1836" t="inlineStr"/>
       <c r="G1836" t="inlineStr"/>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -60081,10 +60059,8 @@
       </c>
       <c r="F1837" t="inlineStr"/>
       <c r="G1837" t="inlineStr"/>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -60111,10 +60087,8 @@
       </c>
       <c r="F1838" t="inlineStr"/>
       <c r="G1838" t="inlineStr"/>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -60133,10 +60107,8 @@
       <c r="E1839" t="inlineStr"/>
       <c r="F1839" t="inlineStr"/>
       <c r="G1839" t="inlineStr"/>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -60167,10 +60139,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -60201,10 +60171,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -60249,10 +60217,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1844">
@@ -60283,10 +60249,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -60313,10 +60277,8 @@
       </c>
       <c r="F1845" t="inlineStr"/>
       <c r="G1845" t="inlineStr"/>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -60347,10 +60309,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -60381,10 +60341,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -60415,10 +60373,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60449,10 +60405,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60479,10 +60433,8 @@
       </c>
       <c r="F1850" t="inlineStr"/>
       <c r="G1850" t="inlineStr"/>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -60513,10 +60465,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1852">
@@ -60543,10 +60493,8 @@
       </c>
       <c r="F1852" t="inlineStr"/>
       <c r="G1852" t="inlineStr"/>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60569,10 +60517,8 @@
       <c r="E1853" t="inlineStr"/>
       <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr"/>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60595,10 +60541,8 @@
       <c r="E1854" t="inlineStr"/>
       <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr"/>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60621,10 +60565,8 @@
       <c r="E1855" t="inlineStr"/>
       <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr"/>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60651,10 +60593,8 @@
       </c>
       <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr"/>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60685,10 +60625,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1858">
@@ -60719,10 +60657,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1859">
@@ -60753,10 +60689,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60787,10 +60721,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60817,10 +60749,8 @@
       </c>
       <c r="F1861" t="inlineStr"/>
       <c r="G1861" t="inlineStr"/>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60851,10 +60781,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1863">
@@ -60885,10 +60813,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60919,10 +60845,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60953,10 +60877,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60987,10 +60909,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1867">
@@ -61021,10 +60941,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1868">
@@ -61055,10 +60973,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -61089,10 +61005,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -61123,10 +61037,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -61157,10 +61069,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -61191,10 +61101,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -61221,10 +61129,8 @@
       </c>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -61251,10 +61157,8 @@
       </c>
       <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr"/>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61281,10 +61185,8 @@
       </c>
       <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr"/>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1876">
@@ -61321,10 +61223,8 @@
       <c r="E1877" t="inlineStr"/>
       <c r="F1877" t="inlineStr"/>
       <c r="G1877" t="inlineStr"/>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1878">
@@ -61355,10 +61255,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1879">
@@ -61389,10 +61287,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1880">
@@ -61423,10 +61319,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1881">
@@ -61457,10 +61351,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1882">
@@ -61491,10 +61383,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1883">
@@ -61525,10 +61415,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61555,10 +61443,8 @@
       </c>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61585,10 +61471,8 @@
       </c>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61615,10 +61499,8 @@
       </c>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61645,10 +61527,8 @@
       </c>
       <c r="F1887" t="inlineStr"/>
       <c r="G1887" t="inlineStr"/>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1888">
@@ -61675,10 +61555,8 @@
       </c>
       <c r="F1888" t="inlineStr"/>
       <c r="G1888" t="inlineStr"/>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1889">
@@ -61709,10 +61587,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1890">
@@ -61743,10 +61619,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1891">
@@ -61773,10 +61647,8 @@
       </c>
       <c r="F1891" t="inlineStr"/>
       <c r="G1891" t="inlineStr"/>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61807,10 +61679,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61837,10 +61707,8 @@
       </c>
       <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61867,10 +61735,8 @@
       </c>
       <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr"/>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1895">
@@ -61897,10 +61763,8 @@
       </c>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1896">
@@ -61927,10 +61791,8 @@
       </c>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61953,10 +61815,8 @@
       <c r="E1897" t="inlineStr"/>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61983,10 +61843,8 @@
       </c>
       <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr"/>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -62017,10 +61875,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1900">
@@ -62047,10 +61903,8 @@
       </c>
       <c r="F1900" t="inlineStr"/>
       <c r="G1900" t="inlineStr"/>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1901">
@@ -62077,10 +61931,8 @@
       </c>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -62107,10 +61959,8 @@
       </c>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr"/>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -62137,10 +61987,8 @@
       </c>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -62167,10 +62015,8 @@
       </c>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -62201,10 +62047,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1906">
@@ -62235,10 +62079,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1907">
@@ -62269,10 +62111,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1908">
@@ -62295,10 +62135,8 @@
       <c r="E1908" t="inlineStr"/>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1909">
@@ -62333,10 +62171,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1910">
@@ -62359,10 +62195,8 @@
       <c r="E1910" t="inlineStr"/>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1911">
@@ -62385,10 +62219,8 @@
       <c r="E1911" t="inlineStr"/>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr"/>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1912">
@@ -62411,10 +62243,8 @@
       <c r="E1912" t="inlineStr"/>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr"/>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1913">
@@ -62437,10 +62267,8 @@
       <c r="E1913" t="inlineStr"/>
       <c r="F1913" t="inlineStr"/>
       <c r="G1913" t="inlineStr"/>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62463,10 +62291,8 @@
       <c r="E1914" t="inlineStr"/>
       <c r="F1914" t="inlineStr"/>
       <c r="G1914" t="inlineStr"/>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1915">
@@ -62489,10 +62315,8 @@
       <c r="E1915" t="inlineStr"/>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -62515,10 +62339,8 @@
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62541,10 +62363,8 @@
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62567,10 +62387,8 @@
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62593,10 +62411,8 @@
       <c r="E1919" t="inlineStr"/>
       <c r="F1919" t="inlineStr"/>
       <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62627,10 +62443,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62661,10 +62475,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62691,10 +62503,8 @@
       </c>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62743,10 +62553,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1925">
@@ -62769,10 +62577,8 @@
       <c r="E1925" t="inlineStr"/>
       <c r="F1925" t="inlineStr"/>
       <c r="G1925" t="inlineStr"/>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1926">
@@ -62803,10 +62609,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -62829,10 +62633,8 @@
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62855,10 +62657,8 @@
       <c r="E1928" t="inlineStr"/>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr"/>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -62885,10 +62685,8 @@
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -62911,10 +62709,8 @@
       <c r="E1930" t="inlineStr"/>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1931">
@@ -62945,10 +62741,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62979,10 +62773,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -63013,10 +62805,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1934">
@@ -63043,10 +62833,8 @@
       </c>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr"/>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
@@ -63077,10 +62865,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1936">
@@ -63111,10 +62897,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1937">
@@ -63145,10 +62929,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -63179,10 +62961,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -63213,10 +62993,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1940">
@@ -63243,10 +63021,8 @@
       </c>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr"/>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1941">
@@ -63273,10 +63049,8 @@
       </c>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr"/>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1942">
@@ -63303,10 +63077,8 @@
       </c>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr"/>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63333,10 +63105,8 @@
       </c>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr"/>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63363,10 +63133,8 @@
       </c>
       <c r="F1944" t="inlineStr"/>
       <c r="G1944" t="inlineStr"/>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -63397,10 +63165,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1946">
@@ -63431,10 +63197,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1947">
@@ -63465,10 +63229,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1948">
@@ -63499,10 +63261,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1949">
@@ -63533,10 +63293,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1950">
@@ -63567,10 +63325,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1951">
@@ -63597,10 +63353,8 @@
       </c>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr"/>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1952">
@@ -63631,10 +63385,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1953">
@@ -63665,10 +63417,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1954">
@@ -63699,10 +63449,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1955">
@@ -63729,10 +63477,8 @@
       </c>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr"/>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1956">
@@ -63763,10 +63509,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1957">
@@ -63797,10 +63541,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1958">
@@ -63831,10 +63573,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1958" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1958" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1959">
@@ -63861,10 +63601,8 @@
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr"/>
-      <c r="H1959" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1959" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1960">
@@ -63891,10 +63629,8 @@
       </c>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr"/>
-      <c r="H1960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1961">
@@ -63925,10 +63661,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1962">
@@ -63955,10 +63689,8 @@
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr"/>
-      <c r="H1962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1963">
@@ -63985,10 +63717,8 @@
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr"/>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -64015,10 +63745,8 @@
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr"/>
-      <c r="H1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1965">
@@ -64045,10 +63773,8 @@
       </c>
       <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr"/>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1966">
@@ -64071,10 +63797,8 @@
       <c r="E1966" t="inlineStr"/>
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr"/>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1967">
@@ -64105,10 +63829,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1968">
@@ -64135,10 +63857,8 @@
       </c>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr"/>
-      <c r="H1968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1969">
@@ -64165,10 +63885,8 @@
       </c>
       <c r="F1969" t="inlineStr"/>
       <c r="G1969" t="inlineStr"/>
-      <c r="H1969" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1969" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1970">
@@ -64191,10 +63909,8 @@
       <c r="E1970" t="inlineStr"/>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr"/>
-      <c r="H1970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1970" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1971">
@@ -64217,10 +63933,8 @@
       <c r="E1971" t="inlineStr"/>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr"/>
-      <c r="H1971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1972">
@@ -64251,10 +63965,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1972" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1972" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1973">
@@ -64285,10 +63997,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1973" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1973" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1974">
@@ -64315,10 +64025,8 @@
       </c>
       <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr"/>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1975">
@@ -64345,10 +64053,8 @@
       </c>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr"/>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1976">
@@ -64375,10 +64081,8 @@
       </c>
       <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr"/>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -64413,10 +64117,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1978">
@@ -64451,10 +64153,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1979">
@@ -64485,10 +64185,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1980">
@@ -64519,10 +64217,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1981">
@@ -64553,10 +64249,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1982">
@@ -64587,10 +64281,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1983">
@@ -64613,10 +64305,8 @@
       <c r="E1983" t="inlineStr"/>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr"/>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1984">
@@ -64639,10 +64329,8 @@
       <c r="E1984" t="inlineStr"/>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr"/>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -64673,10 +64361,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1986">
@@ -64707,10 +64393,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64733,10 +64417,8 @@
       <c r="E1987" t="inlineStr"/>
       <c r="F1987" t="inlineStr"/>
       <c r="G1987" t="inlineStr"/>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1988">
@@ -64767,10 +64449,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64801,10 +64481,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1990">
@@ -64827,10 +64505,8 @@
       <c r="E1990" t="inlineStr"/>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr"/>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1991">
@@ -64861,10 +64537,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1992">
@@ -64895,10 +64569,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1993">
@@ -64921,10 +64593,8 @@
       <c r="E1993" t="inlineStr"/>
       <c r="F1993" t="inlineStr"/>
       <c r="G1993" t="inlineStr"/>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1994">
@@ -64947,10 +64617,8 @@
       <c r="E1994" t="inlineStr"/>
       <c r="F1994" t="inlineStr"/>
       <c r="G1994" t="inlineStr"/>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1995">
@@ -64973,10 +64641,8 @@
       <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr"/>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -64999,10 +64665,8 @@
       <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
       <c r="G1996" t="inlineStr"/>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1997">
@@ -65025,10 +64689,8 @@
       <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
       <c r="G1997" t="inlineStr"/>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1998">
@@ -65051,10 +64713,8 @@
       </c>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1999">
@@ -65081,10 +64741,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2000">
@@ -65111,10 +64769,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2001">
@@ -65141,44 +64797,66 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr"/>
-      <c r="C2002" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D2002" t="inlineStr"/>
-      <c r="E2002" t="inlineStr"/>
+      <c r="E2002" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr"/>
-      <c r="H2002" t="inlineStr"/>
+      <c r="G2002" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2002" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
-      <c r="E2003" t="inlineStr"/>
+      <c r="E2003" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr"/>
       <c r="H2003" t="inlineStr">
@@ -65190,91 +64868,103 @@
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H2004" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr"/>
+      <c r="G2005" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H2005" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2006" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G2006" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H2006" t="inlineStr">
         <is>
           <t>3</t>
@@ -65284,27 +64974,31 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr"/>
+      <c r="G2007" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H2007" t="inlineStr">
         <is>
           <t>3</t>
@@ -65314,27 +65008,31 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr"/>
+      <c r="G2008" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H2008" t="inlineStr">
         <is>
           <t>3</t>
@@ -65344,27 +65042,31 @@
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr"/>
+      <c r="G2009" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H2009" t="inlineStr">
         <is>
           <t>2</t>
@@ -65374,29 +65076,29 @@
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr"/>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2010" t="inlineStr">
@@ -65408,133 +65110,117 @@
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
+      <c r="G2011" t="inlineStr"/>
       <c r="H2011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G2012" t="inlineStr"/>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2013" t="inlineStr"/>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2014" t="inlineStr"/>
       <c r="H2014" t="inlineStr">
         <is>
           <t>3</t>
@@ -65544,29 +65230,29 @@
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2015" t="inlineStr">
@@ -65578,29 +65264,29 @@
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2016" t="inlineStr">
@@ -65612,29 +65298,25 @@
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="E2017" t="inlineStr"/>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2017" t="inlineStr">
@@ -65646,29 +65328,29 @@
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
       <c r="G2018" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2018" t="inlineStr">
@@ -65680,23 +65362,23 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2019" t="inlineStr"/>
@@ -65710,55 +65392,63 @@
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr"/>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
+      <c r="G2020" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2020" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
       <c r="E2021" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2021" t="inlineStr"/>
       <c r="G2021" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2021" t="inlineStr">
@@ -65770,65 +65460,57 @@
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
       <c r="E2022" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G2022" t="inlineStr"/>
       <c r="H2022" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2023" t="inlineStr"/>
       <c r="H2023" t="inlineStr">
         <is>
           <t>3</t>
@@ -65838,7 +65520,7 @@
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
@@ -65848,31 +65530,27 @@
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2024" t="inlineStr"/>
       <c r="H2024" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
@@ -65882,31 +65560,27 @@
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2025" t="inlineStr"/>
       <c r="H2025" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
@@ -65916,13 +65590,13 @@
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr"/>
@@ -65936,7 +65610,7 @@
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
@@ -65946,21 +65620,17 @@
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2027" t="inlineStr"/>
       <c r="H2027" t="inlineStr">
         <is>
           <t>3</t>
@@ -65970,69 +65640,57 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
       <c r="E2028" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2028" t="inlineStr"/>
       <c r="H2028" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2029" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2029" t="inlineStr"/>
+      <c r="G2029" t="inlineStr"/>
       <c r="H2029" t="inlineStr">
         <is>
           <t>3</t>
@@ -66042,31 +65700,23 @@
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E2030" t="inlineStr"/>
       <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2030" t="inlineStr"/>
       <c r="H2030" t="inlineStr">
         <is>
           <t>3</t>
@@ -66076,31 +65726,23 @@
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E2031" t="inlineStr"/>
       <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2031" t="inlineStr"/>
       <c r="H2031" t="inlineStr">
         <is>
           <t>3</t>
@@ -66110,155 +65752,151 @@
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2032" t="inlineStr"/>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2032" t="inlineStr"/>
       <c r="H2032" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E2033" t="inlineStr"/>
       <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2033" t="inlineStr"/>
       <c r="H2033" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr"/>
       <c r="E2034" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr"/>
+      <c r="G2034" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H2034" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2035" t="inlineStr"/>
       <c r="E2035" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr"/>
+      <c r="G2035" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2035" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2036" t="inlineStr"/>
       <c r="E2036" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr"/>
+      <c r="G2036" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2036" t="inlineStr">
         <is>
           <t>3</t>
@@ -66268,23 +65906,23 @@
     <row r="2037">
       <c r="A2037" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr"/>
       <c r="E2037" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2037" t="inlineStr"/>
@@ -66298,29 +65936,29 @@
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2038" t="inlineStr"/>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2038" t="inlineStr"/>
       <c r="G2038" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2038" t="inlineStr">
@@ -66332,29 +65970,29 @@
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr"/>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr"/>
       <c r="G2039" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2039" t="inlineStr">
@@ -66366,27 +66004,27 @@
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr"/>
+      <c r="E2040" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2040" t="inlineStr"/>
       <c r="H2040" t="inlineStr">
         <is>
           <t>3</t>
@@ -66396,31 +66034,27 @@
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2041" t="inlineStr"/>
       <c r="E2041" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2041" t="inlineStr"/>
       <c r="H2041" t="inlineStr">
         <is>
           <t>3</t>
@@ -66430,25 +66064,21 @@
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2042" t="inlineStr"/>
       <c r="F2042" t="inlineStr"/>
       <c r="G2042" t="inlineStr"/>
       <c r="H2042" t="inlineStr">
@@ -66460,63 +66090,63 @@
     <row r="2043">
       <c r="A2043" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2043" t="inlineStr"/>
       <c r="E2043" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2043" t="inlineStr"/>
       <c r="G2043" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2043" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2044" t="inlineStr"/>
       <c r="E2044" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2044" t="inlineStr"/>
       <c r="G2044" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2044" t="inlineStr">
@@ -66528,27 +66158,31 @@
     <row r="2045">
       <c r="A2045" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2045" t="inlineStr"/>
       <c r="E2045" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2045" t="inlineStr"/>
-      <c r="G2045" t="inlineStr"/>
+      <c r="G2045" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2045" t="inlineStr">
         <is>
           <t>2</t>
@@ -66558,7 +66192,7 @@
     <row r="2046">
       <c r="A2046" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2046" t="inlineStr">
@@ -66568,27 +66202,27 @@
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2046" t="inlineStr"/>
       <c r="E2046" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2046" t="inlineStr"/>
       <c r="G2046" t="inlineStr"/>
       <c r="H2046" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2047" t="inlineStr">
@@ -66598,27 +66232,27 @@
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2047" t="inlineStr"/>
       <c r="E2047" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr"/>
       <c r="H2047" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2048" t="inlineStr">
@@ -66628,13 +66262,13 @@
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2048" t="inlineStr"/>
       <c r="E2048" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2048" t="inlineStr"/>
@@ -66648,7 +66282,7 @@
     <row r="2049">
       <c r="A2049" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2049" t="inlineStr">
@@ -66658,13 +66292,13 @@
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2049" t="inlineStr"/>
       <c r="E2049" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2049" t="inlineStr"/>
@@ -66678,323 +66312,371 @@
     <row r="2050">
       <c r="A2050" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr"/>
       <c r="E2050" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2050" t="inlineStr"/>
-      <c r="G2050" t="inlineStr"/>
+      <c r="G2050" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2050" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr"/>
       <c r="E2051" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2051" t="inlineStr"/>
-      <c r="G2051" t="inlineStr"/>
+      <c r="G2051" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2051" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2052" t="inlineStr"/>
       <c r="E2052" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr"/>
+      <c r="G2052" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2052" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr"/>
+      <c r="G2053" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2053" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2054">
       <c r="A2054" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
+      <c r="E2054" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
+      <c r="G2054" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2054" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2055">
       <c r="A2055" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2055" t="inlineStr"/>
-      <c r="E2055" t="inlineStr"/>
+      <c r="E2055" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr"/>
+      <c r="G2055" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2055" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2056">
       <c r="A2056" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2056" t="inlineStr"/>
-      <c r="E2056" t="inlineStr"/>
+      <c r="E2056" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr"/>
+      <c r="G2056" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2056" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2057">
       <c r="A2057" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2057" t="inlineStr"/>
       <c r="E2057" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2057" t="inlineStr"/>
       <c r="G2057" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2057" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2058">
       <c r="A2058" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2058" t="inlineStr"/>
       <c r="E2058" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2058" t="inlineStr"/>
       <c r="G2058" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2058" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2059" t="inlineStr"/>
       <c r="E2059" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2059" t="inlineStr"/>
       <c r="G2059" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2059" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2060">
       <c r="A2060" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr"/>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2060" t="inlineStr"/>
-      <c r="G2060" t="inlineStr"/>
+      <c r="G2060" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2060" t="inlineStr">
         <is>
           <t>3</t>
@@ -67004,63 +66686,63 @@
     <row r="2061">
       <c r="A2061" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2061" t="inlineStr"/>
       <c r="E2061" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2061" t="inlineStr"/>
       <c r="G2061" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2061" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2062" t="inlineStr"/>
       <c r="E2062" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2062" t="inlineStr"/>
       <c r="G2062" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2062" t="inlineStr">
@@ -67072,25 +66754,21 @@
     <row r="2063">
       <c r="A2063" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2063" t="inlineStr"/>
-      <c r="E2063" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2063" t="inlineStr"/>
       <c r="F2063" t="inlineStr"/>
       <c r="G2063" t="inlineStr"/>
       <c r="H2063" t="inlineStr">
@@ -67102,25 +66780,21 @@
     <row r="2064">
       <c r="A2064" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2064" t="inlineStr"/>
-      <c r="E2064" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2064" t="inlineStr"/>
       <c r="F2064" t="inlineStr"/>
       <c r="G2064" t="inlineStr"/>
       <c r="H2064" t="inlineStr">
@@ -67130,25 +66804,29 @@
       </c>
     </row>
     <row r="2065">
-      <c r="A2065" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2065" t="inlineStr"/>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2065" t="inlineStr"/>
-      <c r="E2065" t="inlineStr"/>
+      <c r="E2065" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2065" t="inlineStr"/>
-      <c r="G2065" t="inlineStr"/>
+      <c r="G2065" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2065" t="inlineStr">
         <is>
           <t>3</t>
@@ -67156,33 +66834,25 @@
       </c>
     </row>
     <row r="2066">
-      <c r="A2066" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2066" t="inlineStr"/>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2066" t="inlineStr"/>
       <c r="E2066" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2066" t="inlineStr"/>
-      <c r="G2066" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2066" t="inlineStr"/>
       <c r="H2066" t="inlineStr">
         <is>
           <t>3</t>
@@ -67190,950 +66860,212 @@
       </c>
     </row>
     <row r="2067">
-      <c r="A2067" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2067" t="inlineStr"/>
       <c r="B2067" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2067" t="inlineStr"/>
       <c r="E2067" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2067" t="inlineStr"/>
-      <c r="G2067" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2067" t="inlineStr"/>
       <c r="H2067" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2068">
-      <c r="A2068" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2068" t="inlineStr"/>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2068" t="inlineStr"/>
-      <c r="E2068" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2068" t="inlineStr"/>
       <c r="F2068" t="inlineStr"/>
       <c r="G2068" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2068" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2069">
-      <c r="A2069" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2069" t="inlineStr"/>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2069" t="inlineStr"/>
       <c r="E2069" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2069" t="inlineStr"/>
       <c r="G2069" t="inlineStr"/>
       <c r="H2069" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2070">
-      <c r="A2070" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2070" t="inlineStr"/>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2070" t="inlineStr"/>
       <c r="E2070" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2070" t="inlineStr"/>
-      <c r="G2070" t="inlineStr"/>
+      <c r="G2070" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2070" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2071">
       <c r="A2071" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2071" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2071" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2071" t="inlineStr"/>
+      <c r="C2071" t="inlineStr"/>
       <c r="D2071" t="inlineStr"/>
-      <c r="E2071" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2071" t="inlineStr"/>
       <c r="F2071" t="inlineStr"/>
       <c r="G2071" t="inlineStr"/>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2071" t="inlineStr"/>
     </row>
     <row r="2072">
       <c r="A2072" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2072" t="inlineStr"/>
       <c r="E2072" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2072" t="inlineStr"/>
       <c r="G2072" t="inlineStr"/>
       <c r="H2072" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2073">
       <c r="A2073" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2073" t="inlineStr"/>
       <c r="E2073" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2073" t="inlineStr"/>
-      <c r="G2073" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2073" t="inlineStr"/>
       <c r="H2073" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2074">
       <c r="A2074" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2074" t="inlineStr"/>
       <c r="E2074" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2074" t="inlineStr"/>
-      <c r="G2074" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2074" t="inlineStr"/>
       <c r="H2074" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2075">
-      <c r="A2075" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2075" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2075" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2075" t="inlineStr"/>
-      <c r="E2075" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2075" t="inlineStr"/>
-      <c r="G2075" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2075" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2076">
-      <c r="A2076" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2076" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2076" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2076" t="inlineStr"/>
-      <c r="E2076" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2076" t="inlineStr"/>
-      <c r="G2076" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2077" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2077" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2077" t="inlineStr"/>
-      <c r="E2077" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2077" t="inlineStr"/>
-      <c r="G2077" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2078" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2078" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2078" t="inlineStr"/>
-      <c r="E2078" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2078" t="inlineStr"/>
-      <c r="G2078" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2079">
-      <c r="A2079" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2079" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2079" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2079" t="inlineStr"/>
-      <c r="E2079" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2079" t="inlineStr"/>
-      <c r="G2079" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2080">
-      <c r="A2080" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2080" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2080" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2080" t="inlineStr"/>
-      <c r="E2080" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2080" t="inlineStr"/>
-      <c r="G2080" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2081">
-      <c r="A2081" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2081" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2081" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2081" t="inlineStr"/>
-      <c r="E2081" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2081" t="inlineStr"/>
-      <c r="G2081" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2082">
-      <c r="A2082" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2082" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2082" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2082" t="inlineStr"/>
-      <c r="E2082" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2082" t="inlineStr"/>
-      <c r="G2082" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2083">
-      <c r="A2083" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2083" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2083" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2083" t="inlineStr"/>
-      <c r="E2083" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2083" t="inlineStr"/>
-      <c r="G2083" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2084">
-      <c r="A2084" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2084" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2084" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2084" t="inlineStr"/>
-      <c r="E2084" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2084" t="inlineStr"/>
-      <c r="G2084" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2085">
-      <c r="A2085" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2085" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2085" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2085" t="inlineStr"/>
-      <c r="E2085" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2085" t="inlineStr"/>
-      <c r="G2085" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2086">
-      <c r="A2086" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2086" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2086" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2086" t="inlineStr"/>
-      <c r="E2086" t="inlineStr"/>
-      <c r="F2086" t="inlineStr"/>
-      <c r="G2086" t="inlineStr"/>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2087">
-      <c r="A2087" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2087" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2087" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2087" t="inlineStr"/>
-      <c r="E2087" t="inlineStr"/>
-      <c r="F2087" t="inlineStr"/>
-      <c r="G2087" t="inlineStr"/>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2088">
-      <c r="A2088" t="inlineStr"/>
-      <c r="B2088" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2088" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2088" t="inlineStr"/>
-      <c r="E2088" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2088" t="inlineStr"/>
-      <c r="G2088" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2089">
-      <c r="A2089" t="inlineStr"/>
-      <c r="B2089" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2089" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2089" t="inlineStr"/>
-      <c r="E2089" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2089" t="inlineStr"/>
-      <c r="G2089" t="inlineStr"/>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2090">
-      <c r="A2090" t="inlineStr"/>
-      <c r="B2090" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2090" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2090" t="inlineStr"/>
-      <c r="E2090" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr"/>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2091">
-      <c r="A2091" t="inlineStr"/>
-      <c r="B2091" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2091" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2091" t="inlineStr"/>
-      <c r="E2091" t="inlineStr"/>
-      <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2092">
-      <c r="A2092" t="inlineStr"/>
-      <c r="B2092" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2092" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2092" t="inlineStr"/>
-      <c r="E2092" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr"/>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2093">
-      <c r="A2093" t="inlineStr"/>
-      <c r="B2093" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2093" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2093" t="inlineStr"/>
-      <c r="E2093" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2094">
-      <c r="A2094" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2094" t="inlineStr"/>
-      <c r="C2094" t="inlineStr"/>
-      <c r="D2094" t="inlineStr"/>
-      <c r="E2094" t="inlineStr"/>
-      <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr"/>
-      <c r="H2094" t="inlineStr"/>
-    </row>
-    <row r="2095">
-      <c r="A2095" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2095" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2095" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2095" t="inlineStr"/>
-      <c r="E2095" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2095" t="inlineStr"/>
-      <c r="G2095" t="inlineStr"/>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2096">
-      <c r="A2096" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2096" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2096" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2096" t="inlineStr"/>
-      <c r="E2096" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr"/>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2097">
-      <c r="A2097" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2097" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2097" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2097" t="inlineStr"/>
-      <c r="E2097" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr"/>
-      <c r="H2097" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2105"/>
+  <dimension ref="A1:H2082"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57901,10 +57901,8 @@
           <t>59.1</t>
         </is>
       </c>
-      <c r="H1771" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1771" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1772">
@@ -57939,10 +57937,8 @@
           <t>-1.3%</t>
         </is>
       </c>
-      <c r="H1772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1772" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1773">
@@ -57977,10 +57973,8 @@
           <t>7%</t>
         </is>
       </c>
-      <c r="H1773" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1773" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1774">
@@ -58011,10 +58005,8 @@
           <t>1.5%</t>
         </is>
       </c>
-      <c r="H1774" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1774" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1775">
@@ -58049,10 +58041,8 @@
           <t>42.2</t>
         </is>
       </c>
-      <c r="H1775" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1775" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1776">
@@ -58087,10 +58077,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H1776" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1776" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1777">
@@ -58125,10 +58113,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H1777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1777" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1778">
@@ -58163,10 +58149,8 @@
           <t>42.3</t>
         </is>
       </c>
-      <c r="H1778" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1778" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1779">
@@ -58201,10 +58185,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H1779" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1779" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1780">
@@ -58239,10 +58221,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1780" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1780" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1781">
@@ -58277,10 +58257,8 @@
           <t>49.4</t>
         </is>
       </c>
-      <c r="H1781" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1781" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1782">
@@ -58315,10 +58293,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H1782" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1782" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1783">
@@ -58353,10 +58329,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H1783" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1783" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1784">
@@ -58391,10 +58365,8 @@
           <t>47.2</t>
         </is>
       </c>
-      <c r="H1784" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1784" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1785">
@@ -58429,10 +58401,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H1785" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1785" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1786">
@@ -58467,10 +58437,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1786" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1787">
@@ -58493,10 +58461,8 @@
       <c r="E1787" t="inlineStr"/>
       <c r="F1787" t="inlineStr"/>
       <c r="G1787" t="inlineStr"/>
-      <c r="H1787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1787" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1788">
@@ -58527,10 +58493,8 @@
           <t>91.4</t>
         </is>
       </c>
-      <c r="H1788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1788" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1789">
@@ -58553,10 +58517,8 @@
       <c r="E1789" t="inlineStr"/>
       <c r="F1789" t="inlineStr"/>
       <c r="G1789" t="inlineStr"/>
-      <c r="H1789" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1789" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1790">
@@ -58591,10 +58553,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H1790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1790" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1791">
@@ -58621,10 +58581,8 @@
       </c>
       <c r="F1791" t="inlineStr"/>
       <c r="G1791" t="inlineStr"/>
-      <c r="H1791" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1791" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1792">
@@ -58659,10 +58617,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="H1792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1792" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1793">
@@ -58697,10 +58653,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1793" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1794">
@@ -58731,10 +58685,8 @@
           <t>56.2</t>
         </is>
       </c>
-      <c r="H1794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1794" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1795">
@@ -58769,10 +58721,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1795" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1796">
@@ -58807,10 +58757,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H1796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1796" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1797">
@@ -58845,10 +58793,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1797" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1798">
@@ -58879,10 +58825,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1798" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1798" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1799">
@@ -58913,10 +58857,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1799" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1800">
@@ -58947,10 +58889,8 @@
           <t>55.3</t>
         </is>
       </c>
-      <c r="H1800" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1800" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1801">
@@ -58985,10 +58925,8 @@
           <t>49.6</t>
         </is>
       </c>
-      <c r="H1801" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1801" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1802">
@@ -59023,10 +58961,8 @@
           <t>56.6</t>
         </is>
       </c>
-      <c r="H1802" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1802" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1803">
@@ -59061,10 +58997,8 @@
           <t>4.1M</t>
         </is>
       </c>
-      <c r="H1803" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1803" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1804">
@@ -59095,10 +59029,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1804" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1805">
@@ -59133,10 +59065,8 @@
           <t>73.2</t>
         </is>
       </c>
-      <c r="H1805" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1805" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1806">
@@ -59171,10 +59101,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1806" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1807">
@@ -59209,10 +59137,8 @@
           <t>70.2</t>
         </is>
       </c>
-      <c r="H1807" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1807" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1808">
@@ -59247,10 +59173,8 @@
           <t>77.9</t>
         </is>
       </c>
-      <c r="H1808" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1808" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1809">
@@ -59285,10 +59209,8 @@
           <t>3.3%</t>
         </is>
       </c>
-      <c r="H1809" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1809" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1810">
@@ -59319,10 +59241,8 @@
           <t>-7</t>
         </is>
       </c>
-      <c r="H1810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1810" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1811">
@@ -59353,10 +59273,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1811" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1812">
@@ -59383,10 +59301,8 @@
       </c>
       <c r="F1812" t="inlineStr"/>
       <c r="G1812" t="inlineStr"/>
-      <c r="H1812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1812" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1813">
@@ -59413,10 +59329,8 @@
       </c>
       <c r="F1813" t="inlineStr"/>
       <c r="G1813" t="inlineStr"/>
-      <c r="H1813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1813" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1814">
@@ -59461,10 +59375,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1816">
@@ -59495,10 +59407,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1817">
@@ -59529,10 +59439,8 @@
           <t>-5.0%</t>
         </is>
       </c>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -59563,10 +59471,8 @@
           <t>51.7</t>
         </is>
       </c>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -59593,10 +59499,8 @@
       </c>
       <c r="F1819" t="inlineStr"/>
       <c r="G1819" t="inlineStr"/>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -59623,10 +59527,8 @@
       </c>
       <c r="F1820" t="inlineStr"/>
       <c r="G1820" t="inlineStr"/>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1821">
@@ -59653,10 +59555,8 @@
       </c>
       <c r="F1821" t="inlineStr"/>
       <c r="G1821" t="inlineStr"/>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1822">
@@ -59683,10 +59583,8 @@
       </c>
       <c r="F1822" t="inlineStr"/>
       <c r="G1822" t="inlineStr"/>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1823">
@@ -59713,10 +59611,8 @@
       </c>
       <c r="F1823" t="inlineStr"/>
       <c r="G1823" t="inlineStr"/>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59747,10 +59643,8 @@
           <t>99</t>
         </is>
       </c>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1825">
@@ -59781,10 +59675,8 @@
           <t>75.8%</t>
         </is>
       </c>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59811,10 +59703,8 @@
       </c>
       <c r="F1826" t="inlineStr"/>
       <c r="G1826" t="inlineStr"/>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1827">
@@ -59841,10 +59731,8 @@
       </c>
       <c r="F1827" t="inlineStr"/>
       <c r="G1827" t="inlineStr"/>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59871,10 +59759,8 @@
       </c>
       <c r="F1828" t="inlineStr"/>
       <c r="G1828" t="inlineStr"/>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59897,10 +59783,8 @@
       <c r="E1829" t="inlineStr"/>
       <c r="F1829" t="inlineStr"/>
       <c r="G1829" t="inlineStr"/>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59931,10 +59815,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1831">
@@ -59965,10 +59847,8 @@
           <t>2875K</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59999,10 +59879,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -60033,10 +59911,8 @@
           <t>$ 0.4B</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1834">
@@ -60067,10 +59943,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -60101,10 +59975,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1836">
@@ -60135,10 +60007,8 @@
           <t>46.2</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -60165,10 +60035,8 @@
       </c>
       <c r="F1837" t="inlineStr"/>
       <c r="G1837" t="inlineStr"/>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -60195,10 +60063,8 @@
       </c>
       <c r="F1838" t="inlineStr"/>
       <c r="G1838" t="inlineStr"/>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -60225,10 +60091,8 @@
       </c>
       <c r="F1839" t="inlineStr"/>
       <c r="G1839" t="inlineStr"/>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -60259,10 +60123,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1841">
@@ -60293,10 +60155,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1842">
@@ -60327,10 +60187,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1843">
@@ -60357,10 +60215,8 @@
       </c>
       <c r="F1843" t="inlineStr"/>
       <c r="G1843" t="inlineStr"/>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -60387,10 +60243,8 @@
       </c>
       <c r="F1844" t="inlineStr"/>
       <c r="G1844" t="inlineStr"/>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -60417,10 +60271,8 @@
       </c>
       <c r="F1845" t="inlineStr"/>
       <c r="G1845" t="inlineStr"/>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1846">
@@ -60447,10 +60299,8 @@
       </c>
       <c r="F1846" t="inlineStr"/>
       <c r="G1846" t="inlineStr"/>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -60469,10 +60319,8 @@
       <c r="E1847" t="inlineStr"/>
       <c r="F1847" t="inlineStr"/>
       <c r="G1847" t="inlineStr"/>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -60503,10 +60351,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60537,10 +60383,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60585,10 +60429,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1852">
@@ -60619,10 +60461,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60649,10 +60489,8 @@
       </c>
       <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr"/>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60683,10 +60521,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60717,10 +60553,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1856">
@@ -60751,10 +60585,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60785,10 +60617,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -60815,10 +60645,8 @@
       </c>
       <c r="F1858" t="inlineStr"/>
       <c r="G1858" t="inlineStr"/>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1859">
@@ -60849,10 +60677,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1860">
@@ -60879,10 +60705,8 @@
       </c>
       <c r="F1860" t="inlineStr"/>
       <c r="G1860" t="inlineStr"/>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60905,10 +60729,8 @@
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
       <c r="G1861" t="inlineStr"/>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60931,10 +60753,8 @@
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr"/>
       <c r="G1862" t="inlineStr"/>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60957,10 +60777,8 @@
       <c r="E1863" t="inlineStr"/>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60987,10 +60805,8 @@
       </c>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -61021,10 +60837,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1866">
@@ -61055,10 +60869,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1867">
@@ -61089,10 +60901,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -61123,10 +60933,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -61153,10 +60961,8 @@
       </c>
       <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr"/>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -61187,10 +60993,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1871">
@@ -61221,10 +61025,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -61255,10 +61057,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -61289,10 +61089,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -61323,10 +61121,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61357,10 +61153,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1876">
@@ -61391,10 +61185,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -61425,10 +61217,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -61459,10 +61249,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1879">
@@ -61493,10 +61281,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61527,10 +61313,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61557,10 +61341,8 @@
       </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61587,10 +61369,8 @@
       </c>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61617,10 +61397,8 @@
       </c>
       <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61661,10 +61439,8 @@
       </c>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1886">
@@ -61695,10 +61471,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1887">
@@ -61729,10 +61503,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1888">
@@ -61763,10 +61535,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1889">
@@ -61797,10 +61567,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1890">
@@ -61831,10 +61599,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1891">
@@ -61865,10 +61631,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61895,10 +61659,8 @@
       </c>
       <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr"/>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61925,10 +61687,8 @@
       </c>
       <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61955,10 +61715,8 @@
       </c>
       <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr"/>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61985,10 +61743,8 @@
       </c>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1896">
@@ -62015,10 +61771,8 @@
       </c>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1897">
@@ -62049,10 +61803,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1898">
@@ -62083,10 +61835,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1899">
@@ -62113,10 +61863,8 @@
       </c>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr"/>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -62147,10 +61895,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -62177,10 +61923,8 @@
       </c>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -62207,10 +61951,8 @@
       </c>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr"/>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1903">
@@ -62237,10 +61979,8 @@
       </c>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1904">
@@ -62267,10 +62007,8 @@
       </c>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -62293,10 +62031,8 @@
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr"/>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -62323,10 +62059,8 @@
       </c>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr"/>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -62357,10 +62091,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1908">
@@ -62387,10 +62119,8 @@
       </c>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1909">
@@ -62417,10 +62147,8 @@
       </c>
       <c r="F1909" t="inlineStr"/>
       <c r="G1909" t="inlineStr"/>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62447,10 +62175,8 @@
       </c>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62477,10 +62203,8 @@
       </c>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr"/>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62507,10 +62231,8 @@
       </c>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr"/>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62541,10 +62263,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1914">
@@ -62575,10 +62295,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1915">
@@ -62609,10 +62327,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -62635,10 +62351,8 @@
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1917">
@@ -62673,10 +62387,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1918">
@@ -62699,10 +62411,8 @@
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1919">
@@ -62725,10 +62435,8 @@
       <c r="E1919" t="inlineStr"/>
       <c r="F1919" t="inlineStr"/>
       <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1920">
@@ -62751,10 +62459,8 @@
       <c r="E1920" t="inlineStr"/>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1921">
@@ -62777,10 +62483,8 @@
       <c r="E1921" t="inlineStr"/>
       <c r="F1921" t="inlineStr"/>
       <c r="G1921" t="inlineStr"/>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62803,10 +62507,8 @@
       <c r="E1922" t="inlineStr"/>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62829,10 +62531,8 @@
       <c r="E1923" t="inlineStr"/>
       <c r="F1923" t="inlineStr"/>
       <c r="G1923" t="inlineStr"/>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62855,10 +62555,8 @@
       <c r="E1924" t="inlineStr"/>
       <c r="F1924" t="inlineStr"/>
       <c r="G1924" t="inlineStr"/>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1925">
@@ -62881,10 +62579,8 @@
       <c r="E1925" t="inlineStr"/>
       <c r="F1925" t="inlineStr"/>
       <c r="G1925" t="inlineStr"/>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -62907,10 +62603,8 @@
       <c r="E1926" t="inlineStr"/>
       <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr"/>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -62933,10 +62627,8 @@
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62967,10 +62659,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -63001,10 +62691,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -63031,10 +62719,8 @@
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -63083,10 +62769,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1933">
@@ -63109,10 +62793,8 @@
       <c r="E1933" t="inlineStr"/>
       <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr"/>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1934">
@@ -63143,10 +62825,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1935">
@@ -63169,10 +62849,8 @@
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr"/>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1936">
@@ -63195,10 +62873,8 @@
       <c r="E1936" t="inlineStr"/>
       <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr"/>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -63225,10 +62901,8 @@
       </c>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr"/>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1938">
@@ -63251,10 +62925,8 @@
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -63285,10 +62957,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1940">
@@ -63319,10 +62989,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -63353,10 +63021,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1942">
@@ -63383,10 +63049,8 @@
       </c>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr"/>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63417,10 +63081,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63451,10 +63113,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1945">
@@ -63485,10 +63145,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1946">
@@ -63519,10 +63177,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -63553,10 +63209,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -63583,10 +63237,8 @@
       </c>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr"/>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1949">
@@ -63613,10 +63265,8 @@
       </c>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr"/>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1950">
@@ -63643,10 +63293,8 @@
       </c>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1951">
@@ -63673,10 +63321,8 @@
       </c>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr"/>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1952">
@@ -63703,10 +63349,8 @@
       </c>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr"/>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -63737,10 +63381,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1954">
@@ -63771,10 +63413,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1955">
@@ -63805,10 +63445,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1956">
@@ -63839,10 +63477,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1957">
@@ -63873,10 +63509,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1958">
@@ -63907,10 +63541,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1959">
@@ -63937,10 +63569,8 @@
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr"/>
-      <c r="H1959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1960">
@@ -63971,10 +63601,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1961">
@@ -64005,10 +63633,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1962">
@@ -64039,10 +63665,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1963">
@@ -64069,10 +63693,8 @@
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr"/>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -64103,10 +63725,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1965">
@@ -64137,10 +63757,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1965" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1966">
@@ -64171,10 +63789,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1966" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1967">
@@ -64201,10 +63817,8 @@
       </c>
       <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr"/>
-      <c r="H1967" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1967" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1968">
@@ -64231,10 +63845,8 @@
       </c>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr"/>
-      <c r="H1968" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1968" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1969">
@@ -64265,10 +63877,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1969" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1969" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1970">
@@ -64295,10 +63905,8 @@
       </c>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr"/>
-      <c r="H1970" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1970" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1971">
@@ -64325,10 +63933,8 @@
       </c>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr"/>
-      <c r="H1971" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1971" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1972">
@@ -64355,10 +63961,8 @@
       </c>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr"/>
-      <c r="H1972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1973">
@@ -64385,10 +63989,8 @@
       </c>
       <c r="F1973" t="inlineStr"/>
       <c r="G1973" t="inlineStr"/>
-      <c r="H1973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1974">
@@ -64411,10 +64013,8 @@
       <c r="E1974" t="inlineStr"/>
       <c r="F1974" t="inlineStr"/>
       <c r="G1974" t="inlineStr"/>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1975">
@@ -64445,10 +64045,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1976">
@@ -64475,10 +64073,8 @@
       </c>
       <c r="F1976" t="inlineStr"/>
       <c r="G1976" t="inlineStr"/>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -64505,10 +64101,8 @@
       </c>
       <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr"/>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1978">
@@ -64531,10 +64125,8 @@
       <c r="E1978" t="inlineStr"/>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1979">
@@ -64557,10 +64149,8 @@
       <c r="E1979" t="inlineStr"/>
       <c r="F1979" t="inlineStr"/>
       <c r="G1979" t="inlineStr"/>
-      <c r="H1979" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1979" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1980">
@@ -64591,10 +64181,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1981">
@@ -64625,10 +64213,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1982">
@@ -64655,10 +64241,8 @@
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1983">
@@ -64685,10 +64269,8 @@
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr"/>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1984">
@@ -64715,10 +64297,8 @@
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr"/>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -64753,10 +64333,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1986">
@@ -64791,10 +64369,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1987">
@@ -64825,10 +64401,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1988">
@@ -64859,10 +64433,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64893,10 +64465,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1990">
@@ -64927,10 +64497,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1990" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1990" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1991">
@@ -64953,10 +64521,8 @@
       <c r="E1991" t="inlineStr"/>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
-      <c r="H1991" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1991" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1992">
@@ -64979,10 +64545,8 @@
       <c r="E1992" t="inlineStr"/>
       <c r="F1992" t="inlineStr"/>
       <c r="G1992" t="inlineStr"/>
-      <c r="H1992" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1992" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1993">
@@ -65013,10 +64577,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1993" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1993" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1994">
@@ -65047,10 +64609,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1994" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1995">
@@ -65073,10 +64633,8 @@
       <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
       <c r="G1995" t="inlineStr"/>
-      <c r="H1995" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1995" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1996">
@@ -65107,10 +64665,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1997">
@@ -65141,10 +64697,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1998">
@@ -65167,10 +64721,8 @@
       <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr"/>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1998" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1999">
@@ -65201,10 +64753,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1999" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2000">
@@ -65235,10 +64785,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H2000" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2001">
@@ -65261,10 +64809,8 @@
       <c r="E2001" t="inlineStr"/>
       <c r="F2001" t="inlineStr"/>
       <c r="G2001" t="inlineStr"/>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2002">
@@ -65287,10 +64833,8 @@
       <c r="E2002" t="inlineStr"/>
       <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr"/>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2003">
@@ -65313,10 +64857,8 @@
       <c r="E2003" t="inlineStr"/>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr"/>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2004">
@@ -65339,10 +64881,8 @@
       <c r="E2004" t="inlineStr"/>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr"/>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2005">
@@ -65365,10 +64905,8 @@
       <c r="E2005" t="inlineStr"/>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr"/>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2006">
@@ -65391,10 +64929,8 @@
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr"/>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2007">
@@ -65421,10 +64957,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2007" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2008">
@@ -65451,10 +64985,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2008" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2009">
@@ -65481,44 +65013,66 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H2009" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr"/>
-      <c r="C2010" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B2010" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C2010" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr"/>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr"/>
-      <c r="H2010" t="inlineStr"/>
+      <c r="G2010" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H2010" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F2011" t="inlineStr"/>
       <c r="G2011" t="inlineStr"/>
       <c r="H2011" t="inlineStr">
@@ -65530,91 +65084,103 @@
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
       <c r="G2012" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr"/>
+      <c r="G2013" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F2014" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G2014" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H2014" t="inlineStr">
         <is>
           <t>3</t>
@@ -65624,27 +65190,31 @@
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr"/>
+      <c r="G2015" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H2015" t="inlineStr">
         <is>
           <t>3</t>
@@ -65654,27 +65224,31 @@
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr"/>
+      <c r="G2016" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H2016" t="inlineStr">
         <is>
           <t>3</t>
@@ -65684,27 +65258,31 @@
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
+      <c r="G2017" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H2017" t="inlineStr">
         <is>
           <t>2</t>
@@ -65714,29 +65292,29 @@
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
       <c r="G2018" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H2018" t="inlineStr">
@@ -65748,133 +65326,117 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
+      <c r="G2019" t="inlineStr"/>
       <c r="H2019" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
       <c r="E2020" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G2020" t="inlineStr"/>
       <c r="H2020" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
       <c r="E2021" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2021" t="inlineStr"/>
       <c r="H2021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
       <c r="E2022" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2022" t="inlineStr"/>
       <c r="H2022" t="inlineStr">
         <is>
           <t>3</t>
@@ -65884,29 +65446,29 @@
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2023" t="inlineStr"/>
       <c r="G2023" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2023" t="inlineStr">
@@ -65918,29 +65480,29 @@
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2024" t="inlineStr">
@@ -65952,29 +65514,25 @@
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="E2025" t="inlineStr"/>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2025" t="inlineStr">
@@ -65986,29 +65544,29 @@
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2026" t="inlineStr">
@@ -66020,23 +65578,23 @@
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
@@ -66050,55 +65608,63 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr"/>
+      <c r="E2028" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr"/>
+      <c r="G2028" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2028" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2029" t="inlineStr"/>
       <c r="G2029" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2029" t="inlineStr">
@@ -66110,65 +65676,57 @@
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
       <c r="E2030" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G2030" t="inlineStr"/>
       <c r="H2030" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2031" t="inlineStr"/>
       <c r="H2031" t="inlineStr">
         <is>
           <t>3</t>
@@ -66178,7 +65736,7 @@
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
@@ -66188,31 +65746,27 @@
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
       <c r="E2032" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2032" t="inlineStr"/>
       <c r="H2032" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
@@ -66222,31 +65776,27 @@
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2033" t="inlineStr"/>
       <c r="E2033" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2033" t="inlineStr"/>
       <c r="H2033" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
@@ -66256,13 +65806,13 @@
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr"/>
       <c r="E2034" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2034" t="inlineStr"/>
@@ -66276,7 +65826,7 @@
     <row r="2035">
       <c r="A2035" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2035" t="inlineStr">
@@ -66286,21 +65836,17 @@
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2035" t="inlineStr"/>
       <c r="E2035" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2035" t="inlineStr"/>
       <c r="H2035" t="inlineStr">
         <is>
           <t>3</t>
@@ -66310,69 +65856,57 @@
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2036" t="inlineStr"/>
       <c r="E2036" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2036" t="inlineStr"/>
       <c r="H2036" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr"/>
       <c r="E2037" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2037" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2037" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2037" t="inlineStr"/>
+      <c r="G2037" t="inlineStr"/>
       <c r="H2037" t="inlineStr">
         <is>
           <t>3</t>
@@ -66382,31 +65916,23 @@
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E2038" t="inlineStr"/>
       <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2038" t="inlineStr"/>
       <c r="H2038" t="inlineStr">
         <is>
           <t>3</t>
@@ -66416,31 +65942,23 @@
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E2039" t="inlineStr"/>
       <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2039" t="inlineStr"/>
       <c r="H2039" t="inlineStr">
         <is>
           <t>3</t>
@@ -66450,155 +65968,151 @@
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2040" t="inlineStr"/>
       <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2040" t="inlineStr"/>
       <c r="H2040" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E2041" t="inlineStr"/>
       <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2041" t="inlineStr"/>
       <c r="H2041" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2042" t="inlineStr"/>
       <c r="E2042" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr"/>
+      <c r="G2042" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H2042" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2043" t="inlineStr"/>
       <c r="E2043" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr"/>
+      <c r="G2043" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2043" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2044" t="inlineStr"/>
       <c r="E2044" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2044" t="inlineStr"/>
-      <c r="G2044" t="inlineStr"/>
+      <c r="G2044" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2044" t="inlineStr">
         <is>
           <t>3</t>
@@ -66608,23 +66122,23 @@
     <row r="2045">
       <c r="A2045" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2045" t="inlineStr"/>
       <c r="E2045" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2045" t="inlineStr"/>
@@ -66638,29 +66152,29 @@
     <row r="2046">
       <c r="A2046" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2046" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2046" t="inlineStr"/>
       <c r="E2046" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2046" t="inlineStr"/>
       <c r="G2046" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2046" t="inlineStr">
@@ -66672,29 +66186,29 @@
     <row r="2047">
       <c r="A2047" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2047" t="inlineStr"/>
       <c r="E2047" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2047" t="inlineStr">
@@ -66706,27 +66220,27 @@
     <row r="2048">
       <c r="A2048" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2048" t="inlineStr"/>
-      <c r="E2048" t="inlineStr"/>
+      <c r="E2048" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2048" t="inlineStr"/>
       <c r="H2048" t="inlineStr">
         <is>
           <t>3</t>
@@ -66736,31 +66250,27 @@
     <row r="2049">
       <c r="A2049" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2049" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2049" t="inlineStr"/>
       <c r="E2049" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2049" t="inlineStr"/>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2049" t="inlineStr"/>
       <c r="H2049" t="inlineStr">
         <is>
           <t>3</t>
@@ -66770,25 +66280,21 @@
     <row r="2050">
       <c r="A2050" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr"/>
-      <c r="E2050" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2050" t="inlineStr"/>
       <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr"/>
       <c r="H2050" t="inlineStr">
@@ -66800,63 +66306,63 @@
     <row r="2051">
       <c r="A2051" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr"/>
       <c r="E2051" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2051" t="inlineStr"/>
       <c r="G2051" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2051" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2052">
       <c r="A2052" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2052" t="inlineStr"/>
       <c r="E2052" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2052" t="inlineStr"/>
       <c r="G2052" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2052" t="inlineStr">
@@ -66868,27 +66374,31 @@
     <row r="2053">
       <c r="A2053" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2053" t="inlineStr"/>
       <c r="E2053" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr"/>
+      <c r="G2053" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2053" t="inlineStr">
         <is>
           <t>2</t>
@@ -66898,7 +66408,7 @@
     <row r="2054">
       <c r="A2054" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2054" t="inlineStr">
@@ -66908,27 +66418,27 @@
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2054" t="inlineStr"/>
       <c r="E2054" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2054" t="inlineStr"/>
       <c r="G2054" t="inlineStr"/>
       <c r="H2054" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2055">
       <c r="A2055" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2055" t="inlineStr">
@@ -66938,27 +66448,27 @@
       </c>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2055" t="inlineStr"/>
       <c r="E2055" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2055" t="inlineStr"/>
       <c r="G2055" t="inlineStr"/>
       <c r="H2055" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2056">
       <c r="A2056" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2056" t="inlineStr">
@@ -66968,13 +66478,13 @@
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2056" t="inlineStr"/>
       <c r="E2056" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2056" t="inlineStr"/>
@@ -66988,7 +66498,7 @@
     <row r="2057">
       <c r="A2057" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2057" t="inlineStr">
@@ -66998,13 +66508,13 @@
       </c>
       <c r="C2057" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2057" t="inlineStr"/>
       <c r="E2057" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2057" t="inlineStr"/>
@@ -67018,323 +66528,371 @@
     <row r="2058">
       <c r="A2058" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2058" t="inlineStr"/>
       <c r="E2058" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2058" t="inlineStr"/>
-      <c r="G2058" t="inlineStr"/>
+      <c r="G2058" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2058" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2059" t="inlineStr"/>
       <c r="E2059" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2059" t="inlineStr"/>
-      <c r="G2059" t="inlineStr"/>
+      <c r="G2059" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2059" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2060">
       <c r="A2060" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr"/>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2060" t="inlineStr"/>
-      <c r="G2060" t="inlineStr"/>
+      <c r="G2060" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2060" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2061">
       <c r="A2061" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2061" t="inlineStr"/>
-      <c r="E2061" t="inlineStr"/>
+      <c r="E2061" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2061" t="inlineStr"/>
-      <c r="G2061" t="inlineStr"/>
+      <c r="G2061" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2061" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2062" t="inlineStr"/>
-      <c r="E2062" t="inlineStr"/>
+      <c r="E2062" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2062" t="inlineStr"/>
-      <c r="G2062" t="inlineStr"/>
+      <c r="G2062" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2062" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2063">
       <c r="A2063" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2063" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2063" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2063" t="inlineStr"/>
-      <c r="E2063" t="inlineStr"/>
+      <c r="E2063" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2063" t="inlineStr"/>
-      <c r="G2063" t="inlineStr"/>
+      <c r="G2063" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2063" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2064">
       <c r="A2064" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2064" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2064" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2064" t="inlineStr"/>
-      <c r="E2064" t="inlineStr"/>
+      <c r="E2064" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2064" t="inlineStr"/>
-      <c r="G2064" t="inlineStr"/>
+      <c r="G2064" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2064" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2065">
       <c r="A2065" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2065" t="inlineStr"/>
       <c r="E2065" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2065" t="inlineStr"/>
       <c r="G2065" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2065" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2066">
       <c r="A2066" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2066" t="inlineStr"/>
       <c r="E2066" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2066" t="inlineStr"/>
       <c r="G2066" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2066" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2067">
       <c r="A2067" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2067" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2067" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2067" t="inlineStr"/>
       <c r="E2067" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2067" t="inlineStr"/>
       <c r="G2067" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2067" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2068">
       <c r="A2068" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2068" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2068" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2068" t="inlineStr"/>
       <c r="E2068" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2068" t="inlineStr"/>
-      <c r="G2068" t="inlineStr"/>
+      <c r="G2068" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2068" t="inlineStr">
         <is>
           <t>3</t>
@@ -67344,63 +66902,63 @@
     <row r="2069">
       <c r="A2069" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2069" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2069" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2069" t="inlineStr"/>
       <c r="E2069" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2069" t="inlineStr"/>
       <c r="G2069" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2069" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2070">
       <c r="A2070" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2070" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2070" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2070" t="inlineStr"/>
       <c r="E2070" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2070" t="inlineStr"/>
       <c r="G2070" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2070" t="inlineStr">
@@ -67412,25 +66970,21 @@
     <row r="2071">
       <c r="A2071" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2071" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2071" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2071" t="inlineStr"/>
-      <c r="E2071" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2071" t="inlineStr"/>
       <c r="F2071" t="inlineStr"/>
       <c r="G2071" t="inlineStr"/>
       <c r="H2071" t="inlineStr">
@@ -67442,25 +66996,21 @@
     <row r="2072">
       <c r="A2072" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2072" t="inlineStr"/>
-      <c r="E2072" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2072" t="inlineStr"/>
       <c r="F2072" t="inlineStr"/>
       <c r="G2072" t="inlineStr"/>
       <c r="H2072" t="inlineStr">
@@ -67470,25 +67020,29 @@
       </c>
     </row>
     <row r="2073">
-      <c r="A2073" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2073" t="inlineStr"/>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2073" t="inlineStr"/>
-      <c r="E2073" t="inlineStr"/>
+      <c r="E2073" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2073" t="inlineStr"/>
-      <c r="G2073" t="inlineStr"/>
+      <c r="G2073" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2073" t="inlineStr">
         <is>
           <t>3</t>
@@ -67496,33 +67050,25 @@
       </c>
     </row>
     <row r="2074">
-      <c r="A2074" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2074" t="inlineStr"/>
       <c r="B2074" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2074" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2074" t="inlineStr"/>
       <c r="E2074" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2074" t="inlineStr"/>
-      <c r="G2074" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2074" t="inlineStr"/>
       <c r="H2074" t="inlineStr">
         <is>
           <t>3</t>
@@ -67530,950 +67076,212 @@
       </c>
     </row>
     <row r="2075">
-      <c r="A2075" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2075" t="inlineStr"/>
       <c r="B2075" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2075" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2075" t="inlineStr"/>
       <c r="E2075" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2075" t="inlineStr"/>
-      <c r="G2075" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2075" t="inlineStr"/>
       <c r="H2075" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2076">
-      <c r="A2076" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2076" t="inlineStr"/>
       <c r="B2076" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2076" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2076" t="inlineStr"/>
-      <c r="E2076" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2076" t="inlineStr"/>
       <c r="F2076" t="inlineStr"/>
       <c r="G2076" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2076" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2077">
-      <c r="A2077" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2077" t="inlineStr"/>
       <c r="B2077" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2077" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2077" t="inlineStr"/>
       <c r="E2077" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2077" t="inlineStr"/>
       <c r="G2077" t="inlineStr"/>
       <c r="H2077" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2078">
-      <c r="A2078" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2078" t="inlineStr"/>
       <c r="B2078" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2078" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2078" t="inlineStr"/>
       <c r="E2078" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2078" t="inlineStr"/>
-      <c r="G2078" t="inlineStr"/>
+      <c r="G2078" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2078" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2079">
       <c r="A2079" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2079" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2079" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2079" t="inlineStr"/>
+      <c r="C2079" t="inlineStr"/>
       <c r="D2079" t="inlineStr"/>
-      <c r="E2079" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2079" t="inlineStr"/>
       <c r="F2079" t="inlineStr"/>
       <c r="G2079" t="inlineStr"/>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2079" t="inlineStr"/>
     </row>
     <row r="2080">
       <c r="A2080" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2080" t="inlineStr"/>
       <c r="E2080" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2080" t="inlineStr"/>
       <c r="G2080" t="inlineStr"/>
       <c r="H2080" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2081">
       <c r="A2081" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2081" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2081" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2081" t="inlineStr"/>
       <c r="E2081" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2081" t="inlineStr"/>
-      <c r="G2081" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2081" t="inlineStr"/>
       <c r="H2081" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2082">
       <c r="A2082" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2082" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2082" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2082" t="inlineStr"/>
       <c r="E2082" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2082" t="inlineStr"/>
-      <c r="G2082" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2082" t="inlineStr"/>
       <c r="H2082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2083">
-      <c r="A2083" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2083" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2083" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2083" t="inlineStr"/>
-      <c r="E2083" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2083" t="inlineStr"/>
-      <c r="G2083" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2084">
-      <c r="A2084" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2084" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2084" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2084" t="inlineStr"/>
-      <c r="E2084" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2084" t="inlineStr"/>
-      <c r="G2084" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2085">
-      <c r="A2085" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2085" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2085" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2085" t="inlineStr"/>
-      <c r="E2085" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2085" t="inlineStr"/>
-      <c r="G2085" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2085" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2086">
-      <c r="A2086" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2086" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2086" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2086" t="inlineStr"/>
-      <c r="E2086" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2086" t="inlineStr"/>
-      <c r="G2086" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2086" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2087">
-      <c r="A2087" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2087" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2087" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2087" t="inlineStr"/>
-      <c r="E2087" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2087" t="inlineStr"/>
-      <c r="G2087" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2087" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2088">
-      <c r="A2088" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2088" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2088" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2088" t="inlineStr"/>
-      <c r="E2088" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2088" t="inlineStr"/>
-      <c r="G2088" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2088" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2089">
-      <c r="A2089" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2089" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2089" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2089" t="inlineStr"/>
-      <c r="E2089" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2089" t="inlineStr"/>
-      <c r="G2089" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2089" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2090">
-      <c r="A2090" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2090" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2090" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2090" t="inlineStr"/>
-      <c r="E2090" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2090" t="inlineStr"/>
-      <c r="G2090" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2090" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2091">
-      <c r="A2091" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2091" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2091" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2091" t="inlineStr"/>
-      <c r="E2091" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2091" t="inlineStr"/>
-      <c r="G2091" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2092">
-      <c r="A2092" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2092" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2092" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2092" t="inlineStr"/>
-      <c r="E2092" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2092" t="inlineStr"/>
-      <c r="G2092" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2092" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2093">
-      <c r="A2093" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2093" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2093" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2093" t="inlineStr"/>
-      <c r="E2093" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2093" t="inlineStr"/>
-      <c r="G2093" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2094">
-      <c r="A2094" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2094" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2094" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2094" t="inlineStr"/>
-      <c r="E2094" t="inlineStr"/>
-      <c r="F2094" t="inlineStr"/>
-      <c r="G2094" t="inlineStr"/>
-      <c r="H2094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2095">
-      <c r="A2095" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2095" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2095" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2095" t="inlineStr"/>
-      <c r="E2095" t="inlineStr"/>
-      <c r="F2095" t="inlineStr"/>
-      <c r="G2095" t="inlineStr"/>
-      <c r="H2095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2096">
-      <c r="A2096" t="inlineStr"/>
-      <c r="B2096" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2096" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2096" t="inlineStr"/>
-      <c r="E2096" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2096" t="inlineStr"/>
-      <c r="G2096" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2096" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2097">
-      <c r="A2097" t="inlineStr"/>
-      <c r="B2097" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2097" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2097" t="inlineStr"/>
-      <c r="E2097" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2097" t="inlineStr"/>
-      <c r="G2097" t="inlineStr"/>
-      <c r="H2097" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2098">
-      <c r="A2098" t="inlineStr"/>
-      <c r="B2098" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2098" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2098" t="inlineStr"/>
-      <c r="E2098" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2098" t="inlineStr"/>
-      <c r="G2098" t="inlineStr"/>
-      <c r="H2098" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2099">
-      <c r="A2099" t="inlineStr"/>
-      <c r="B2099" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2099" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2099" t="inlineStr"/>
-      <c r="E2099" t="inlineStr"/>
-      <c r="F2099" t="inlineStr"/>
-      <c r="G2099" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2100">
-      <c r="A2100" t="inlineStr"/>
-      <c r="B2100" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2100" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2100" t="inlineStr"/>
-      <c r="E2100" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2100" t="inlineStr"/>
-      <c r="G2100" t="inlineStr"/>
-      <c r="H2100" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2101">
-      <c r="A2101" t="inlineStr"/>
-      <c r="B2101" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2101" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2101" t="inlineStr"/>
-      <c r="E2101" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2101" t="inlineStr"/>
-      <c r="G2101" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2102">
-      <c r="A2102" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2102" t="inlineStr"/>
-      <c r="C2102" t="inlineStr"/>
-      <c r="D2102" t="inlineStr"/>
-      <c r="E2102" t="inlineStr"/>
-      <c r="F2102" t="inlineStr"/>
-      <c r="G2102" t="inlineStr"/>
-      <c r="H2102" t="inlineStr"/>
-    </row>
-    <row r="2103">
-      <c r="A2103" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2103" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2103" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2103" t="inlineStr"/>
-      <c r="E2103" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2103" t="inlineStr"/>
-      <c r="G2103" t="inlineStr"/>
-      <c r="H2103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2104">
-      <c r="A2104" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2104" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2104" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2104" t="inlineStr"/>
-      <c r="E2104" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2104" t="inlineStr"/>
-      <c r="G2104" t="inlineStr"/>
-      <c r="H2104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2105">
-      <c r="A2105" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2105" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2105" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2105" t="inlineStr"/>
-      <c r="E2105" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2105" t="inlineStr"/>
-      <c r="G2105" t="inlineStr"/>
-      <c r="H2105" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2085"/>
+  <dimension ref="A1:H2062"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59361,10 +59361,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1814" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1814" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1815">
@@ -59395,10 +59393,8 @@
           <t>0.1</t>
         </is>
       </c>
-      <c r="H1815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1815" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1816">
@@ -59429,10 +59425,8 @@
           <t>46.2</t>
         </is>
       </c>
-      <c r="H1816" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1816" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1817">
@@ -59459,10 +59453,8 @@
       </c>
       <c r="F1817" t="inlineStr"/>
       <c r="G1817" t="inlineStr"/>
-      <c r="H1817" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1817" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1818">
@@ -59489,10 +59481,8 @@
       </c>
       <c r="F1818" t="inlineStr"/>
       <c r="G1818" t="inlineStr"/>
-      <c r="H1818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1818" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1819">
@@ -59519,10 +59509,8 @@
       </c>
       <c r="F1819" t="inlineStr"/>
       <c r="G1819" t="inlineStr"/>
-      <c r="H1819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1819" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1820">
@@ -59553,10 +59541,8 @@
           <t>0.64M</t>
         </is>
       </c>
-      <c r="H1820" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1820" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1821">
@@ -59587,10 +59573,8 @@
           <t>-3.5%</t>
         </is>
       </c>
-      <c r="H1821" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1821" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1822">
@@ -59621,10 +59605,8 @@
           <t>4</t>
         </is>
       </c>
-      <c r="H1822" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1822" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1823">
@@ -59651,10 +59633,8 @@
       </c>
       <c r="F1823" t="inlineStr"/>
       <c r="G1823" t="inlineStr"/>
-      <c r="H1823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1823" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1824">
@@ -59681,10 +59661,8 @@
       </c>
       <c r="F1824" t="inlineStr"/>
       <c r="G1824" t="inlineStr"/>
-      <c r="H1824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1824" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1825">
@@ -59711,10 +59689,8 @@
       </c>
       <c r="F1825" t="inlineStr"/>
       <c r="G1825" t="inlineStr"/>
-      <c r="H1825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1825" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1826">
@@ -59741,10 +59717,8 @@
       </c>
       <c r="F1826" t="inlineStr"/>
       <c r="G1826" t="inlineStr"/>
-      <c r="H1826" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1826" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1827">
@@ -59763,10 +59737,8 @@
       <c r="E1827" t="inlineStr"/>
       <c r="F1827" t="inlineStr"/>
       <c r="G1827" t="inlineStr"/>
-      <c r="H1827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1827" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1828">
@@ -59797,10 +59769,8 @@
           <t>1.6M</t>
         </is>
       </c>
-      <c r="H1828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1828" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1829">
@@ -59831,10 +59801,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1829" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1830">
@@ -59879,10 +59847,8 @@
           <t>3</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1832">
@@ -59913,10 +59879,8 @@
           <t>2.00%</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -59943,10 +59907,8 @@
       </c>
       <c r="F1833" t="inlineStr"/>
       <c r="G1833" t="inlineStr"/>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1834">
@@ -59977,10 +59939,8 @@
           <t>3.6%</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1835">
@@ -60011,10 +59971,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -60045,10 +60003,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -60079,10 +60035,8 @@
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -60109,10 +60063,8 @@
       </c>
       <c r="F1838" t="inlineStr"/>
       <c r="G1838" t="inlineStr"/>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1839">
@@ -60143,10 +60095,8 @@
           <t>11.70%</t>
         </is>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1840">
@@ -60173,10 +60123,8 @@
       </c>
       <c r="F1840" t="inlineStr"/>
       <c r="G1840" t="inlineStr"/>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -60199,10 +60147,8 @@
       <c r="E1841" t="inlineStr"/>
       <c r="F1841" t="inlineStr"/>
       <c r="G1841" t="inlineStr"/>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -60225,10 +60171,8 @@
       <c r="E1842" t="inlineStr"/>
       <c r="F1842" t="inlineStr"/>
       <c r="G1842" t="inlineStr"/>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -60251,10 +60195,8 @@
       <c r="E1843" t="inlineStr"/>
       <c r="F1843" t="inlineStr"/>
       <c r="G1843" t="inlineStr"/>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -60281,10 +60223,8 @@
       </c>
       <c r="F1844" t="inlineStr"/>
       <c r="G1844" t="inlineStr"/>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1845">
@@ -60315,10 +60255,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1846">
@@ -60349,10 +60287,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1847">
@@ -60383,10 +60319,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -60417,10 +60351,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60447,10 +60379,8 @@
       </c>
       <c r="F1849" t="inlineStr"/>
       <c r="G1849" t="inlineStr"/>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60481,10 +60411,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -60515,10 +60443,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60549,10 +60475,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60583,10 +60507,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60617,10 +60539,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1855">
@@ -60651,10 +60571,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1856">
@@ -60685,10 +60603,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1857">
@@ -60719,10 +60635,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1858">
@@ -60753,10 +60667,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60787,10 +60699,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60821,10 +60731,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60851,10 +60759,8 @@
       </c>
       <c r="F1861" t="inlineStr"/>
       <c r="G1861" t="inlineStr"/>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60881,10 +60787,8 @@
       </c>
       <c r="F1862" t="inlineStr"/>
       <c r="G1862" t="inlineStr"/>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60911,10 +60815,8 @@
       </c>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60955,10 +60857,8 @@
       </c>
       <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr"/>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1866">
@@ -60989,10 +60889,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1867">
@@ -61023,10 +60921,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1868">
@@ -61057,10 +60953,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1869">
@@ -61091,10 +60985,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1870">
@@ -61125,10 +61017,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1871">
@@ -61159,10 +61049,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -61189,10 +61077,8 @@
       </c>
       <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr"/>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -61219,10 +61105,8 @@
       </c>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -61249,10 +61133,8 @@
       </c>
       <c r="F1874" t="inlineStr"/>
       <c r="G1874" t="inlineStr"/>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61279,10 +61161,8 @@
       </c>
       <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr"/>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1876">
@@ -61309,10 +61189,8 @@
       </c>
       <c r="F1876" t="inlineStr"/>
       <c r="G1876" t="inlineStr"/>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1877">
@@ -61343,10 +61221,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1878">
@@ -61377,10 +61253,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1879">
@@ -61407,10 +61281,8 @@
       </c>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr"/>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61441,10 +61313,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61471,10 +61341,8 @@
       </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61501,10 +61369,8 @@
       </c>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1883">
@@ -61531,10 +61397,8 @@
       </c>
       <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1884">
@@ -61561,10 +61425,8 @@
       </c>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61587,10 +61449,8 @@
       <c r="E1885" t="inlineStr"/>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61617,10 +61477,8 @@
       </c>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61651,10 +61509,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1888">
@@ -61681,10 +61537,8 @@
       </c>
       <c r="F1888" t="inlineStr"/>
       <c r="G1888" t="inlineStr"/>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1889">
@@ -61711,10 +61565,8 @@
       </c>
       <c r="F1889" t="inlineStr"/>
       <c r="G1889" t="inlineStr"/>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61741,10 +61593,8 @@
       </c>
       <c r="F1890" t="inlineStr"/>
       <c r="G1890" t="inlineStr"/>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61771,10 +61621,8 @@
       </c>
       <c r="F1891" t="inlineStr"/>
       <c r="G1891" t="inlineStr"/>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61801,10 +61649,8 @@
       </c>
       <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr"/>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1893">
@@ -61835,10 +61681,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1894">
@@ -61869,10 +61713,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1895">
@@ -61903,10 +61745,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1896">
@@ -61929,10 +61769,8 @@
       <c r="E1896" t="inlineStr"/>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1897">
@@ -61967,10 +61805,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1898">
@@ -61993,10 +61829,8 @@
       <c r="E1898" t="inlineStr"/>
       <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr"/>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1899">
@@ -62019,10 +61853,8 @@
       <c r="E1899" t="inlineStr"/>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr"/>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1900">
@@ -62045,10 +61877,8 @@
       <c r="E1900" t="inlineStr"/>
       <c r="F1900" t="inlineStr"/>
       <c r="G1900" t="inlineStr"/>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1901">
@@ -62071,10 +61901,8 @@
       <c r="E1901" t="inlineStr"/>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -62097,10 +61925,8 @@
       <c r="E1902" t="inlineStr"/>
       <c r="F1902" t="inlineStr"/>
       <c r="G1902" t="inlineStr"/>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -62123,10 +61949,8 @@
       <c r="E1903" t="inlineStr"/>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1904">
@@ -62149,10 +61973,8 @@
       <c r="E1904" t="inlineStr"/>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1905">
@@ -62175,10 +61997,8 @@
       <c r="E1905" t="inlineStr"/>
       <c r="F1905" t="inlineStr"/>
       <c r="G1905" t="inlineStr"/>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -62201,10 +62021,8 @@
       <c r="E1906" t="inlineStr"/>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr"/>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -62227,10 +62045,8 @@
       <c r="E1907" t="inlineStr"/>
       <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr"/>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -62261,10 +62077,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -62295,10 +62109,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62325,10 +62137,8 @@
       </c>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62377,10 +62187,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1913">
@@ -62403,10 +62211,8 @@
       <c r="E1913" t="inlineStr"/>
       <c r="F1913" t="inlineStr"/>
       <c r="G1913" t="inlineStr"/>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1914">
@@ -62437,10 +62243,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1915">
@@ -62463,10 +62267,8 @@
       <c r="E1915" t="inlineStr"/>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -62489,10 +62291,8 @@
       <c r="E1916" t="inlineStr"/>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62519,10 +62319,8 @@
       </c>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62545,10 +62343,8 @@
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1919">
@@ -62579,10 +62375,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62613,10 +62407,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62647,10 +62439,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1922">
@@ -62677,10 +62467,8 @@
       </c>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62711,10 +62499,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62745,10 +62531,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1925">
@@ -62779,10 +62563,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1926">
@@ -62813,10 +62595,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1927">
@@ -62847,10 +62627,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62877,10 +62655,8 @@
       </c>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr"/>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1929">
@@ -62907,10 +62683,8 @@
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1930">
@@ -62937,10 +62711,8 @@
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -62967,10 +62739,8 @@
       </c>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr"/>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62997,10 +62767,8 @@
       </c>
       <c r="F1932" t="inlineStr"/>
       <c r="G1932" t="inlineStr"/>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -63031,10 +62799,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1934">
@@ -63065,10 +62831,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1935">
@@ -63099,10 +62863,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -63133,10 +62895,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1937">
@@ -63167,10 +62927,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1938">
@@ -63201,10 +62959,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -63231,10 +62987,8 @@
       </c>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr"/>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1940">
@@ -63265,10 +63019,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1941">
@@ -63299,10 +63051,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1942">
@@ -63333,10 +63083,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1943">
@@ -63363,10 +63111,8 @@
       </c>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr"/>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63397,10 +63143,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -63431,10 +63175,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1946">
@@ -63465,10 +63207,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1947">
@@ -63495,10 +63235,8 @@
       </c>
       <c r="F1947" t="inlineStr"/>
       <c r="G1947" t="inlineStr"/>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1948">
@@ -63525,10 +63263,8 @@
       </c>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr"/>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1949">
@@ -63559,10 +63295,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1950">
@@ -63589,10 +63323,8 @@
       </c>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1951">
@@ -63619,10 +63351,8 @@
       </c>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr"/>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1952">
@@ -63649,10 +63379,8 @@
       </c>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr"/>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -63679,10 +63407,8 @@
       </c>
       <c r="F1953" t="inlineStr"/>
       <c r="G1953" t="inlineStr"/>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1954">
@@ -63705,10 +63431,8 @@
       <c r="E1954" t="inlineStr"/>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr"/>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
@@ -63739,10 +63463,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1956">
@@ -63769,10 +63491,8 @@
       </c>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr"/>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1957">
@@ -63799,10 +63519,8 @@
       </c>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr"/>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1958">
@@ -63825,10 +63543,8 @@
       <c r="E1958" t="inlineStr"/>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr"/>
-      <c r="H1958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1959">
@@ -63851,10 +63567,8 @@
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr"/>
-      <c r="H1959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1960">
@@ -63885,10 +63599,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1960" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1960" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1961">
@@ -63919,10 +63631,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1961" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1961" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1962">
@@ -63949,10 +63659,8 @@
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr"/>
-      <c r="H1962" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1962" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1963">
@@ -63979,10 +63687,8 @@
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr"/>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -64009,10 +63715,8 @@
       </c>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr"/>
-      <c r="H1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1965">
@@ -64047,10 +63751,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1965" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1966">
@@ -64085,10 +63787,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1966" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1967">
@@ -64119,10 +63819,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1968">
@@ -64153,10 +63851,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1969">
@@ -64187,10 +63883,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1969" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1969" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1970">
@@ -64221,10 +63915,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1970" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1970" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1971">
@@ -64247,10 +63939,8 @@
       <c r="E1971" t="inlineStr"/>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr"/>
-      <c r="H1971" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1971" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1972">
@@ -64273,10 +63963,8 @@
       <c r="E1972" t="inlineStr"/>
       <c r="F1972" t="inlineStr"/>
       <c r="G1972" t="inlineStr"/>
-      <c r="H1972" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1972" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1973">
@@ -64307,10 +63995,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1973" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1973" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1974">
@@ -64341,10 +64027,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1974" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1974" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1975">
@@ -64367,10 +64051,8 @@
       <c r="E1975" t="inlineStr"/>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr"/>
-      <c r="H1975" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1975" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1976">
@@ -64401,10 +64083,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1976" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1976" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1977">
@@ -64435,10 +64115,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1977" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1977" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1978">
@@ -64461,10 +64139,8 @@
       <c r="E1978" t="inlineStr"/>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
-      <c r="H1978" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1978" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1979">
@@ -64495,10 +64171,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1979" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1979" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1980">
@@ -64529,10 +64203,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1980" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1980" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1981">
@@ -64555,10 +64227,8 @@
       <c r="E1981" t="inlineStr"/>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr"/>
-      <c r="H1981" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1981" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1982">
@@ -64581,10 +64251,8 @@
       <c r="E1982" t="inlineStr"/>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr"/>
-      <c r="H1982" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1982" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1983">
@@ -64607,10 +64275,8 @@
       <c r="E1983" t="inlineStr"/>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr"/>
-      <c r="H1983" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1983" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1984">
@@ -64633,10 +64299,8 @@
       <c r="E1984" t="inlineStr"/>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr"/>
-      <c r="H1984" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1984" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1985">
@@ -64659,10 +64323,8 @@
       <c r="E1985" t="inlineStr"/>
       <c r="F1985" t="inlineStr"/>
       <c r="G1985" t="inlineStr"/>
-      <c r="H1985" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1985" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1986">
@@ -64685,10 +64347,8 @@
       </c>
       <c r="F1986" t="inlineStr"/>
       <c r="G1986" t="inlineStr"/>
-      <c r="H1986" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1986" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1987">
@@ -64715,10 +64375,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1987" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1987" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1988">
@@ -64745,10 +64403,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1988" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1988" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1989">
@@ -64775,44 +64431,66 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1989" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1989" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1990" t="inlineStr"/>
-      <c r="C1990" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1990" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1990" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1990" t="inlineStr"/>
-      <c r="E1990" t="inlineStr"/>
+      <c r="E1990" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr"/>
-      <c r="H1990" t="inlineStr"/>
+      <c r="G1990" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H1990" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
-      <c r="E1991" t="inlineStr"/>
+      <c r="E1991" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
@@ -64824,91 +64502,103 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr"/>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F1994" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64918,27 +64608,31 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr"/>
+      <c r="G1995" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H1995" t="inlineStr">
         <is>
           <t>3</t>
@@ -64948,27 +64642,31 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr"/>
+      <c r="G1996" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H1996" t="inlineStr">
         <is>
           <t>3</t>
@@ -64978,27 +64676,31 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr"/>
+      <c r="G1997" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H1997" t="inlineStr">
         <is>
           <t>2</t>
@@ -65008,29 +64710,29 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
       <c r="E1998" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1998" t="inlineStr"/>
       <c r="G1998" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1998" t="inlineStr">
@@ -65042,133 +64744,117 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
+      <c r="G1999" t="inlineStr"/>
       <c r="H1999" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G2000" t="inlineStr"/>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2001" t="inlineStr"/>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G2002" t="inlineStr"/>
       <c r="H2002" t="inlineStr">
         <is>
           <t>3</t>
@@ -65178,29 +64864,29 @@
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2003" t="inlineStr">
@@ -65212,29 +64898,29 @@
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H2004" t="inlineStr">
@@ -65246,29 +64932,25 @@
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
-      <c r="E2005" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="E2005" t="inlineStr"/>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H2005" t="inlineStr">
@@ -65280,29 +64962,29 @@
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H2006" t="inlineStr">
@@ -65314,23 +64996,23 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
@@ -65344,55 +65026,63 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr"/>
+      <c r="E2008" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
+      </c>
       <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr"/>
+      <c r="G2008" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H2008" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H2009" t="inlineStr">
@@ -65404,65 +65094,57 @@
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G2010" t="inlineStr"/>
       <c r="H2010" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G2011" t="inlineStr"/>
       <c r="H2011" t="inlineStr">
         <is>
           <t>3</t>
@@ -65472,7 +65154,7 @@
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
@@ -65482,31 +65164,27 @@
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2012" t="inlineStr"/>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
@@ -65516,31 +65194,27 @@
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G2013" t="inlineStr"/>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
@@ -65550,13 +65224,13 @@
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr"/>
@@ -65570,7 +65244,7 @@
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
@@ -65580,21 +65254,17 @@
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G2015" t="inlineStr"/>
       <c r="H2015" t="inlineStr">
         <is>
           <t>3</t>
@@ -65604,69 +65274,57 @@
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G2016" t="inlineStr"/>
       <c r="H2016" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F2017" t="inlineStr"/>
+      <c r="G2017" t="inlineStr"/>
       <c r="H2017" t="inlineStr">
         <is>
           <t>3</t>
@@ -65676,31 +65334,23 @@
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E2018" t="inlineStr"/>
       <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G2018" t="inlineStr"/>
       <c r="H2018" t="inlineStr">
         <is>
           <t>3</t>
@@ -65710,31 +65360,23 @@
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E2019" t="inlineStr"/>
       <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G2019" t="inlineStr"/>
       <c r="H2019" t="inlineStr">
         <is>
           <t>3</t>
@@ -65744,155 +65386,151 @@
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2020" t="inlineStr"/>
       <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G2020" t="inlineStr"/>
       <c r="H2020" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E2021" t="inlineStr"/>
       <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2021" t="inlineStr"/>
       <c r="H2021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
       <c r="E2022" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
+      <c r="G2022" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H2022" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr"/>
+      <c r="G2023" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2023" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr"/>
+      <c r="G2024" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2024" t="inlineStr">
         <is>
           <t>3</t>
@@ -65902,23 +65540,23 @@
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
@@ -65932,29 +65570,29 @@
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2026" t="inlineStr">
@@ -65966,29 +65604,29 @@
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2027" t="inlineStr">
@@ -66000,27 +65638,27 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr"/>
+      <c r="E2028" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2028" t="inlineStr"/>
       <c r="H2028" t="inlineStr">
         <is>
           <t>3</t>
@@ -66030,31 +65668,27 @@
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2029" t="inlineStr"/>
       <c r="H2029" t="inlineStr">
         <is>
           <t>3</t>
@@ -66064,25 +65698,21 @@
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2030" t="inlineStr"/>
       <c r="F2030" t="inlineStr"/>
       <c r="G2030" t="inlineStr"/>
       <c r="H2030" t="inlineStr">
@@ -66094,63 +65724,63 @@
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2031" t="inlineStr"/>
       <c r="G2031" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2031" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2032">
       <c r="A2032" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
       <c r="E2032" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2032" t="inlineStr"/>
       <c r="G2032" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2032" t="inlineStr">
@@ -66162,27 +65792,31 @@
     <row r="2033">
       <c r="A2033" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2033" t="inlineStr"/>
       <c r="E2033" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr"/>
+      <c r="G2033" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2033" t="inlineStr">
         <is>
           <t>2</t>
@@ -66192,7 +65826,7 @@
     <row r="2034">
       <c r="A2034" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2034" t="inlineStr">
@@ -66202,27 +65836,27 @@
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr"/>
       <c r="E2034" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2034" t="inlineStr"/>
       <c r="G2034" t="inlineStr"/>
       <c r="H2034" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2035" t="inlineStr">
@@ -66232,27 +65866,27 @@
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2035" t="inlineStr"/>
       <c r="E2035" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2035" t="inlineStr"/>
       <c r="G2035" t="inlineStr"/>
       <c r="H2035" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2036" t="inlineStr">
@@ -66262,13 +65896,13 @@
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2036" t="inlineStr"/>
       <c r="E2036" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2036" t="inlineStr"/>
@@ -66282,7 +65916,7 @@
     <row r="2037">
       <c r="A2037" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2037" t="inlineStr">
@@ -66292,13 +65926,13 @@
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr"/>
       <c r="E2037" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2037" t="inlineStr"/>
@@ -66312,323 +65946,371 @@
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2038" t="inlineStr"/>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr"/>
+      <c r="G2038" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2038" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr"/>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr"/>
+      <c r="G2039" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2039" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2040" t="inlineStr"/>
       <c r="E2040" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr"/>
+      <c r="G2040" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2040" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr"/>
+      <c r="E2041" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr"/>
+      <c r="G2041" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2041" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2042">
       <c r="A2042" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2042" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2042" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr"/>
+      <c r="E2042" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr"/>
+      <c r="G2042" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2042" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2043">
       <c r="A2043" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2043" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2043" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2043" t="inlineStr"/>
-      <c r="E2043" t="inlineStr"/>
+      <c r="E2043" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr"/>
+      <c r="G2043" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2043" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2044">
       <c r="A2044" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2044" t="inlineStr"/>
-      <c r="E2044" t="inlineStr"/>
+      <c r="E2044" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2044" t="inlineStr"/>
-      <c r="G2044" t="inlineStr"/>
+      <c r="G2044" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2044" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2045">
       <c r="A2045" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2045" t="inlineStr"/>
       <c r="E2045" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2045" t="inlineStr"/>
       <c r="G2045" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2045" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2046" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2046" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2046" t="inlineStr"/>
       <c r="E2046" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2046" t="inlineStr"/>
       <c r="G2046" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2046" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2047" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2047" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2047" t="inlineStr"/>
       <c r="E2047" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2047" t="inlineStr"/>
       <c r="G2047" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2047" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2048" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2048" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2048" t="inlineStr"/>
       <c r="E2048" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr"/>
+      <c r="G2048" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2048" t="inlineStr">
         <is>
           <t>3</t>
@@ -66638,63 +66320,63 @@
     <row r="2049">
       <c r="A2049" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2049" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2049" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2049" t="inlineStr"/>
       <c r="E2049" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2049" t="inlineStr"/>
       <c r="G2049" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2049" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2050" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2050" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2050" t="inlineStr"/>
       <c r="E2050" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2050" t="inlineStr"/>
       <c r="G2050" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2050" t="inlineStr">
@@ -66706,25 +66388,21 @@
     <row r="2051">
       <c r="A2051" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2051" t="inlineStr"/>
-      <c r="E2051" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2051" t="inlineStr"/>
       <c r="F2051" t="inlineStr"/>
       <c r="G2051" t="inlineStr"/>
       <c r="H2051" t="inlineStr">
@@ -66736,25 +66414,21 @@
     <row r="2052">
       <c r="A2052" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2052" t="inlineStr"/>
       <c r="F2052" t="inlineStr"/>
       <c r="G2052" t="inlineStr"/>
       <c r="H2052" t="inlineStr">
@@ -66764,25 +66438,29 @@
       </c>
     </row>
     <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2053" t="inlineStr"/>
       <c r="B2053" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2053" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
+      <c r="E2053" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr"/>
+      <c r="G2053" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2053" t="inlineStr">
         <is>
           <t>3</t>
@@ -66790,33 +66468,25 @@
       </c>
     </row>
     <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2054" t="inlineStr"/>
       <c r="B2054" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2054" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2054" t="inlineStr"/>
       <c r="E2054" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2054" t="inlineStr"/>
       <c r="H2054" t="inlineStr">
         <is>
           <t>3</t>
@@ -66824,950 +66494,212 @@
       </c>
     </row>
     <row r="2055">
-      <c r="A2055" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2055" t="inlineStr"/>
       <c r="B2055" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2055" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2055" t="inlineStr"/>
       <c r="E2055" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2055" t="inlineStr"/>
       <c r="H2055" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2056">
-      <c r="A2056" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2056" t="inlineStr"/>
       <c r="B2056" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2056" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2056" t="inlineStr"/>
-      <c r="E2056" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2056" t="inlineStr"/>
       <c r="F2056" t="inlineStr"/>
       <c r="G2056" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2056" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2057">
-      <c r="A2057" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2057" t="inlineStr"/>
       <c r="B2057" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2057" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2057" t="inlineStr"/>
       <c r="E2057" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2057" t="inlineStr"/>
       <c r="G2057" t="inlineStr"/>
       <c r="H2057" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2058">
-      <c r="A2058" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2058" t="inlineStr"/>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2058" t="inlineStr"/>
       <c r="E2058" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2058" t="inlineStr"/>
-      <c r="G2058" t="inlineStr"/>
+      <c r="G2058" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2058" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2059">
       <c r="A2059" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2059" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2059" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2059" t="inlineStr"/>
+      <c r="C2059" t="inlineStr"/>
       <c r="D2059" t="inlineStr"/>
-      <c r="E2059" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2059" t="inlineStr"/>
       <c r="F2059" t="inlineStr"/>
       <c r="G2059" t="inlineStr"/>
-      <c r="H2059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2059" t="inlineStr"/>
     </row>
     <row r="2060">
       <c r="A2060" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2060" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2060" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2060" t="inlineStr"/>
       <c r="E2060" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2060" t="inlineStr"/>
       <c r="G2060" t="inlineStr"/>
       <c r="H2060" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2061">
       <c r="A2061" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2061" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2061" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2061" t="inlineStr"/>
       <c r="E2061" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2061" t="inlineStr"/>
-      <c r="G2061" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2061" t="inlineStr"/>
       <c r="H2061" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2062">
       <c r="A2062" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2062" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2062" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2062" t="inlineStr"/>
       <c r="E2062" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2062" t="inlineStr"/>
-      <c r="G2062" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2062" t="inlineStr"/>
       <c r="H2062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2063">
-      <c r="A2063" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2063" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2063" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2063" t="inlineStr"/>
-      <c r="E2063" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2063" t="inlineStr"/>
-      <c r="G2063" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2064">
-      <c r="A2064" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2064" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2064" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2064" t="inlineStr"/>
-      <c r="E2064" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2064" t="inlineStr"/>
-      <c r="G2064" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2065">
-      <c r="A2065" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2065" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2065" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2065" t="inlineStr"/>
-      <c r="E2065" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2065" t="inlineStr"/>
-      <c r="G2065" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2065" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2066">
-      <c r="A2066" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2066" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2066" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2066" t="inlineStr"/>
-      <c r="E2066" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2066" t="inlineStr"/>
-      <c r="G2066" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2067">
-      <c r="A2067" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2067" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2067" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2067" t="inlineStr"/>
-      <c r="E2067" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2067" t="inlineStr"/>
-      <c r="G2067" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2068">
-      <c r="A2068" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2068" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2068" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2068" t="inlineStr"/>
-      <c r="E2068" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2068" t="inlineStr"/>
-      <c r="G2068" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2069">
-      <c r="A2069" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2069" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2069" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2069" t="inlineStr"/>
-      <c r="E2069" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2069" t="inlineStr"/>
-      <c r="G2069" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2069" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2070">
-      <c r="A2070" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2070" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2070" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2070" t="inlineStr"/>
-      <c r="E2070" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2070" t="inlineStr"/>
-      <c r="G2070" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2070" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2071">
-      <c r="A2071" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2071" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2071" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2071" t="inlineStr"/>
-      <c r="E2071" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2071" t="inlineStr"/>
-      <c r="G2071" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2072">
-      <c r="A2072" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2072" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2072" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2072" t="inlineStr"/>
-      <c r="E2072" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2072" t="inlineStr"/>
-      <c r="G2072" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2073">
-      <c r="A2073" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2073" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2073" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2073" t="inlineStr"/>
-      <c r="E2073" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2073" t="inlineStr"/>
-      <c r="G2073" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2074">
-      <c r="A2074" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2074" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2074" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2074" t="inlineStr"/>
-      <c r="E2074" t="inlineStr"/>
-      <c r="F2074" t="inlineStr"/>
-      <c r="G2074" t="inlineStr"/>
-      <c r="H2074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2075">
-      <c r="A2075" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2075" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2075" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2075" t="inlineStr"/>
-      <c r="E2075" t="inlineStr"/>
-      <c r="F2075" t="inlineStr"/>
-      <c r="G2075" t="inlineStr"/>
-      <c r="H2075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2076">
-      <c r="A2076" t="inlineStr"/>
-      <c r="B2076" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2076" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2076" t="inlineStr"/>
-      <c r="E2076" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2076" t="inlineStr"/>
-      <c r="G2076" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2077">
-      <c r="A2077" t="inlineStr"/>
-      <c r="B2077" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2077" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2077" t="inlineStr"/>
-      <c r="E2077" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2077" t="inlineStr"/>
-      <c r="G2077" t="inlineStr"/>
-      <c r="H2077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2078">
-      <c r="A2078" t="inlineStr"/>
-      <c r="B2078" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2078" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2078" t="inlineStr"/>
-      <c r="E2078" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2078" t="inlineStr"/>
-      <c r="G2078" t="inlineStr"/>
-      <c r="H2078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2079">
-      <c r="A2079" t="inlineStr"/>
-      <c r="B2079" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2079" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2079" t="inlineStr"/>
-      <c r="E2079" t="inlineStr"/>
-      <c r="F2079" t="inlineStr"/>
-      <c r="G2079" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2080">
-      <c r="A2080" t="inlineStr"/>
-      <c r="B2080" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2080" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2080" t="inlineStr"/>
-      <c r="E2080" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2080" t="inlineStr"/>
-      <c r="G2080" t="inlineStr"/>
-      <c r="H2080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2081">
-      <c r="A2081" t="inlineStr"/>
-      <c r="B2081" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2081" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2081" t="inlineStr"/>
-      <c r="E2081" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2081" t="inlineStr"/>
-      <c r="G2081" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2082">
-      <c r="A2082" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2082" t="inlineStr"/>
-      <c r="C2082" t="inlineStr"/>
-      <c r="D2082" t="inlineStr"/>
-      <c r="E2082" t="inlineStr"/>
-      <c r="F2082" t="inlineStr"/>
-      <c r="G2082" t="inlineStr"/>
-      <c r="H2082" t="inlineStr"/>
-    </row>
-    <row r="2083">
-      <c r="A2083" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2083" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2083" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2083" t="inlineStr"/>
-      <c r="E2083" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2083" t="inlineStr"/>
-      <c r="G2083" t="inlineStr"/>
-      <c r="H2083" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2084">
-      <c r="A2084" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2084" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2084" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2084" t="inlineStr"/>
-      <c r="E2084" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2084" t="inlineStr"/>
-      <c r="G2084" t="inlineStr"/>
-      <c r="H2084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2085">
-      <c r="A2085" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2085" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2085" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2085" t="inlineStr"/>
-      <c r="E2085" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2085" t="inlineStr"/>
-      <c r="G2085" t="inlineStr"/>
-      <c r="H2085" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2062"/>
+  <dimension ref="A1:H2039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62169,10 +62169,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1912">
@@ -62203,10 +62201,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1913">
@@ -62237,10 +62233,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1914">
@@ -62271,10 +62265,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1915">
@@ -62305,10 +62297,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -62335,10 +62325,8 @@
       </c>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62369,10 +62357,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1918">
@@ -62403,10 +62389,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1919">
@@ -62437,10 +62421,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1920">
@@ -62467,10 +62449,8 @@
       </c>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62501,10 +62481,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62535,10 +62513,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1923">
@@ -62569,10 +62545,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1924">
@@ -62599,10 +62573,8 @@
       </c>
       <c r="F1924" t="inlineStr"/>
       <c r="G1924" t="inlineStr"/>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1925">
@@ -62629,10 +62601,8 @@
       </c>
       <c r="F1925" t="inlineStr"/>
       <c r="G1925" t="inlineStr"/>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1926">
@@ -62663,10 +62633,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -62693,10 +62661,8 @@
       </c>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1928">
@@ -62723,10 +62689,8 @@
       </c>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr"/>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -62753,10 +62717,8 @@
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -62783,10 +62745,8 @@
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -62809,10 +62769,8 @@
       <c r="E1931" t="inlineStr"/>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr"/>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62843,10 +62801,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -62873,10 +62829,8 @@
       </c>
       <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr"/>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -62903,10 +62857,8 @@
       </c>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr"/>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
@@ -62929,10 +62881,8 @@
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr"/>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1936">
@@ -62955,10 +62905,8 @@
       <c r="E1936" t="inlineStr"/>
       <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr"/>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -62989,10 +62937,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -63023,10 +62969,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1939">
@@ -63053,10 +62997,8 @@
       </c>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr"/>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -63083,10 +63025,8 @@
       </c>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr"/>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -63113,10 +63053,8 @@
       </c>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr"/>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -63151,10 +63089,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1943">
@@ -63189,10 +63125,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1944">
@@ -63223,10 +63157,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -63257,10 +63189,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -63291,10 +63221,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1947">
@@ -63325,10 +63253,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1948">
@@ -63351,10 +63277,8 @@
       <c r="E1948" t="inlineStr"/>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr"/>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1949">
@@ -63377,10 +63301,8 @@
       <c r="E1949" t="inlineStr"/>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr"/>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1950">
@@ -63411,10 +63333,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1951">
@@ -63445,10 +63365,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1952">
@@ -63471,10 +63389,8 @@
       <c r="E1952" t="inlineStr"/>
       <c r="F1952" t="inlineStr"/>
       <c r="G1952" t="inlineStr"/>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -63505,10 +63421,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1954">
@@ -63539,10 +63453,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
@@ -63565,10 +63477,8 @@
       <c r="E1955" t="inlineStr"/>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr"/>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1956">
@@ -63599,10 +63509,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1957">
@@ -63633,10 +63541,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1958">
@@ -63659,10 +63565,8 @@
       <c r="E1958" t="inlineStr"/>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr"/>
-      <c r="H1958" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1958" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1959">
@@ -63685,10 +63589,8 @@
       <c r="E1959" t="inlineStr"/>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr"/>
-      <c r="H1959" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1959" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1960">
@@ -63711,10 +63613,8 @@
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr"/>
-      <c r="H1960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1961">
@@ -63737,10 +63637,8 @@
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr"/>
-      <c r="H1961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1962">
@@ -63763,10 +63661,8 @@
       <c r="E1962" t="inlineStr"/>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr"/>
-      <c r="H1962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1963">
@@ -63789,10 +63685,8 @@
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr"/>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -63819,10 +63713,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1965">
@@ -63849,10 +63741,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1966">
@@ -63879,44 +63769,66 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1967" t="inlineStr"/>
-      <c r="C1967" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1967" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1967" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1967" t="inlineStr"/>
-      <c r="E1967" t="inlineStr"/>
+      <c r="E1967" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr"/>
-      <c r="H1967" t="inlineStr"/>
+      <c r="G1967" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H1967" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
-      <c r="E1968" t="inlineStr"/>
+      <c r="E1968" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1968" t="inlineStr"/>
       <c r="G1968" t="inlineStr"/>
       <c r="H1968" t="inlineStr">
@@ -63928,91 +63840,103 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
       <c r="G1969" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr"/>
+      <c r="G1970" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F1971" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H1971" t="inlineStr">
         <is>
           <t>3</t>
@@ -64022,27 +63946,31 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr"/>
+      <c r="G1972" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H1972" t="inlineStr">
         <is>
           <t>3</t>
@@ -64052,27 +63980,31 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr"/>
-      <c r="G1973" t="inlineStr"/>
+      <c r="G1973" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H1973" t="inlineStr">
         <is>
           <t>3</t>
@@ -64082,27 +64014,31 @@
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr"/>
+      <c r="G1974" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H1974" t="inlineStr">
         <is>
           <t>2</t>
@@ -64112,29 +64048,29 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
       <c r="G1975" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1975" t="inlineStr">
@@ -64146,133 +64082,117 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
+      <c r="G1976" t="inlineStr"/>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1979" t="inlineStr"/>
       <c r="H1979" t="inlineStr">
         <is>
           <t>3</t>
@@ -64282,29 +64202,29 @@
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1980" t="inlineStr">
@@ -64316,29 +64236,29 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
@@ -64350,29 +64270,25 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
-      <c r="E1982" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="E1982" t="inlineStr"/>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
@@ -64384,29 +64300,29 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1983" t="inlineStr">
@@ -64418,23 +64334,23 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
@@ -64448,59 +64364,63 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr"/>
+      <c r="G1985" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H1985" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1986" t="inlineStr"/>
       <c r="G1986" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1986" t="inlineStr">
@@ -64512,65 +64432,57 @@
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G1987" t="inlineStr"/>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1988" t="inlineStr"/>
       <c r="H1988" t="inlineStr">
         <is>
           <t>3</t>
@@ -64580,7 +64492,7 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
@@ -64590,31 +64502,27 @@
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1989" t="inlineStr"/>
       <c r="H1989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
@@ -64624,31 +64532,27 @@
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1990" t="inlineStr"/>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
@@ -64658,13 +64562,13 @@
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
@@ -64678,7 +64582,7 @@
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
@@ -64688,21 +64592,17 @@
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1992" t="inlineStr"/>
       <c r="H1992" t="inlineStr">
         <is>
           <t>3</t>
@@ -64712,69 +64612,57 @@
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1993" t="inlineStr"/>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1994" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F1994" t="inlineStr"/>
+      <c r="G1994" t="inlineStr"/>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64784,31 +64672,23 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
-      <c r="E1995" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E1995" t="inlineStr"/>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1995" t="inlineStr"/>
       <c r="H1995" t="inlineStr">
         <is>
           <t>3</t>
@@ -64818,31 +64698,23 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
-      <c r="E1996" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E1996" t="inlineStr"/>
       <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1996" t="inlineStr"/>
       <c r="H1996" t="inlineStr">
         <is>
           <t>3</t>
@@ -64852,155 +64724,151 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H1999" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr"/>
+      <c r="G2000" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2001" t="inlineStr">
         <is>
           <t>3</t>
@@ -65010,23 +64878,23 @@
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
@@ -65040,29 +64908,29 @@
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2003" t="inlineStr">
@@ -65074,29 +64942,29 @@
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2004" t="inlineStr">
@@ -65108,27 +64976,27 @@
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
-      <c r="E2005" t="inlineStr"/>
+      <c r="E2005" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2005" t="inlineStr"/>
       <c r="H2005" t="inlineStr">
         <is>
           <t>3</t>
@@ -65138,31 +65006,27 @@
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2006" t="inlineStr"/>
       <c r="H2006" t="inlineStr">
         <is>
           <t>3</t>
@@ -65172,25 +65036,21 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
-      <c r="E2007" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2007" t="inlineStr"/>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr"/>
       <c r="H2007" t="inlineStr">
@@ -65202,63 +65062,63 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2008" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
       <c r="E2009" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2009" t="inlineStr">
@@ -65270,27 +65130,31 @@
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr"/>
+      <c r="G2010" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2010" t="inlineStr">
         <is>
           <t>2</t>
@@ -65300,7 +65164,7 @@
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
@@ -65310,27 +65174,27 @@
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
       <c r="G2011" t="inlineStr"/>
       <c r="H2011" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
@@ -65340,27 +65204,27 @@
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
       <c r="G2012" t="inlineStr"/>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
@@ -65370,13 +65234,13 @@
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
@@ -65390,7 +65254,7 @@
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
@@ -65400,13 +65264,13 @@
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr"/>
@@ -65420,323 +65284,371 @@
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr"/>
+      <c r="G2015" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2015" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr"/>
+      <c r="G2016" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2016" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
+      <c r="G2017" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr"/>
+      <c r="E2018" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
+      <c r="G2018" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2018" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr"/>
+      <c r="E2019" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
+      <c r="G2019" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2019" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr"/>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
+      <c r="G2020" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2020" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr"/>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr"/>
+      <c r="G2021" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2021" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
       <c r="E2022" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2022" t="inlineStr"/>
       <c r="G2022" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2022" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
       <c r="E2023" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2023" t="inlineStr"/>
       <c r="G2023" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2023" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2024" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr"/>
+      <c r="G2025" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2025" t="inlineStr">
         <is>
           <t>3</t>
@@ -65746,63 +65658,63 @@
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2026" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
       <c r="G2027" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2027" t="inlineStr">
@@ -65814,25 +65726,21 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2028" t="inlineStr"/>
       <c r="F2028" t="inlineStr"/>
       <c r="G2028" t="inlineStr"/>
       <c r="H2028" t="inlineStr">
@@ -65844,25 +65752,21 @@
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2029" t="inlineStr"/>
       <c r="F2029" t="inlineStr"/>
       <c r="G2029" t="inlineStr"/>
       <c r="H2029" t="inlineStr">
@@ -65872,25 +65776,29 @@
       </c>
     </row>
     <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2030" t="inlineStr"/>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr"/>
+      <c r="E2030" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr"/>
+      <c r="G2030" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2030" t="inlineStr">
         <is>
           <t>3</t>
@@ -65898,33 +65806,25 @@
       </c>
     </row>
     <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2031" t="inlineStr"/>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
       <c r="E2031" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2031" t="inlineStr"/>
       <c r="H2031" t="inlineStr">
         <is>
           <t>3</t>
@@ -65932,950 +65832,212 @@
       </c>
     </row>
     <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2032" t="inlineStr"/>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
       <c r="E2032" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2032" t="inlineStr"/>
       <c r="H2032" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2033" t="inlineStr"/>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2033" t="inlineStr"/>
       <c r="F2033" t="inlineStr"/>
       <c r="G2033" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2033" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2034" t="inlineStr"/>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr"/>
       <c r="E2034" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2034" t="inlineStr"/>
       <c r="G2034" t="inlineStr"/>
       <c r="H2034" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2035" t="inlineStr"/>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2035" t="inlineStr"/>
       <c r="E2035" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr"/>
+      <c r="G2035" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2035" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2036">
       <c r="A2036" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2036" t="inlineStr"/>
+      <c r="C2036" t="inlineStr"/>
       <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2036" t="inlineStr"/>
       <c r="F2036" t="inlineStr"/>
       <c r="G2036" t="inlineStr"/>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2036" t="inlineStr"/>
     </row>
     <row r="2037">
       <c r="A2037" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr"/>
       <c r="E2037" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2037" t="inlineStr"/>
       <c r="G2037" t="inlineStr"/>
       <c r="H2037" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2038" t="inlineStr"/>
       <c r="E2038" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$6.49B</t>
         </is>
       </c>
       <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="G2038" t="inlineStr"/>
       <c r="H2038" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr"/>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2039" t="inlineStr"/>
       <c r="H2039" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2043" t="inlineStr"/>
-      <c r="E2043" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2044" t="inlineStr"/>
-      <c r="E2044" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2044" t="inlineStr"/>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2045" t="inlineStr"/>
-      <c r="E2045" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2045" t="inlineStr"/>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2046" t="inlineStr"/>
-      <c r="E2046" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2046" t="inlineStr"/>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2047" t="inlineStr"/>
-      <c r="E2047" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2047" t="inlineStr"/>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2048" t="inlineStr"/>
-      <c r="E2048" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2049" t="inlineStr"/>
-      <c r="E2049" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2049" t="inlineStr"/>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2050" t="inlineStr"/>
-      <c r="E2050" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2050" t="inlineStr"/>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2051" t="inlineStr"/>
-      <c r="E2051" t="inlineStr"/>
-      <c r="F2051" t="inlineStr"/>
-      <c r="G2051" t="inlineStr"/>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr"/>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr"/>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr"/>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr"/>
-      <c r="B2054" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2054" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-      <c r="H2054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr"/>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2055" t="inlineStr"/>
-      <c r="E2055" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr"/>
-      <c r="H2055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr"/>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2056" t="inlineStr"/>
-      <c r="E2056" t="inlineStr"/>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr"/>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2057" t="inlineStr"/>
-      <c r="E2057" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr"/>
-      <c r="H2057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2058">
-      <c r="A2058" t="inlineStr"/>
-      <c r="B2058" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2058" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2058" t="inlineStr"/>
-      <c r="E2058" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2058" t="inlineStr"/>
-      <c r="G2058" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2059">
-      <c r="A2059" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2059" t="inlineStr"/>
-      <c r="C2059" t="inlineStr"/>
-      <c r="D2059" t="inlineStr"/>
-      <c r="E2059" t="inlineStr"/>
-      <c r="F2059" t="inlineStr"/>
-      <c r="G2059" t="inlineStr"/>
-      <c r="H2059" t="inlineStr"/>
-    </row>
-    <row r="2060">
-      <c r="A2060" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2060" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2060" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2060" t="inlineStr"/>
-      <c r="E2060" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2060" t="inlineStr"/>
-      <c r="G2060" t="inlineStr"/>
-      <c r="H2060" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2061">
-      <c r="A2061" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2061" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2061" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2061" t="inlineStr"/>
-      <c r="E2061" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2061" t="inlineStr"/>
-      <c r="G2061" t="inlineStr"/>
-      <c r="H2061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2062">
-      <c r="A2062" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2062" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2062" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2062" t="inlineStr"/>
-      <c r="E2062" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2062" t="inlineStr"/>
-      <c r="G2062" t="inlineStr"/>
-      <c r="H2062" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2064"/>
+  <dimension ref="A1:H2041"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59833,10 +59833,8 @@
           <t>433</t>
         </is>
       </c>
-      <c r="H1830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1830" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1831">
@@ -59867,10 +59865,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1831" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1831" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1832">
@@ -59901,10 +59897,8 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="H1832" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1832" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1833">
@@ -59935,10 +59929,8 @@
           <t>-0.1%</t>
         </is>
       </c>
-      <c r="H1833" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1833" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1834">
@@ -59969,10 +59961,8 @@
           <t>104</t>
         </is>
       </c>
-      <c r="H1834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1834" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1835">
@@ -60003,10 +59993,8 @@
           <t>-8</t>
         </is>
       </c>
-      <c r="H1835" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1835" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1836">
@@ -60037,10 +60025,8 @@
           <t>-9</t>
         </is>
       </c>
-      <c r="H1836" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1836" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1837">
@@ -60071,10 +60057,8 @@
           <t>21</t>
         </is>
       </c>
-      <c r="H1837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1837" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1838">
@@ -60105,10 +60089,8 @@
           <t>9.5</t>
         </is>
       </c>
-      <c r="H1838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1838" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1839">
@@ -60139,10 +60121,8 @@
           <t>13</t>
         </is>
       </c>
-      <c r="H1839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1839" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1840">
@@ -60169,10 +60149,8 @@
       </c>
       <c r="F1840" t="inlineStr"/>
       <c r="G1840" t="inlineStr"/>
-      <c r="H1840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1840" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1841">
@@ -60199,10 +60177,8 @@
       </c>
       <c r="F1841" t="inlineStr"/>
       <c r="G1841" t="inlineStr"/>
-      <c r="H1841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1841" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1842">
@@ -60229,10 +60205,8 @@
       </c>
       <c r="F1842" t="inlineStr"/>
       <c r="G1842" t="inlineStr"/>
-      <c r="H1842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1842" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1843">
@@ -60273,10 +60247,8 @@
       </c>
       <c r="F1844" t="inlineStr"/>
       <c r="G1844" t="inlineStr"/>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1845">
@@ -60307,10 +60279,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1846">
@@ -60341,10 +60311,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1847">
@@ -60375,10 +60343,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1848">
@@ -60409,10 +60375,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1849">
@@ -60443,10 +60407,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1850">
@@ -60477,10 +60439,8 @@
           <t>139.1</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1851">
@@ -60507,10 +60467,8 @@
       </c>
       <c r="F1851" t="inlineStr"/>
       <c r="G1851" t="inlineStr"/>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1852">
@@ -60537,10 +60495,8 @@
       </c>
       <c r="F1852" t="inlineStr"/>
       <c r="G1852" t="inlineStr"/>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1853">
@@ -60567,10 +60523,8 @@
       </c>
       <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr"/>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1854">
@@ -60597,10 +60551,8 @@
       </c>
       <c r="F1854" t="inlineStr"/>
       <c r="G1854" t="inlineStr"/>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1855">
@@ -60627,10 +60579,8 @@
       </c>
       <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr"/>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1856">
@@ -60661,10 +60611,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1857">
@@ -60695,10 +60643,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1858">
@@ -60725,10 +60671,8 @@
       </c>
       <c r="F1858" t="inlineStr"/>
       <c r="G1858" t="inlineStr"/>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60759,10 +60703,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60789,10 +60731,8 @@
       </c>
       <c r="F1860" t="inlineStr"/>
       <c r="G1860" t="inlineStr"/>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60819,10 +60759,8 @@
       </c>
       <c r="F1861" t="inlineStr"/>
       <c r="G1861" t="inlineStr"/>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1862">
@@ -60849,10 +60787,8 @@
       </c>
       <c r="F1862" t="inlineStr"/>
       <c r="G1862" t="inlineStr"/>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1863">
@@ -60879,10 +60815,8 @@
       </c>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60905,10 +60839,8 @@
       <c r="E1864" t="inlineStr"/>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60935,10 +60867,8 @@
       </c>
       <c r="F1865" t="inlineStr"/>
       <c r="G1865" t="inlineStr"/>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60969,10 +60899,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1867">
@@ -60999,10 +60927,8 @@
       </c>
       <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr"/>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1868">
@@ -61029,10 +60955,8 @@
       </c>
       <c r="F1868" t="inlineStr"/>
       <c r="G1868" t="inlineStr"/>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1869">
@@ -61059,10 +60983,8 @@
       </c>
       <c r="F1869" t="inlineStr"/>
       <c r="G1869" t="inlineStr"/>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1870">
@@ -61089,10 +61011,8 @@
       </c>
       <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr"/>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1871">
@@ -61119,10 +61039,8 @@
       </c>
       <c r="F1871" t="inlineStr"/>
       <c r="G1871" t="inlineStr"/>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1872">
@@ -61153,10 +61071,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1873">
@@ -61187,10 +61103,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1874">
@@ -61221,10 +61135,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1875">
@@ -61247,10 +61159,8 @@
       <c r="E1875" t="inlineStr"/>
       <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr"/>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1876">
@@ -61285,10 +61195,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1877">
@@ -61311,10 +61219,8 @@
       <c r="E1877" t="inlineStr"/>
       <c r="F1877" t="inlineStr"/>
       <c r="G1877" t="inlineStr"/>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1878">
@@ -61337,10 +61243,8 @@
       <c r="E1878" t="inlineStr"/>
       <c r="F1878" t="inlineStr"/>
       <c r="G1878" t="inlineStr"/>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1879">
@@ -61363,10 +61267,8 @@
       <c r="E1879" t="inlineStr"/>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr"/>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1880">
@@ -61389,10 +61291,8 @@
       <c r="E1880" t="inlineStr"/>
       <c r="F1880" t="inlineStr"/>
       <c r="G1880" t="inlineStr"/>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61415,10 +61315,8 @@
       <c r="E1881" t="inlineStr"/>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1882">
@@ -61441,10 +61339,8 @@
       <c r="E1882" t="inlineStr"/>
       <c r="F1882" t="inlineStr"/>
       <c r="G1882" t="inlineStr"/>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1883">
@@ -61467,10 +61363,8 @@
       <c r="E1883" t="inlineStr"/>
       <c r="F1883" t="inlineStr"/>
       <c r="G1883" t="inlineStr"/>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61493,10 +61387,8 @@
       <c r="E1884" t="inlineStr"/>
       <c r="F1884" t="inlineStr"/>
       <c r="G1884" t="inlineStr"/>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61519,10 +61411,8 @@
       <c r="E1885" t="inlineStr"/>
       <c r="F1885" t="inlineStr"/>
       <c r="G1885" t="inlineStr"/>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61545,10 +61435,8 @@
       <c r="E1886" t="inlineStr"/>
       <c r="F1886" t="inlineStr"/>
       <c r="G1886" t="inlineStr"/>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61579,10 +61467,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1888">
@@ -61613,10 +61499,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61643,10 +61527,8 @@
       </c>
       <c r="F1889" t="inlineStr"/>
       <c r="G1889" t="inlineStr"/>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61695,10 +61577,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1892">
@@ -61721,10 +61601,8 @@
       <c r="E1892" t="inlineStr"/>
       <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr"/>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1893">
@@ -61755,10 +61633,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1894">
@@ -61781,10 +61657,8 @@
       <c r="E1894" t="inlineStr"/>
       <c r="F1894" t="inlineStr"/>
       <c r="G1894" t="inlineStr"/>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61807,10 +61681,8 @@
       <c r="E1895" t="inlineStr"/>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61837,10 +61709,8 @@
       </c>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61863,10 +61733,8 @@
       <c r="E1897" t="inlineStr"/>
       <c r="F1897" t="inlineStr"/>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1898">
@@ -61897,10 +61765,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -61931,10 +61797,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -61965,10 +61829,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1901">
@@ -61995,10 +61857,8 @@
       </c>
       <c r="F1901" t="inlineStr"/>
       <c r="G1901" t="inlineStr"/>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -62029,10 +61889,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -62063,10 +61921,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1904">
@@ -62097,10 +61953,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1905">
@@ -62131,10 +61985,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1906">
@@ -62165,10 +62017,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -62195,10 +62045,8 @@
       </c>
       <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr"/>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1908">
@@ -62225,10 +62073,8 @@
       </c>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1909">
@@ -62255,10 +62101,8 @@
       </c>
       <c r="F1909" t="inlineStr"/>
       <c r="G1909" t="inlineStr"/>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62285,10 +62129,8 @@
       </c>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62315,10 +62157,8 @@
       </c>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr"/>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62349,10 +62189,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1913">
@@ -62383,10 +62221,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1914">
@@ -62417,10 +62253,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1915">
@@ -62451,10 +62285,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1916">
@@ -62485,10 +62317,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1917">
@@ -62519,10 +62349,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62549,10 +62377,8 @@
       </c>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62583,10 +62409,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1920">
@@ -62617,10 +62441,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1921">
@@ -62651,10 +62473,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1922">
@@ -62681,10 +62501,8 @@
       </c>
       <c r="F1922" t="inlineStr"/>
       <c r="G1922" t="inlineStr"/>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62715,10 +62533,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62749,10 +62565,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1925">
@@ -62783,10 +62597,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1926">
@@ -62813,10 +62625,8 @@
       </c>
       <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr"/>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -62843,10 +62653,8 @@
       </c>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1928">
@@ -62877,10 +62685,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1929">
@@ -62907,10 +62713,8 @@
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr"/>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -62937,10 +62741,8 @@
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr"/>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -62967,10 +62769,8 @@
       </c>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr"/>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62997,10 +62797,8 @@
       </c>
       <c r="F1932" t="inlineStr"/>
       <c r="G1932" t="inlineStr"/>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -63023,10 +62821,8 @@
       <c r="E1933" t="inlineStr"/>
       <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr"/>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -63057,10 +62853,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
@@ -63087,10 +62881,8 @@
       </c>
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr"/>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1936">
@@ -63117,10 +62909,8 @@
       </c>
       <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr"/>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1937">
@@ -63143,10 +62933,8 @@
       <c r="E1937" t="inlineStr"/>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr"/>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -63169,10 +62957,8 @@
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -63203,10 +62989,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1940">
@@ -63237,10 +63021,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1941">
@@ -63267,10 +63049,8 @@
       </c>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr"/>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1942">
@@ -63297,10 +63077,8 @@
       </c>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr"/>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63327,10 +63105,8 @@
       </c>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr"/>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63365,10 +63141,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1945">
@@ -63403,10 +63177,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1946">
@@ -63437,10 +63209,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
@@ -63471,10 +63241,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1947" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1947" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1948">
@@ -63505,10 +63273,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1948" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1948" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1949">
@@ -63539,10 +63305,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1949" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1949" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1950">
@@ -63565,10 +63329,8 @@
       <c r="E1950" t="inlineStr"/>
       <c r="F1950" t="inlineStr"/>
       <c r="G1950" t="inlineStr"/>
-      <c r="H1950" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1950" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1951">
@@ -63591,10 +63353,8 @@
       <c r="E1951" t="inlineStr"/>
       <c r="F1951" t="inlineStr"/>
       <c r="G1951" t="inlineStr"/>
-      <c r="H1951" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1951" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1952">
@@ -63625,10 +63385,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1952" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1952" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1953">
@@ -63659,10 +63417,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1953" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1953" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1954">
@@ -63685,10 +63441,8 @@
       <c r="E1954" t="inlineStr"/>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr"/>
-      <c r="H1954" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1954" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1955">
@@ -63719,10 +63473,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1955" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1955" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1956">
@@ -63753,10 +63505,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1956" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1956" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1957">
@@ -63779,10 +63529,8 @@
       <c r="E1957" t="inlineStr"/>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr"/>
-      <c r="H1957" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1957" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1958">
@@ -63813,10 +63561,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1958" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1958" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1959">
@@ -63847,10 +63593,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1959" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1959" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1960">
@@ -63873,10 +63617,8 @@
       <c r="E1960" t="inlineStr"/>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr"/>
-      <c r="H1960" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1960" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1961">
@@ -63899,10 +63641,8 @@
       <c r="E1961" t="inlineStr"/>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr"/>
-      <c r="H1961" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1961" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1962">
@@ -63925,10 +63665,8 @@
       <c r="E1962" t="inlineStr"/>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr"/>
-      <c r="H1962" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1962" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1963">
@@ -63951,10 +63689,8 @@
       <c r="E1963" t="inlineStr"/>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr"/>
-      <c r="H1963" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1963" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1964">
@@ -63977,10 +63713,8 @@
       <c r="E1964" t="inlineStr"/>
       <c r="F1964" t="inlineStr"/>
       <c r="G1964" t="inlineStr"/>
-      <c r="H1964" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1964" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1965">
@@ -64003,10 +63737,8 @@
       </c>
       <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr"/>
-      <c r="H1965" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1965" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1966">
@@ -64033,10 +63765,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1966" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1966" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1967">
@@ -64063,10 +63793,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1967" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1967" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1968">
@@ -64093,44 +63821,66 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1968" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1968" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1969" t="inlineStr"/>
-      <c r="C1969" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1969" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1969" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1969" t="inlineStr"/>
-      <c r="E1969" t="inlineStr"/>
+      <c r="E1969" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr"/>
-      <c r="H1969" t="inlineStr"/>
+      <c r="G1969" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H1969" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
-      <c r="E1970" t="inlineStr"/>
+      <c r="E1970" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1970" t="inlineStr"/>
       <c r="G1970" t="inlineStr"/>
       <c r="H1970" t="inlineStr">
@@ -64142,91 +63892,103 @@
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
       <c r="G1971" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1971" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr"/>
+      <c r="G1972" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1972" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1973" t="inlineStr"/>
-      <c r="G1973" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F1973" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G1973" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H1973" t="inlineStr">
         <is>
           <t>3</t>
@@ -64236,27 +63998,31 @@
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr"/>
+      <c r="G1974" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H1974" t="inlineStr">
         <is>
           <t>3</t>
@@ -64266,27 +64032,31 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr"/>
+      <c r="G1975" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H1975" t="inlineStr">
         <is>
           <t>3</t>
@@ -64296,27 +64066,31 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr"/>
+      <c r="G1976" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H1976" t="inlineStr">
         <is>
           <t>2</t>
@@ -64326,29 +64100,29 @@
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
       <c r="G1977" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1977" t="inlineStr">
@@ -64360,133 +64134,117 @@
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>-1.6%</t>
-        </is>
-      </c>
+      <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G1979" t="inlineStr"/>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G1980" t="inlineStr"/>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="G1981" t="inlineStr"/>
       <c r="H1981" t="inlineStr">
         <is>
           <t>3</t>
@@ -64496,29 +64254,29 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
@@ -64530,29 +64288,29 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1983" t="inlineStr">
@@ -64564,29 +64322,25 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
-      <c r="E1984" t="inlineStr">
-        <is>
-          <t>6.2%</t>
-        </is>
-      </c>
+      <c r="E1984" t="inlineStr"/>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1984" t="inlineStr">
@@ -64598,29 +64352,29 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1985" t="inlineStr">
@@ -64632,23 +64386,23 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1986" t="inlineStr"/>
@@ -64662,59 +64416,63 @@
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr"/>
+      <c r="G1987" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1988" t="inlineStr">
@@ -64726,65 +64484,57 @@
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G1989" t="inlineStr"/>
       <c r="H1989" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1990" t="inlineStr"/>
       <c r="H1990" t="inlineStr">
         <is>
           <t>3</t>
@@ -64794,7 +64544,7 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
@@ -64804,31 +64554,27 @@
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1991" t="inlineStr"/>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
@@ -64838,31 +64584,27 @@
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1992" t="inlineStr"/>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
@@ -64872,13 +64614,13 @@
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
@@ -64892,7 +64634,7 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
@@ -64902,21 +64644,17 @@
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1994" t="inlineStr"/>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64926,69 +64664,57 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1995" t="inlineStr"/>
       <c r="H1995" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1996" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F1996" t="inlineStr"/>
+      <c r="G1996" t="inlineStr"/>
       <c r="H1996" t="inlineStr">
         <is>
           <t>3</t>
@@ -64998,31 +64724,23 @@
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
-      <c r="E1997" t="inlineStr">
-        <is>
-          <t>$29.75B</t>
-        </is>
-      </c>
+      <c r="E1997" t="inlineStr"/>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
         <is>
           <t>3</t>
@@ -65032,31 +64750,23 @@
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>$23.22B</t>
-        </is>
-      </c>
+      <c r="E1998" t="inlineStr"/>
       <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1998" t="inlineStr"/>
       <c r="H1998" t="inlineStr">
         <is>
           <t>3</t>
@@ -65066,155 +64776,151 @@
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1999" t="inlineStr"/>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1999" t="inlineStr"/>
       <c r="H1999" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="E2000" t="inlineStr"/>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G2000" t="inlineStr"/>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr"/>
+      <c r="G2002" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H2002" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr"/>
+      <c r="G2003" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2003" t="inlineStr">
         <is>
           <t>3</t>
@@ -65224,23 +64930,23 @@
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
@@ -65254,29 +64960,29 @@
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H2005" t="inlineStr">
@@ -65288,29 +64994,29 @@
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H2006" t="inlineStr">
@@ -65322,27 +65028,27 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
-      <c r="E2007" t="inlineStr"/>
+      <c r="E2007" t="inlineStr">
+        <is>
+          <t>11.2%</t>
+        </is>
+      </c>
       <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="G2007" t="inlineStr"/>
       <c r="H2007" t="inlineStr">
         <is>
           <t>3</t>
@@ -65352,31 +65058,27 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G2008" t="inlineStr"/>
       <c r="H2008" t="inlineStr">
         <is>
           <t>3</t>
@@ -65386,25 +65088,21 @@
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr">
-        <is>
-          <t>8.25%</t>
-        </is>
-      </c>
+      <c r="E2009" t="inlineStr"/>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr"/>
       <c r="H2009" t="inlineStr">
@@ -65416,63 +65114,63 @@
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
       <c r="E2010" t="inlineStr">
         <is>
-          <t>10K</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F2010" t="inlineStr"/>
       <c r="G2010" t="inlineStr">
         <is>
-          <t>7.0K</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H2010" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
       <c r="G2011" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H2011" t="inlineStr">
@@ -65484,27 +65182,31 @@
     <row r="2012">
       <c r="A2012" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr"/>
+      <c r="G2012" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H2012" t="inlineStr">
         <is>
           <t>2</t>
@@ -65514,7 +65216,7 @@
     <row r="2013">
       <c r="A2013" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2013" t="inlineStr">
@@ -65524,27 +65226,27 @@
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr"/>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2014" t="inlineStr">
@@ -65554,27 +65256,27 @@
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr"/>
       <c r="G2014" t="inlineStr"/>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2015" t="inlineStr">
@@ -65584,13 +65286,13 @@
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
@@ -65604,7 +65306,7 @@
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B2016" t="inlineStr">
@@ -65614,13 +65316,13 @@
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
@@ -65634,323 +65336,375 @@
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F2017" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G2017" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H2017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
+      <c r="G2018" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2018" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
+      <c r="G2019" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H2019" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr"/>
+      <c r="E2020" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
+      <c r="G2020" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H2020" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2021" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2021" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr"/>
+      <c r="E2021" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr"/>
+      <c r="G2021" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2021" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2022" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2022" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr"/>
+      <c r="E2022" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr"/>
+      <c r="G2022" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2022" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr"/>
+      <c r="E2023" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr"/>
+      <c r="G2023" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2023" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2024" t="inlineStr"/>
       <c r="E2024" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2024" t="inlineStr"/>
       <c r="G2024" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2024" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2025" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2025" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2025" t="inlineStr"/>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2025" t="inlineStr"/>
       <c r="G2025" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2025" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2026" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2026" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2026" t="inlineStr"/>
       <c r="E2026" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2026" t="inlineStr"/>
       <c r="G2026" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2026" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2027" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2027" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2027" t="inlineStr"/>
       <c r="E2027" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr"/>
+      <c r="G2027" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2027" t="inlineStr">
         <is>
           <t>3</t>
@@ -65960,63 +65714,63 @@
     <row r="2028">
       <c r="A2028" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2028" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2028" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2028" t="inlineStr"/>
       <c r="E2028" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2028" t="inlineStr"/>
       <c r="G2028" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2028" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2029">
       <c r="A2029" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2029" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2029" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2029" t="inlineStr"/>
       <c r="E2029" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2029" t="inlineStr"/>
       <c r="G2029" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2029" t="inlineStr">
@@ -66028,25 +65782,21 @@
     <row r="2030">
       <c r="A2030" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2030" t="inlineStr"/>
       <c r="F2030" t="inlineStr"/>
       <c r="G2030" t="inlineStr"/>
       <c r="H2030" t="inlineStr">
@@ -66058,25 +65808,21 @@
     <row r="2031">
       <c r="A2031" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2031" t="inlineStr"/>
       <c r="F2031" t="inlineStr"/>
       <c r="G2031" t="inlineStr"/>
       <c r="H2031" t="inlineStr">
@@ -66086,25 +65832,29 @@
       </c>
     </row>
     <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2032" t="inlineStr"/>
       <c r="B2032" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2032" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
+      <c r="E2032" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr"/>
+      <c r="G2032" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2032" t="inlineStr">
         <is>
           <t>3</t>
@@ -66112,33 +65862,25 @@
       </c>
     </row>
     <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2033" t="inlineStr"/>
       <c r="B2033" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2033" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2033" t="inlineStr"/>
       <c r="E2033" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2033" t="inlineStr"/>
       <c r="H2033" t="inlineStr">
         <is>
           <t>3</t>
@@ -66146,954 +65888,212 @@
       </c>
     </row>
     <row r="2034">
-      <c r="A2034" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2034" t="inlineStr"/>
       <c r="B2034" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2034" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2034" t="inlineStr"/>
       <c r="E2034" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
+      <c r="G2034" t="inlineStr"/>
       <c r="H2034" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2035">
-      <c r="A2035" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2035" t="inlineStr"/>
       <c r="B2035" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2035" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr">
-        <is>
-          <t>ZAR34.7B</t>
-        </is>
-      </c>
+      <c r="E2035" t="inlineStr"/>
       <c r="F2035" t="inlineStr"/>
       <c r="G2035" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2035" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2036">
-      <c r="A2036" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2036" t="inlineStr"/>
       <c r="B2036" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2036" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2036" t="inlineStr"/>
       <c r="E2036" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2036" t="inlineStr"/>
       <c r="G2036" t="inlineStr"/>
       <c r="H2036" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2037">
-      <c r="A2037" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2037" t="inlineStr"/>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2037" t="inlineStr"/>
       <c r="E2037" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
+      <c r="G2037" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2037" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2038">
       <c r="A2038" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2038" t="inlineStr"/>
+      <c r="C2038" t="inlineStr"/>
       <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2038" t="inlineStr"/>
       <c r="F2038" t="inlineStr"/>
       <c r="G2038" t="inlineStr"/>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2038" t="inlineStr"/>
     </row>
     <row r="2039">
       <c r="A2039" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2039" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2039" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2039" t="inlineStr"/>
       <c r="E2039" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2039" t="inlineStr"/>
       <c r="G2039" t="inlineStr"/>
       <c r="H2039" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2040" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2040" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2040" t="inlineStr"/>
       <c r="E2040" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2040" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2040" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2040" t="inlineStr"/>
+      <c r="G2040" t="inlineStr"/>
       <c r="H2040" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2041">
       <c r="A2041" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2041" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2041" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2041" t="inlineStr"/>
       <c r="E2041" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2041" t="inlineStr"/>
       <c r="H2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2043" t="inlineStr"/>
-      <c r="E2043" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2043" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2044" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2044" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2044" t="inlineStr"/>
-      <c r="E2044" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2044" t="inlineStr"/>
-      <c r="G2044" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2044" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2045">
-      <c r="A2045" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2045" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2045" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2045" t="inlineStr"/>
-      <c r="E2045" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2045" t="inlineStr"/>
-      <c r="G2045" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2046">
-      <c r="A2046" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2046" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2046" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2046" t="inlineStr"/>
-      <c r="E2046" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2046" t="inlineStr"/>
-      <c r="G2046" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2047">
-      <c r="A2047" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2047" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2047" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2047" t="inlineStr"/>
-      <c r="E2047" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2047" t="inlineStr"/>
-      <c r="G2047" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2047" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2048">
-      <c r="A2048" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2048" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2048" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2048" t="inlineStr"/>
-      <c r="E2048" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2048" t="inlineStr"/>
-      <c r="G2048" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2048" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2049">
-      <c r="A2049" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2049" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2049" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2049" t="inlineStr"/>
-      <c r="E2049" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2049" t="inlineStr"/>
-      <c r="G2049" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2049" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2050">
-      <c r="A2050" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2050" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2050" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2050" t="inlineStr"/>
-      <c r="E2050" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2050" t="inlineStr"/>
-      <c r="G2050" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2051">
-      <c r="A2051" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2051" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2051" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2051" t="inlineStr"/>
-      <c r="E2051" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2051" t="inlineStr"/>
-      <c r="G2051" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2051" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2052">
-      <c r="A2052" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2052" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2052" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2052" t="inlineStr"/>
-      <c r="E2052" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2052" t="inlineStr"/>
-      <c r="G2052" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2052" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2053">
-      <c r="A2053" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2053" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2053" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2053" t="inlineStr"/>
-      <c r="E2053" t="inlineStr"/>
-      <c r="F2053" t="inlineStr"/>
-      <c r="G2053" t="inlineStr"/>
-      <c r="H2053" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2054">
-      <c r="A2054" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2054" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2054" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2054" t="inlineStr"/>
-      <c r="E2054" t="inlineStr"/>
-      <c r="F2054" t="inlineStr"/>
-      <c r="G2054" t="inlineStr"/>
-      <c r="H2054" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2055">
-      <c r="A2055" t="inlineStr"/>
-      <c r="B2055" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2055" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2055" t="inlineStr"/>
-      <c r="E2055" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2055" t="inlineStr"/>
-      <c r="G2055" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2055" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2056">
-      <c r="A2056" t="inlineStr"/>
-      <c r="B2056" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2056" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2056" t="inlineStr"/>
-      <c r="E2056" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2056" t="inlineStr"/>
-      <c r="G2056" t="inlineStr"/>
-      <c r="H2056" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" t="inlineStr"/>
-      <c r="B2057" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2057" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2057" t="inlineStr"/>
-      <c r="E2057" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2057" t="inlineStr"/>
-      <c r="G2057" t="inlineStr"/>
-      <c r="H2057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2058">
-      <c r="A2058" t="inlineStr"/>
-      <c r="B2058" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2058" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2058" t="inlineStr"/>
-      <c r="E2058" t="inlineStr"/>
-      <c r="F2058" t="inlineStr"/>
-      <c r="G2058" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2059">
-      <c r="A2059" t="inlineStr"/>
-      <c r="B2059" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2059" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2059" t="inlineStr"/>
-      <c r="E2059" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2059" t="inlineStr"/>
-      <c r="G2059" t="inlineStr"/>
-      <c r="H2059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2060">
-      <c r="A2060" t="inlineStr"/>
-      <c r="B2060" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2060" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2060" t="inlineStr"/>
-      <c r="E2060" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2060" t="inlineStr"/>
-      <c r="G2060" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2061">
-      <c r="A2061" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2061" t="inlineStr"/>
-      <c r="C2061" t="inlineStr"/>
-      <c r="D2061" t="inlineStr"/>
-      <c r="E2061" t="inlineStr"/>
-      <c r="F2061" t="inlineStr"/>
-      <c r="G2061" t="inlineStr"/>
-      <c r="H2061" t="inlineStr"/>
-    </row>
-    <row r="2062">
-      <c r="A2062" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2062" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2062" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2062" t="inlineStr"/>
-      <c r="E2062" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2062" t="inlineStr"/>
-      <c r="G2062" t="inlineStr"/>
-      <c r="H2062" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2063">
-      <c r="A2063" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2063" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2063" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2063" t="inlineStr"/>
-      <c r="E2063" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2063" t="inlineStr"/>
-      <c r="G2063" t="inlineStr"/>
-      <c r="H2063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2064">
-      <c r="A2064" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2064" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2064" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2064" t="inlineStr"/>
-      <c r="E2064" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2064" t="inlineStr"/>
-      <c r="G2064" t="inlineStr"/>
-      <c r="H2064" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2042"/>
+  <dimension ref="A1:H2019"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61559,10 +61559,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1891">
@@ -61593,10 +61591,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1892">
@@ -61627,10 +61623,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1893">
@@ -61661,10 +61655,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1894">
@@ -61695,10 +61687,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1895">
@@ -61725,10 +61715,8 @@
       </c>
       <c r="F1895" t="inlineStr"/>
       <c r="G1895" t="inlineStr"/>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61759,10 +61747,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1897">
@@ -61793,10 +61779,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1898">
@@ -61827,10 +61811,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1899">
@@ -61857,10 +61839,8 @@
       </c>
       <c r="F1899" t="inlineStr"/>
       <c r="G1899" t="inlineStr"/>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1900">
@@ -61891,10 +61871,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -61925,10 +61903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1902">
@@ -61959,10 +61935,8 @@
           <t>6.50%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1903">
@@ -61989,10 +61963,8 @@
       </c>
       <c r="F1903" t="inlineStr"/>
       <c r="G1903" t="inlineStr"/>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1904">
@@ -62019,10 +61991,8 @@
       </c>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1905">
@@ -62053,10 +62023,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1906">
@@ -62083,10 +62051,8 @@
       </c>
       <c r="F1906" t="inlineStr"/>
       <c r="G1906" t="inlineStr"/>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -62113,10 +62079,8 @@
       </c>
       <c r="F1907" t="inlineStr"/>
       <c r="G1907" t="inlineStr"/>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -62143,10 +62107,8 @@
       </c>
       <c r="F1908" t="inlineStr"/>
       <c r="G1908" t="inlineStr"/>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -62173,10 +62135,8 @@
       </c>
       <c r="F1909" t="inlineStr"/>
       <c r="G1909" t="inlineStr"/>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62199,10 +62159,8 @@
       <c r="E1910" t="inlineStr"/>
       <c r="F1910" t="inlineStr"/>
       <c r="G1910" t="inlineStr"/>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62233,10 +62191,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62263,10 +62219,8 @@
       </c>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr"/>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62293,10 +62247,8 @@
       </c>
       <c r="F1913" t="inlineStr"/>
       <c r="G1913" t="inlineStr"/>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62319,10 +62271,8 @@
       <c r="E1914" t="inlineStr"/>
       <c r="F1914" t="inlineStr"/>
       <c r="G1914" t="inlineStr"/>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1915">
@@ -62345,10 +62295,8 @@
       <c r="E1915" t="inlineStr"/>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -62379,10 +62327,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1917">
@@ -62413,10 +62359,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1918">
@@ -62443,10 +62387,8 @@
       </c>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1919">
@@ -62477,10 +62419,8 @@
         </is>
       </c>
       <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62507,10 +62447,8 @@
       </c>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62545,10 +62483,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1922">
@@ -62583,10 +62519,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1923">
@@ -62617,10 +62551,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
@@ -62651,10 +62583,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1925">
@@ -62685,10 +62615,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1926">
@@ -62719,10 +62647,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1927">
@@ -62745,10 +62671,8 @@
       <c r="E1927" t="inlineStr"/>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr"/>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1928">
@@ -62771,10 +62695,8 @@
       <c r="E1928" t="inlineStr"/>
       <c r="F1928" t="inlineStr"/>
       <c r="G1928" t="inlineStr"/>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1929">
@@ -62805,10 +62727,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -62839,10 +62759,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -62865,10 +62783,8 @@
       <c r="E1931" t="inlineStr"/>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr"/>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -62899,10 +62815,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -62933,10 +62847,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -62959,10 +62871,8 @@
       <c r="E1934" t="inlineStr"/>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr"/>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1935">
@@ -62993,10 +62903,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1936">
@@ -63027,10 +62935,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1937">
@@ -63053,10 +62959,8 @@
       <c r="E1937" t="inlineStr"/>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr"/>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1938">
@@ -63079,10 +62983,8 @@
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -63105,10 +63007,8 @@
       <c r="E1939" t="inlineStr"/>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr"/>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1940">
@@ -63131,10 +63031,8 @@
       <c r="E1940" t="inlineStr"/>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr"/>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -63157,10 +63055,8 @@
       <c r="E1941" t="inlineStr"/>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr"/>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -63183,10 +63079,8 @@
       </c>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr"/>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63213,10 +63107,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63243,10 +63135,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -63273,46 +63163,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1946" t="inlineStr"/>
-      <c r="C1946" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1946" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1946" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1946" t="inlineStr"/>
-      <c r="E1946" t="inlineStr"/>
+      <c r="E1946" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr"/>
-      <c r="H1946" t="inlineStr"/>
+      <c r="G1946" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H1946" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr"/>
-      <c r="E1947" t="inlineStr"/>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr"/>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1947" t="inlineStr">
         <is>
           <t>3</t>
@@ -63322,91 +63238,103 @@
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1948" t="inlineStr"/>
       <c r="G1948" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1948" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr"/>
+      <c r="G1949" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1949" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F1950" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H1950" t="inlineStr">
         <is>
           <t>3</t>
@@ -63416,27 +63344,31 @@
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1951" t="inlineStr"/>
-      <c r="G1951" t="inlineStr"/>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -63446,27 +63378,31 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
-      <c r="G1952" t="inlineStr"/>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H1952" t="inlineStr">
         <is>
           <t>3</t>
@@ -63476,27 +63412,31 @@
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr"/>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H1953" t="inlineStr">
         <is>
           <t>2</t>
@@ -63506,29 +63446,29 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
       <c r="G1954" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1954" t="inlineStr">
@@ -63540,131 +63480,131 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1955" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H1958" t="inlineStr">
@@ -63676,29 +63616,29 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1959" t="inlineStr">
@@ -63710,29 +63650,29 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1960" t="inlineStr">
@@ -63744,29 +63684,29 @@
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1961" t="inlineStr">
@@ -63778,29 +63718,29 @@
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
@@ -63812,23 +63752,23 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
@@ -63842,59 +63782,63 @@
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
-      <c r="G1964" t="inlineStr"/>
+      <c r="G1964" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H1964" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1965" t="inlineStr"/>
       <c r="G1965" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1965" t="inlineStr">
@@ -63906,65 +63850,61 @@
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1966" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1967" t="inlineStr"/>
       <c r="H1967" t="inlineStr">
         <is>
           <t>3</t>
@@ -63974,7 +63914,7 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
@@ -63984,31 +63924,27 @@
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1968" t="inlineStr"/>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
@@ -64018,31 +63954,27 @@
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1969" t="inlineStr"/>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
@@ -64052,13 +63984,13 @@
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
@@ -64072,7 +64004,7 @@
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
@@ -64082,21 +64014,17 @@
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1971" t="inlineStr"/>
       <c r="H1971" t="inlineStr">
         <is>
           <t>3</t>
@@ -64106,69 +64034,57 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1972" t="inlineStr"/>
       <c r="H1972" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1973" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1973" t="inlineStr"/>
+      <c r="G1973" t="inlineStr"/>
       <c r="H1973" t="inlineStr">
         <is>
           <t>3</t>
@@ -64178,31 +64094,27 @@
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
         <is>
           <t>3</t>
@@ -64212,31 +64124,27 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
         <is>
           <t>3</t>
@@ -64246,155 +64154,155 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1976" t="inlineStr"/>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
       <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr"/>
+      <c r="G1979" t="inlineStr">
+        <is>
+          <t>€5.0B</t>
+        </is>
+      </c>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
-      <c r="G1980" t="inlineStr"/>
+      <c r="G1980" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="H1980" t="inlineStr">
         <is>
           <t>3</t>
@@ -64404,27 +64312,31 @@
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
-      <c r="G1981" t="inlineStr"/>
+      <c r="G1981" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1981" t="inlineStr">
         <is>
           <t>3</t>
@@ -64434,31 +64346,27 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
-      <c r="G1982" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1982" t="inlineStr"/>
       <c r="H1982" t="inlineStr">
         <is>
           <t>3</t>
@@ -64468,29 +64376,29 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
       <c r="G1983" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1983" t="inlineStr">
@@ -64502,29 +64410,29 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1984" t="inlineStr">
@@ -64536,31 +64444,27 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
-      <c r="G1985" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1985" t="inlineStr"/>
       <c r="H1985" t="inlineStr">
         <is>
           <t>3</t>
@@ -64570,23 +64474,23 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1986" t="inlineStr"/>
@@ -64600,85 +64504,77 @@
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="E1987" t="inlineStr"/>
       <c r="F1987" t="inlineStr"/>
-      <c r="G1987" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G1987" t="inlineStr"/>
       <c r="H1987" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
       <c r="E1988" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1988" t="inlineStr"/>
       <c r="G1988" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H1988" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
@@ -64688,7 +64584,11 @@
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
-      <c r="G1989" t="inlineStr"/>
+      <c r="G1989" t="inlineStr">
+        <is>
+          <t>6.1%</t>
+        </is>
+      </c>
       <c r="H1989" t="inlineStr">
         <is>
           <t>2</t>
@@ -64698,37 +64598,41 @@
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
-      <c r="G1990" t="inlineStr"/>
+      <c r="G1990" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
@@ -64738,7 +64642,7 @@
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
@@ -64748,17 +64652,21 @@
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr"/>
+      <c r="G1991" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
@@ -64768,7 +64676,7 @@
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
@@ -64778,17 +64686,21 @@
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr"/>
+      <c r="G1992" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
@@ -64798,17 +64710,21 @@
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr"/>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1993" t="inlineStr">
         <is>
           <t>3</t>
@@ -64818,7 +64734,7 @@
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
@@ -64828,17 +64744,21 @@
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -64848,339 +64768,375 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1995" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1995" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1995" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr"/>
+      <c r="G1996" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1996" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr"/>
+      <c r="G1997" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1997" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
       <c r="E1998" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr"/>
+      <c r="G1998" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1998" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1999" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr"/>
+      <c r="G2000" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
       <c r="G2002" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2002" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2004" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr"/>
+      <c r="G2005" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2005" t="inlineStr">
         <is>
           <t>3</t>
@@ -65190,63 +65146,63 @@
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
       <c r="G2006" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2006" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2007" t="inlineStr">
@@ -65258,25 +65214,21 @@
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2008" t="inlineStr"/>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr"/>
       <c r="H2008" t="inlineStr">
@@ -65288,25 +65240,21 @@
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2009" t="inlineStr"/>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr"/>
       <c r="H2009" t="inlineStr">
@@ -65316,25 +65264,29 @@
       </c>
     </row>
     <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2010" t="inlineStr"/>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr"/>
+      <c r="E2010" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr"/>
+      <c r="G2010" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2010" t="inlineStr">
         <is>
           <t>3</t>
@@ -65342,33 +65294,25 @@
       </c>
     </row>
     <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2011" t="inlineStr"/>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2011" t="inlineStr"/>
       <c r="H2011" t="inlineStr">
         <is>
           <t>3</t>
@@ -65376,958 +65320,224 @@
       </c>
     </row>
     <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2012" t="inlineStr"/>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
       <c r="G2012" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2012" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2013" t="inlineStr"/>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2014" t="inlineStr"/>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr"/>
+      <c r="G2014" t="inlineStr">
+        <is>
+          <t>-4.0%</t>
+        </is>
+      </c>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2015" t="inlineStr"/>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr"/>
+      <c r="G2015" t="inlineStr">
+        <is>
+          <t>20.7%</t>
+        </is>
+      </c>
       <c r="H2015" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2016" t="inlineStr"/>
+      <c r="C2016" t="inlineStr"/>
       <c r="D2016" t="inlineStr"/>
-      <c r="E2016" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2016" t="inlineStr"/>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr"/>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H2016" t="inlineStr"/>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2017" t="inlineStr"/>
       <c r="E2017" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2017" t="inlineStr"/>
       <c r="G2017" t="inlineStr"/>
       <c r="H2017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2018" t="inlineStr"/>
+      <c r="G2018" t="inlineStr"/>
       <c r="H2018" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2019" t="inlineStr"/>
       <c r="H2019" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2020" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2026" t="inlineStr"/>
-      <c r="E2026" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2027" t="inlineStr"/>
-      <c r="E2027" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr"/>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr"/>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr"/>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr"/>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr"/>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr"/>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr"/>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr"/>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr"/>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr"/>
-      <c r="B2037" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2037" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr"/>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr"/>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2039" t="inlineStr"/>
-      <c r="C2039" t="inlineStr"/>
-      <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr"/>
-      <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr"/>
-      <c r="H2039" t="inlineStr"/>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2040" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr"/>
-      <c r="H2040" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr"/>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr"/>
-      <c r="H2042" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2043"/>
+  <dimension ref="A1:H2020"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60233,10 +60233,8 @@
       </c>
       <c r="F1843" t="inlineStr"/>
       <c r="G1843" t="inlineStr"/>
-      <c r="H1843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1843" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1844">
@@ -60267,10 +60265,8 @@
           <t>2.70%</t>
         </is>
       </c>
-      <c r="H1844" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1844" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1845">
@@ -60297,10 +60293,8 @@
       </c>
       <c r="F1845" t="inlineStr"/>
       <c r="G1845" t="inlineStr"/>
-      <c r="H1845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1845" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1846">
@@ -60327,10 +60321,8 @@
       </c>
       <c r="F1846" t="inlineStr"/>
       <c r="G1846" t="inlineStr"/>
-      <c r="H1846" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1846" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1847">
@@ -60357,10 +60349,8 @@
       </c>
       <c r="F1847" t="inlineStr"/>
       <c r="G1847" t="inlineStr"/>
-      <c r="H1847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1847" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1848">
@@ -60387,10 +60377,8 @@
       </c>
       <c r="F1848" t="inlineStr"/>
       <c r="G1848" t="inlineStr"/>
-      <c r="H1848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1848" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1849">
@@ -60417,10 +60405,8 @@
       </c>
       <c r="F1849" t="inlineStr"/>
       <c r="G1849" t="inlineStr"/>
-      <c r="H1849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1849" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1850">
@@ -60451,10 +60437,8 @@
           <t>$ -101.0B</t>
         </is>
       </c>
-      <c r="H1850" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1850" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1851">
@@ -60485,10 +60469,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1851" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1851" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1852">
@@ -60519,10 +60501,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1852" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1852" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1853">
@@ -60545,10 +60525,8 @@
       <c r="E1853" t="inlineStr"/>
       <c r="F1853" t="inlineStr"/>
       <c r="G1853" t="inlineStr"/>
-      <c r="H1853" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1853" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1854">
@@ -60583,10 +60561,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1854" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1854" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1855">
@@ -60609,10 +60585,8 @@
       <c r="E1855" t="inlineStr"/>
       <c r="F1855" t="inlineStr"/>
       <c r="G1855" t="inlineStr"/>
-      <c r="H1855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1855" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1856">
@@ -60635,10 +60609,8 @@
       <c r="E1856" t="inlineStr"/>
       <c r="F1856" t="inlineStr"/>
       <c r="G1856" t="inlineStr"/>
-      <c r="H1856" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1856" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1857">
@@ -60661,10 +60633,8 @@
       <c r="E1857" t="inlineStr"/>
       <c r="F1857" t="inlineStr"/>
       <c r="G1857" t="inlineStr"/>
-      <c r="H1857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1857" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1858">
@@ -60687,10 +60657,8 @@
       <c r="E1858" t="inlineStr"/>
       <c r="F1858" t="inlineStr"/>
       <c r="G1858" t="inlineStr"/>
-      <c r="H1858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1858" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1859">
@@ -60713,10 +60681,8 @@
       <c r="E1859" t="inlineStr"/>
       <c r="F1859" t="inlineStr"/>
       <c r="G1859" t="inlineStr"/>
-      <c r="H1859" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1859" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1860">
@@ -60739,10 +60705,8 @@
       <c r="E1860" t="inlineStr"/>
       <c r="F1860" t="inlineStr"/>
       <c r="G1860" t="inlineStr"/>
-      <c r="H1860" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1860" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1861">
@@ -60765,10 +60729,8 @@
       <c r="E1861" t="inlineStr"/>
       <c r="F1861" t="inlineStr"/>
       <c r="G1861" t="inlineStr"/>
-      <c r="H1861" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1861" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1862">
@@ -60791,10 +60753,8 @@
       <c r="E1862" t="inlineStr"/>
       <c r="F1862" t="inlineStr"/>
       <c r="G1862" t="inlineStr"/>
-      <c r="H1862" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1862" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1863">
@@ -60817,10 +60777,8 @@
       <c r="E1863" t="inlineStr"/>
       <c r="F1863" t="inlineStr"/>
       <c r="G1863" t="inlineStr"/>
-      <c r="H1863" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1863" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1864">
@@ -60843,10 +60801,8 @@
       <c r="E1864" t="inlineStr"/>
       <c r="F1864" t="inlineStr"/>
       <c r="G1864" t="inlineStr"/>
-      <c r="H1864" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1864" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1865">
@@ -60877,10 +60833,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1865" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1865" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1866">
@@ -60911,10 +60865,8 @@
           <t>4.4%</t>
         </is>
       </c>
-      <c r="H1866" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1866" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1867">
@@ -60941,10 +60893,8 @@
       </c>
       <c r="F1867" t="inlineStr"/>
       <c r="G1867" t="inlineStr"/>
-      <c r="H1867" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1867" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1868">
@@ -60993,10 +60943,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1870">
@@ -61019,10 +60967,8 @@
       <c r="E1870" t="inlineStr"/>
       <c r="F1870" t="inlineStr"/>
       <c r="G1870" t="inlineStr"/>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1871">
@@ -61053,10 +60999,8 @@
           <t>12.25%</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1872">
@@ -61083,10 +61027,8 @@
       </c>
       <c r="F1872" t="inlineStr"/>
       <c r="G1872" t="inlineStr"/>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -61113,10 +61055,8 @@
       </c>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -61147,10 +61087,8 @@
           <t>-20.0%</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1875">
@@ -61173,10 +61111,8 @@
       <c r="E1875" t="inlineStr"/>
       <c r="F1875" t="inlineStr"/>
       <c r="G1875" t="inlineStr"/>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1876">
@@ -61207,10 +61143,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1877">
@@ -61241,10 +61175,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -61275,10 +61207,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1879">
@@ -61305,10 +61235,8 @@
       </c>
       <c r="F1879" t="inlineStr"/>
       <c r="G1879" t="inlineStr"/>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1880">
@@ -61339,10 +61267,8 @@
           <t>3.8%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1881">
@@ -61373,10 +61299,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1882">
@@ -61407,10 +61331,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1883">
@@ -61441,10 +61363,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1884">
@@ -61475,10 +61395,8 @@
           <t>98.3</t>
         </is>
       </c>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61509,10 +61427,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1886">
@@ -61543,10 +61459,8 @@
           <t>2.8%</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1887">
@@ -61577,10 +61491,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1888">
@@ -61611,10 +61523,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61645,10 +61555,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61679,10 +61587,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1891">
@@ -61713,10 +61619,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1892">
@@ -61747,10 +61651,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1893">
@@ -61781,10 +61683,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1894">
@@ -61815,10 +61715,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1895">
@@ -61849,10 +61747,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1896">
@@ -61879,10 +61775,8 @@
       </c>
       <c r="F1896" t="inlineStr"/>
       <c r="G1896" t="inlineStr"/>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1897">
@@ -61913,10 +61807,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1898">
@@ -61947,10 +61839,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1899">
@@ -61981,10 +61871,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1900">
@@ -62015,10 +61903,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1901">
@@ -62049,10 +61935,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -62083,10 +61967,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1903">
@@ -62117,10 +61999,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1904">
@@ -62147,10 +62027,8 @@
       </c>
       <c r="F1904" t="inlineStr"/>
       <c r="G1904" t="inlineStr"/>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1905">
@@ -62181,10 +62059,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1906">
@@ -62215,10 +62091,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1907">
@@ -62249,10 +62123,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -62283,10 +62155,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -62317,10 +62187,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62351,10 +62219,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62377,10 +62243,8 @@
       <c r="E1911" t="inlineStr"/>
       <c r="F1911" t="inlineStr"/>
       <c r="G1911" t="inlineStr"/>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62411,10 +62275,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1913">
@@ -62445,10 +62307,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1914">
@@ -62479,10 +62339,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1915">
@@ -62505,10 +62363,8 @@
       <c r="E1915" t="inlineStr"/>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1916">
@@ -62535,10 +62391,8 @@
       </c>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62569,10 +62423,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1918">
@@ -62603,10 +62455,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1919">
@@ -62637,10 +62487,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1920">
@@ -62671,10 +62519,8 @@
         </is>
       </c>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62701,10 +62547,8 @@
       </c>
       <c r="F1921" t="inlineStr"/>
       <c r="G1921" t="inlineStr"/>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62739,10 +62583,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1923">
@@ -62777,10 +62619,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1924">
@@ -62811,10 +62651,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1924" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1924" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1925">
@@ -62845,10 +62683,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1925" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1925" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1926">
@@ -62879,10 +62715,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1926" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1926" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1927">
@@ -62913,10 +62747,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1927" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1927" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1928">
@@ -62947,10 +62779,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1928" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1928" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1929">
@@ -62981,10 +62811,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1929" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1929" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1930">
@@ -63015,10 +62843,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1930" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1930" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1931">
@@ -63049,10 +62875,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1931" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1931" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1932">
@@ -63083,10 +62907,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1932" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1932" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1933">
@@ -63117,10 +62939,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1933" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1933" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1934">
@@ -63151,10 +62971,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1934" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1934" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1935">
@@ -63177,10 +62995,8 @@
       <c r="E1935" t="inlineStr"/>
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr"/>
-      <c r="H1935" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1935" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1936">
@@ -63211,10 +63027,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1936" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1936" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1937">
@@ -63245,10 +63059,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1937" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1937" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1938">
@@ -63271,10 +63083,8 @@
       <c r="E1938" t="inlineStr"/>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr"/>
-      <c r="H1938" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1938" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1939">
@@ -63297,10 +63107,8 @@
       <c r="E1939" t="inlineStr"/>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr"/>
-      <c r="H1939" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1939" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1940">
@@ -63323,10 +63131,8 @@
       <c r="E1940" t="inlineStr"/>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr"/>
-      <c r="H1940" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1940" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1941">
@@ -63349,10 +63155,8 @@
       <c r="E1941" t="inlineStr"/>
       <c r="F1941" t="inlineStr"/>
       <c r="G1941" t="inlineStr"/>
-      <c r="H1941" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1941" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1942">
@@ -63375,10 +63179,8 @@
       <c r="E1942" t="inlineStr"/>
       <c r="F1942" t="inlineStr"/>
       <c r="G1942" t="inlineStr"/>
-      <c r="H1942" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1942" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1943">
@@ -63401,10 +63203,8 @@
       </c>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr"/>
-      <c r="H1943" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1943" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1944">
@@ -63431,10 +63231,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1944" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1944" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1945">
@@ -63461,10 +63259,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1945" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1945" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1946">
@@ -63491,46 +63287,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1946" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1946" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1947" t="inlineStr"/>
-      <c r="C1947" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1947" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1947" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1947" t="inlineStr"/>
-      <c r="E1947" t="inlineStr"/>
+      <c r="E1947" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr"/>
-      <c r="H1947" t="inlineStr"/>
+      <c r="G1947" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H1947" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
-      <c r="E1948" t="inlineStr"/>
+      <c r="E1948" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr"/>
+      <c r="G1948" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1948" t="inlineStr">
         <is>
           <t>3</t>
@@ -63540,91 +63362,103 @@
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
       <c r="G1949" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1949" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr"/>
+      <c r="G1950" t="inlineStr">
+        <is>
+          <t>$-8.82B</t>
+        </is>
+      </c>
       <c r="H1950" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1951" t="inlineStr"/>
-      <c r="G1951" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F1951" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
+      <c r="G1951" t="inlineStr">
+        <is>
+          <t>$ 23.46B</t>
+        </is>
+      </c>
       <c r="H1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -63634,27 +63468,31 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
-      <c r="G1952" t="inlineStr"/>
+      <c r="G1952" t="inlineStr">
+        <is>
+          <t>$32.29B</t>
+        </is>
+      </c>
       <c r="H1952" t="inlineStr">
         <is>
           <t>3</t>
@@ -63664,27 +63502,31 @@
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr"/>
+      <c r="G1953" t="inlineStr">
+        <is>
+          <t>$ 23.5B</t>
+        </is>
+      </c>
       <c r="H1953" t="inlineStr">
         <is>
           <t>3</t>
@@ -63694,27 +63536,31 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>-2.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
-      <c r="G1954" t="inlineStr"/>
+      <c r="G1954" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="H1954" t="inlineStr">
         <is>
           <t>2</t>
@@ -63724,29 +63570,29 @@
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1955" t="inlineStr"/>
       <c r="G1955" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1955" t="inlineStr">
@@ -63758,131 +63604,131 @@
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1956" t="inlineStr"/>
       <c r="G1956" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1956" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1957" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1958" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H1959" t="inlineStr">
@@ -63894,29 +63740,29 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
       <c r="G1960" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1960" t="inlineStr">
@@ -63928,29 +63774,29 @@
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1961" t="inlineStr">
@@ -63962,29 +63808,29 @@
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
@@ -63996,29 +63842,29 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
       <c r="G1963" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1963" t="inlineStr">
@@ -64030,23 +63876,23 @@
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
@@ -64060,59 +63906,63 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
       <c r="E1965" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr"/>
+      <c r="G1965" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H1965" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1966" t="inlineStr">
@@ -64124,65 +63974,61 @@
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
       <c r="E1967" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1967" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1968" t="inlineStr"/>
       <c r="H1968" t="inlineStr">
         <is>
           <t>3</t>
@@ -64192,7 +64038,7 @@
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
@@ -64202,31 +64048,27 @@
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
       <c r="E1969" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1969" t="inlineStr"/>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
@@ -64236,31 +64078,27 @@
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
       <c r="E1970" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1970" t="inlineStr"/>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
@@ -64270,21 +64108,17 @@
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1971" t="inlineStr"/>
       <c r="H1971" t="inlineStr">
         <is>
           <t>3</t>
@@ -64294,7 +64128,7 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
@@ -64304,21 +64138,17 @@
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1972" t="inlineStr"/>
       <c r="H1972" t="inlineStr">
         <is>
           <t>3</t>
@@ -64328,69 +64158,57 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1973" t="inlineStr"/>
-      <c r="G1973" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1973" t="inlineStr"/>
       <c r="H1973" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1974" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1974" t="inlineStr"/>
+      <c r="G1974" t="inlineStr"/>
       <c r="H1974" t="inlineStr">
         <is>
           <t>3</t>
@@ -64400,31 +64218,27 @@
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1975" t="inlineStr"/>
       <c r="H1975" t="inlineStr">
         <is>
           <t>3</t>
@@ -64434,31 +64248,27 @@
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1976" t="inlineStr"/>
       <c r="H1976" t="inlineStr">
         <is>
           <t>3</t>
@@ -64468,165 +64278,153 @@
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1977" t="inlineStr"/>
-      <c r="G1977" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1977" t="inlineStr"/>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1978" t="inlineStr"/>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1979" t="inlineStr"/>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
@@ -64638,29 +64436,29 @@
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
@@ -64672,31 +64470,27 @@
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1983" t="inlineStr"/>
       <c r="H1983" t="inlineStr">
         <is>
           <t>3</t>
@@ -64706,29 +64500,29 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1984" t="inlineStr">
@@ -64740,29 +64534,29 @@
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1985" t="inlineStr">
@@ -64774,31 +64568,27 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
       <c r="E1986" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1986" t="inlineStr"/>
-      <c r="G1986" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1986" t="inlineStr"/>
       <c r="H1986" t="inlineStr">
         <is>
           <t>3</t>
@@ -64808,23 +64598,23 @@
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
       <c r="E1987" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1987" t="inlineStr"/>
@@ -64838,85 +64628,77 @@
     <row r="1988">
       <c r="A1988" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="E1988" t="inlineStr"/>
       <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G1988" t="inlineStr"/>
       <c r="H1988" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1989">
       <c r="A1989" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H1989" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1990">
       <c r="A1990" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
@@ -64928,7 +64710,7 @@
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H1990" t="inlineStr">
@@ -64940,37 +64722,41 @@
     <row r="1991">
       <c r="A1991" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
-      <c r="G1991" t="inlineStr"/>
+      <c r="G1991" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1992">
       <c r="A1992" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1992" t="inlineStr">
@@ -64980,7 +64766,7 @@
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
@@ -64990,17 +64776,21 @@
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
-      <c r="G1992" t="inlineStr"/>
+      <c r="G1992" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1993">
       <c r="A1993" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1993" t="inlineStr">
@@ -65010,7 +64800,7 @@
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
@@ -65020,17 +64810,21 @@
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
-      <c r="G1993" t="inlineStr"/>
+      <c r="G1993" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1994" t="inlineStr">
@@ -65040,17 +64834,21 @@
       </c>
       <c r="C1994" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1994" t="inlineStr"/>
       <c r="E1994" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr"/>
+      <c r="G1994" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1994" t="inlineStr">
         <is>
           <t>3</t>
@@ -65060,7 +64858,7 @@
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
@@ -65070,17 +64868,21 @@
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr"/>
+      <c r="G1995" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1995" t="inlineStr">
         <is>
           <t>3</t>
@@ -65090,339 +64892,375 @@
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1996" t="inlineStr"/>
-      <c r="G1996" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1996" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1996" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1996" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr"/>
+      <c r="G1997" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1997" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1998" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1998" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1998" t="inlineStr"/>
       <c r="E1998" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr"/>
+      <c r="G1998" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1998" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1999" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1999" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1999" t="inlineStr"/>
       <c r="E1999" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1999" t="inlineStr"/>
-      <c r="G1999" t="inlineStr"/>
+      <c r="G1999" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1999" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2000">
       <c r="A2000" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2000" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2000" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D2000" t="inlineStr"/>
       <c r="E2000" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F2000" t="inlineStr"/>
-      <c r="G2000" t="inlineStr"/>
+      <c r="G2000" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H2000" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="2001">
       <c r="A2001" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2001" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2001" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D2001" t="inlineStr"/>
       <c r="E2001" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr"/>
+      <c r="G2001" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2001" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2002">
       <c r="A2002" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D2002" t="inlineStr"/>
       <c r="E2002" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr"/>
+      <c r="G2002" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H2002" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2003">
       <c r="A2003" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D2003" t="inlineStr"/>
       <c r="E2003" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F2003" t="inlineStr"/>
       <c r="G2003" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H2003" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2004">
       <c r="A2004" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2004" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2004" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D2004" t="inlineStr"/>
       <c r="E2004" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F2004" t="inlineStr"/>
       <c r="G2004" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H2004" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2005">
       <c r="A2005" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2005" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2005" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2005" t="inlineStr"/>
       <c r="E2005" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F2005" t="inlineStr"/>
       <c r="G2005" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H2005" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2006">
       <c r="A2006" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B2006" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2006" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D2006" t="inlineStr"/>
       <c r="E2006" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr"/>
+      <c r="G2006" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H2006" t="inlineStr">
         <is>
           <t>3</t>
@@ -65432,63 +65270,63 @@
     <row r="2007">
       <c r="A2007" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B2007" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2007" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D2007" t="inlineStr"/>
       <c r="E2007" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F2007" t="inlineStr"/>
       <c r="G2007" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H2007" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2008">
       <c r="A2008" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B2008" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C2008" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D2008" t="inlineStr"/>
       <c r="E2008" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F2008" t="inlineStr"/>
       <c r="G2008" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H2008" t="inlineStr">
@@ -65500,25 +65338,21 @@
     <row r="2009">
       <c r="A2009" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E2009" t="inlineStr"/>
       <c r="F2009" t="inlineStr"/>
       <c r="G2009" t="inlineStr"/>
       <c r="H2009" t="inlineStr">
@@ -65530,25 +65364,21 @@
     <row r="2010">
       <c r="A2010" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E2010" t="inlineStr"/>
       <c r="F2010" t="inlineStr"/>
       <c r="G2010" t="inlineStr"/>
       <c r="H2010" t="inlineStr">
@@ -65558,25 +65388,29 @@
       </c>
     </row>
     <row r="2011">
-      <c r="A2011" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2011" t="inlineStr"/>
       <c r="B2011" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C2011" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr"/>
+      <c r="E2011" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr"/>
+      <c r="G2011" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H2011" t="inlineStr">
         <is>
           <t>3</t>
@@ -65584,33 +65418,25 @@
       </c>
     </row>
     <row r="2012">
-      <c r="A2012" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A2012" t="inlineStr"/>
       <c r="B2012" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C2012" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D2012" t="inlineStr"/>
       <c r="E2012" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
+      <c r="G2012" t="inlineStr"/>
       <c r="H2012" t="inlineStr">
         <is>
           <t>3</t>
@@ -65618,982 +65444,224 @@
       </c>
     </row>
     <row r="2013">
-      <c r="A2013" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2013" t="inlineStr"/>
       <c r="B2013" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C2013" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2013" t="inlineStr"/>
       <c r="E2013" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F2013" t="inlineStr"/>
       <c r="G2013" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H2013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2014">
-      <c r="A2014" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A2014" t="inlineStr"/>
       <c r="B2014" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C2014" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D2014" t="inlineStr"/>
       <c r="E2014" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F2014" t="inlineStr"/>
       <c r="G2014" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H2014" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2015">
-      <c r="A2015" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2015" t="inlineStr"/>
       <c r="B2015" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C2015" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D2015" t="inlineStr"/>
       <c r="E2015" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F2015" t="inlineStr"/>
       <c r="G2015" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H2015" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2016">
-      <c r="A2016" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A2016" t="inlineStr"/>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D2016" t="inlineStr"/>
       <c r="E2016" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F2016" t="inlineStr"/>
       <c r="G2016" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H2016" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2017">
       <c r="A2017" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C2017" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B2017" t="inlineStr"/>
+      <c r="C2017" t="inlineStr"/>
       <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E2017" t="inlineStr"/>
       <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2017" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G2017" t="inlineStr"/>
+      <c r="H2017" t="inlineStr"/>
     </row>
     <row r="2018">
       <c r="A2018" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2018" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2018" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D2018" t="inlineStr"/>
       <c r="E2018" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G2018" t="inlineStr"/>
       <c r="H2018" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2019">
       <c r="A2019" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2019" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2019" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D2019" t="inlineStr"/>
       <c r="E2019" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G2019" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F2019" t="inlineStr"/>
+      <c r="G2019" t="inlineStr"/>
       <c r="H2019" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B2020" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C2020" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D2020" t="inlineStr"/>
       <c r="E2020" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G2020" t="inlineStr"/>
       <c r="H2020" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2021">
-      <c r="A2021" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2021" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2021" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2021" t="inlineStr"/>
-      <c r="E2021" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2021" t="inlineStr"/>
-      <c r="G2021" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H2021" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2022">
-      <c r="A2022" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2022" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2022" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2022" t="inlineStr"/>
-      <c r="E2022" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F2022" t="inlineStr"/>
-      <c r="G2022" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2022" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2023">
-      <c r="A2023" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2023" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2023" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2023" t="inlineStr"/>
-      <c r="E2023" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2023" t="inlineStr"/>
-      <c r="G2023" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2023" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2024">
-      <c r="A2024" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2024" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2024" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2024" t="inlineStr"/>
-      <c r="E2024" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2024" t="inlineStr"/>
-      <c r="G2024" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2024" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2025">
-      <c r="A2025" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2025" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2025" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2025" t="inlineStr"/>
-      <c r="E2025" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2025" t="inlineStr"/>
-      <c r="G2025" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2026">
-      <c r="A2026" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2026" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2026" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2026" t="inlineStr"/>
-      <c r="E2026" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2026" t="inlineStr"/>
-      <c r="G2026" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2026" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2027">
-      <c r="A2027" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2027" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2027" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2027" t="inlineStr"/>
-      <c r="E2027" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2027" t="inlineStr"/>
-      <c r="G2027" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2027" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2028">
-      <c r="A2028" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2028" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2028" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2028" t="inlineStr"/>
-      <c r="E2028" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2028" t="inlineStr"/>
-      <c r="G2028" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2028" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2029">
-      <c r="A2029" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2029" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2029" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2029" t="inlineStr"/>
-      <c r="E2029" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2029" t="inlineStr"/>
-      <c r="G2029" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2030">
-      <c r="A2030" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2030" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2030" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2030" t="inlineStr"/>
-      <c r="E2030" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2030" t="inlineStr"/>
-      <c r="G2030" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2030" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2031" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2031" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2031" t="inlineStr"/>
-      <c r="E2031" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2031" t="inlineStr"/>
-      <c r="G2031" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2032" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2032" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2032" t="inlineStr"/>
-      <c r="E2032" t="inlineStr"/>
-      <c r="F2032" t="inlineStr"/>
-      <c r="G2032" t="inlineStr"/>
-      <c r="H2032" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2033">
-      <c r="A2033" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2033" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2033" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2033" t="inlineStr"/>
-      <c r="E2033" t="inlineStr"/>
-      <c r="F2033" t="inlineStr"/>
-      <c r="G2033" t="inlineStr"/>
-      <c r="H2033" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2034">
-      <c r="A2034" t="inlineStr"/>
-      <c r="B2034" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2034" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2034" t="inlineStr"/>
-      <c r="E2034" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2034" t="inlineStr"/>
-      <c r="G2034" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2035">
-      <c r="A2035" t="inlineStr"/>
-      <c r="B2035" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2035" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2035" t="inlineStr"/>
-      <c r="E2035" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2035" t="inlineStr"/>
-      <c r="G2035" t="inlineStr"/>
-      <c r="H2035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2036">
-      <c r="A2036" t="inlineStr"/>
-      <c r="B2036" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2036" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2036" t="inlineStr"/>
-      <c r="E2036" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2036" t="inlineStr"/>
-      <c r="G2036" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2037">
-      <c r="A2037" t="inlineStr"/>
-      <c r="B2037" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2037" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2037" t="inlineStr"/>
-      <c r="E2037" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2037" t="inlineStr"/>
-      <c r="G2037" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2037" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2038">
-      <c r="A2038" t="inlineStr"/>
-      <c r="B2038" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2038" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2038" t="inlineStr"/>
-      <c r="E2038" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2038" t="inlineStr"/>
-      <c r="G2038" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2039">
-      <c r="A2039" t="inlineStr"/>
-      <c r="B2039" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2039" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2039" t="inlineStr"/>
-      <c r="E2039" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2039" t="inlineStr"/>
-      <c r="G2039" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2040">
-      <c r="A2040" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2040" t="inlineStr"/>
-      <c r="C2040" t="inlineStr"/>
-      <c r="D2040" t="inlineStr"/>
-      <c r="E2040" t="inlineStr"/>
-      <c r="F2040" t="inlineStr"/>
-      <c r="G2040" t="inlineStr"/>
-      <c r="H2040" t="inlineStr"/>
-    </row>
-    <row r="2041">
-      <c r="A2041" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2041" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2041" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2041" t="inlineStr"/>
-      <c r="E2041" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2041" t="inlineStr"/>
-      <c r="G2041" t="inlineStr"/>
-      <c r="H2041" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2042" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2042" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2042" t="inlineStr"/>
-      <c r="E2042" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2042" t="inlineStr"/>
-      <c r="G2042" t="inlineStr"/>
-      <c r="H2042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2043" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2043" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2043" t="inlineStr"/>
-      <c r="E2043" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2043" t="inlineStr"/>
-      <c r="G2043" t="inlineStr"/>
-      <c r="H2043" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
+++ b/Input_data/IST_All Countries_trad_eco_cal_2024-12-28_to_2025-02-01.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2020"/>
+  <dimension ref="A1:H1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60925,10 +60925,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1868" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1868" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1869">
@@ -60959,10 +60957,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H1869" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1869" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1870">
@@ -60993,10 +60989,8 @@
           <t>0.6%</t>
         </is>
       </c>
-      <c r="H1870" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1870" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1871">
@@ -61027,10 +61021,8 @@
           <t>6.00%</t>
         </is>
       </c>
-      <c r="H1871" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1871" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1872">
@@ -61061,10 +61053,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H1872" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1872" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1873">
@@ -61091,10 +61081,8 @@
       </c>
       <c r="F1873" t="inlineStr"/>
       <c r="G1873" t="inlineStr"/>
-      <c r="H1873" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1873" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1874">
@@ -61125,10 +61113,8 @@
           <t>£ 1.3B</t>
         </is>
       </c>
-      <c r="H1874" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1874" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1875">
@@ -61159,10 +61145,8 @@
           <t>61.5K</t>
         </is>
       </c>
-      <c r="H1875" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1875" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1876">
@@ -61193,10 +61177,8 @@
           <t>£ 2.2B</t>
         </is>
       </c>
-      <c r="H1876" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1876" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1877">
@@ -61227,10 +61209,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H1877" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1877" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1878">
@@ -61261,10 +61241,8 @@
           <t>£ 3.5B</t>
         </is>
       </c>
-      <c r="H1878" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1878" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1879">
@@ -61295,10 +61273,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1879" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1879" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1880">
@@ -61329,10 +61305,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H1880" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1880" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1881">
@@ -61359,10 +61333,8 @@
       </c>
       <c r="F1881" t="inlineStr"/>
       <c r="G1881" t="inlineStr"/>
-      <c r="H1881" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1881" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1882">
@@ -61393,10 +61365,8 @@
           <t>93.5</t>
         </is>
       </c>
-      <c r="H1882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1882" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1883">
@@ -61427,10 +61397,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1883" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1884">
@@ -61461,10 +61429,8 @@
           <t>22</t>
         </is>
       </c>
-      <c r="H1884" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1884" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1885">
@@ -61495,10 +61461,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H1885" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1885" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1886">
@@ -61529,10 +61493,8 @@
           <t>8</t>
         </is>
       </c>
-      <c r="H1886" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1886" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1887">
@@ -61563,10 +61525,8 @@
           <t>6</t>
         </is>
       </c>
-      <c r="H1887" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1887" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1888">
@@ -61589,10 +61549,8 @@
       <c r="E1888" t="inlineStr"/>
       <c r="F1888" t="inlineStr"/>
       <c r="G1888" t="inlineStr"/>
-      <c r="H1888" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1888" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1889">
@@ -61623,10 +61581,8 @@
           <t>0.9%</t>
         </is>
       </c>
-      <c r="H1889" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1889" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1890">
@@ -61657,10 +61613,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H1890" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1890" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1891">
@@ -61691,10 +61645,8 @@
           <t>-5.1%</t>
         </is>
       </c>
-      <c r="H1891" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1891" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1892">
@@ -61717,10 +61669,8 @@
       <c r="E1892" t="inlineStr"/>
       <c r="F1892" t="inlineStr"/>
       <c r="G1892" t="inlineStr"/>
-      <c r="H1892" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1892" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1893">
@@ -61747,10 +61697,8 @@
       </c>
       <c r="F1893" t="inlineStr"/>
       <c r="G1893" t="inlineStr"/>
-      <c r="H1893" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1893" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1894">
@@ -61781,10 +61729,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H1894" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1894" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1895">
@@ -61815,10 +61761,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="H1895" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1895" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1896">
@@ -61849,10 +61793,8 @@
           <t>-5</t>
         </is>
       </c>
-      <c r="H1896" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1896" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1897">
@@ -61883,10 +61825,8 @@
         </is>
       </c>
       <c r="G1897" t="inlineStr"/>
-      <c r="H1897" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1897" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1898">
@@ -61913,10 +61853,8 @@
       </c>
       <c r="F1898" t="inlineStr"/>
       <c r="G1898" t="inlineStr"/>
-      <c r="H1898" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1898" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1899">
@@ -61951,10 +61889,8 @@
           <t>2.75%</t>
         </is>
       </c>
-      <c r="H1899" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1899" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1900">
@@ -61989,10 +61925,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1900" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1900" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1901">
@@ -62023,10 +61957,8 @@
           <t>3.15%</t>
         </is>
       </c>
-      <c r="H1901" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1901" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1902">
@@ -62057,10 +61989,8 @@
           <t>5.0%</t>
         </is>
       </c>
-      <c r="H1902" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1902" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1903">
@@ -62091,10 +62021,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="H1903" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1903" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1904">
@@ -62125,10 +62053,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H1904" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1904" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1905">
@@ -62159,10 +62085,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="H1905" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1905" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1906">
@@ -62193,10 +62117,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="H1906" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1906" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1907">
@@ -62227,10 +62149,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="H1907" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1907" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1908">
@@ -62261,10 +62181,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1908" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1908" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1909">
@@ -62295,10 +62213,8 @@
           <t>214.0K</t>
         </is>
       </c>
-      <c r="H1909" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1909" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1910">
@@ -62329,10 +62245,8 @@
           <t>1.1%</t>
         </is>
       </c>
-      <c r="H1910" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1910" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1911">
@@ -62363,10 +62277,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="H1911" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1911" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1912">
@@ -62389,10 +62301,8 @@
       <c r="E1912" t="inlineStr"/>
       <c r="F1912" t="inlineStr"/>
       <c r="G1912" t="inlineStr"/>
-      <c r="H1912" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H1912" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1913">
@@ -62423,10 +62333,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H1913" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1913" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1914">
@@ -62457,10 +62365,8 @@
           <t>4.0%</t>
         </is>
       </c>
-      <c r="H1914" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H1914" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1915">
@@ -62487,10 +62393,8 @@
       </c>
       <c r="F1915" t="inlineStr"/>
       <c r="G1915" t="inlineStr"/>
-      <c r="H1915" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1915" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1916">
@@ -62517,10 +62421,8 @@
       </c>
       <c r="F1916" t="inlineStr"/>
       <c r="G1916" t="inlineStr"/>
-      <c r="H1916" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1916" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1917">
@@ -62543,10 +62445,8 @@
       <c r="E1917" t="inlineStr"/>
       <c r="F1917" t="inlineStr"/>
       <c r="G1917" t="inlineStr"/>
-      <c r="H1917" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1917" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1918">
@@ -62569,10 +62469,8 @@
       <c r="E1918" t="inlineStr"/>
       <c r="F1918" t="inlineStr"/>
       <c r="G1918" t="inlineStr"/>
-      <c r="H1918" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1918" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1919">
@@ -62595,10 +62493,8 @@
       <c r="E1919" t="inlineStr"/>
       <c r="F1919" t="inlineStr"/>
       <c r="G1919" t="inlineStr"/>
-      <c r="H1919" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1919" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1920">
@@ -62621,10 +62517,8 @@
       </c>
       <c r="F1920" t="inlineStr"/>
       <c r="G1920" t="inlineStr"/>
-      <c r="H1920" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1920" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1921">
@@ -62651,10 +62545,8 @@
           <t>10.6%</t>
         </is>
       </c>
-      <c r="H1921" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1921" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1922">
@@ -62681,10 +62573,8 @@
           <t>12.8%</t>
         </is>
       </c>
-      <c r="H1922" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1922" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1923">
@@ -62711,46 +62601,72 @@
           <t>90.0K</t>
         </is>
       </c>
-      <c r="H1923" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H1923" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1924">
       <c r="A1924" t="inlineStr">
         <is>
-          <t>Friday January 31 2025</t>
-        </is>
-      </c>
-      <c r="B1924" t="inlineStr"/>
-      <c r="C1924" t="inlineStr"/>
+          <t>12:30 PM</t>
+        </is>
+      </c>
+      <c r="B1924" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="C1924" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="D1924" t="inlineStr"/>
-      <c r="E1924" t="inlineStr"/>
+      <c r="E1924" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F1924" t="inlineStr"/>
-      <c r="G1924" t="inlineStr"/>
-      <c r="H1924" t="inlineStr"/>
+      <c r="G1924" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="H1924" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1925">
       <c r="A1925" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/29</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="D1925" t="inlineStr"/>
-      <c r="E1925" t="inlineStr"/>
+      <c r="E1925" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1925" t="inlineStr"/>
-      <c r="G1925" t="inlineStr"/>
+      <c r="G1925" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1925" t="inlineStr">
         <is>
           <t>3</t>
@@ -62760,97 +62676,101 @@
     <row r="1926">
       <c r="A1926" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D1926" t="inlineStr"/>
       <c r="E1926" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="F1926" t="inlineStr"/>
       <c r="G1926" t="inlineStr">
         <is>
-          <t>2.50%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="H1926" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1927">
       <c r="A1927" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1927" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1927" t="inlineStr">
         <is>
-          <t>Jobs/applications ratioDEC</t>
+          <t>Balance of Trade FinalDEC</t>
         </is>
       </c>
       <c r="D1927" t="inlineStr"/>
       <c r="E1927" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-7.46B</t>
         </is>
       </c>
       <c r="F1927" t="inlineStr"/>
       <c r="G1927" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>$-8.82B</t>
         </is>
       </c>
       <c r="H1927" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1928">
       <c r="A1928" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1928" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1928" t="inlineStr">
         <is>
-          <t>Tokyo Core CPI YoYJAN</t>
+          <t>Exports FinalDEC</t>
         </is>
       </c>
       <c r="D1928" t="inlineStr"/>
       <c r="E1928" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1928" t="inlineStr"/>
+          <t>$22.29B</t>
+        </is>
+      </c>
+      <c r="F1928" t="inlineStr">
+        <is>
+          <t>$23.46B</t>
+        </is>
+      </c>
       <c r="G1928" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>$ 23.46B</t>
         </is>
       </c>
       <c r="H1928" t="inlineStr">
@@ -62862,29 +62782,29 @@
     <row r="1929">
       <c r="A1929" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1929" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1929" t="inlineStr">
         <is>
-          <t>Tokyo CPI Ex Food and Energy YoYJAN</t>
+          <t>Imports FinalDEC</t>
         </is>
       </c>
       <c r="D1929" t="inlineStr"/>
       <c r="E1929" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>$29.75B</t>
         </is>
       </c>
       <c r="F1929" t="inlineStr"/>
       <c r="G1929" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>$32.29B</t>
         </is>
       </c>
       <c r="H1929" t="inlineStr">
@@ -62896,29 +62816,29 @@
     <row r="1930">
       <c r="A1930" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1930" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1930" t="inlineStr">
         <is>
-          <t>Tokyo CPI YoYJAN</t>
+          <t>Tourism RevenuesQ4</t>
         </is>
       </c>
       <c r="D1930" t="inlineStr"/>
       <c r="E1930" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$23.22B</t>
         </is>
       </c>
       <c r="F1930" t="inlineStr"/>
       <c r="G1930" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>$ 23.5B</t>
         </is>
       </c>
       <c r="H1930" t="inlineStr">
@@ -62930,29 +62850,29 @@
     <row r="1931">
       <c r="A1931" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
         <is>
-          <t>Industrial Production MoM PrelDEC</t>
+          <t>Nationwide Housing Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1931" t="inlineStr"/>
       <c r="E1931" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1931" t="inlineStr"/>
       <c r="G1931" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="H1931" t="inlineStr">
@@ -62964,29 +62884,29 @@
     <row r="1932">
       <c r="A1932" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Nationwide Housing Prices YoYJAN</t>
         </is>
       </c>
       <c r="D1932" t="inlineStr"/>
       <c r="E1932" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="F1932" t="inlineStr"/>
       <c r="G1932" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="H1932" t="inlineStr">
@@ -62998,131 +62918,131 @@
     <row r="1933">
       <c r="A1933" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
         <is>
-          <t>Industrial Production YoY PrelDEC</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1933" t="inlineStr"/>
       <c r="E1933" t="inlineStr">
         <is>
-          <t>-2.8%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F1933" t="inlineStr"/>
       <c r="G1933" t="inlineStr">
         <is>
-          <t>-1.6%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="H1933" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1934">
       <c r="A1934" t="inlineStr">
         <is>
-          <t>05:20 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1934" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1934" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1934" t="inlineStr"/>
       <c r="E1934" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1934" t="inlineStr"/>
       <c r="G1934" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1934" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1935">
       <c r="A1935" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1935" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1935" t="inlineStr">
         <is>
-          <t>PPI QoQQ4</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1935" t="inlineStr"/>
       <c r="E1935" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F1935" t="inlineStr"/>
       <c r="G1935" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H1935" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1936">
       <c r="A1936" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1936" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1936" t="inlineStr">
         <is>
-          <t>Housing Credit MoMDEC</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1936" t="inlineStr"/>
       <c r="E1936" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="F1936" t="inlineStr"/>
       <c r="G1936" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H1936" t="inlineStr">
@@ -63134,29 +63054,29 @@
     <row r="1937">
       <c r="A1937" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1937" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1937" t="inlineStr">
         <is>
-          <t>PPI YoYQ4</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1937" t="inlineStr"/>
       <c r="E1937" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1937" t="inlineStr"/>
       <c r="G1937" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1937" t="inlineStr">
@@ -63168,29 +63088,29 @@
     <row r="1938">
       <c r="A1938" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:15 PM</t>
         </is>
       </c>
       <c r="B1938" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1938" t="inlineStr">
         <is>
-          <t>Private Sector Credit MoMDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1938" t="inlineStr"/>
       <c r="E1938" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F1938" t="inlineStr"/>
       <c r="G1938" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-4.3%</t>
         </is>
       </c>
       <c r="H1938" t="inlineStr">
@@ -63202,29 +63122,29 @@
     <row r="1939">
       <c r="A1939" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
         <is>
-          <t>Private Sector Credit YoYDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="D1939" t="inlineStr"/>
       <c r="E1939" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F1939" t="inlineStr"/>
       <c r="G1939" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1939" t="inlineStr">
@@ -63236,29 +63156,29 @@
     <row r="1940">
       <c r="A1940" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
         <is>
-          <t>Bank LendingDEC</t>
+          <t>Retail Sales YoYDEC</t>
         </is>
       </c>
       <c r="D1940" t="inlineStr"/>
       <c r="E1940" t="inlineStr">
         <is>
-          <t>S$819.4B</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="F1940" t="inlineStr"/>
       <c r="G1940" t="inlineStr">
         <is>
-          <t>S$ 818.2B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1940" t="inlineStr">
@@ -63270,23 +63190,23 @@
     <row r="1941">
       <c r="A1941" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>01:30 PM</t>
         </is>
       </c>
       <c r="B1941" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C1941" t="inlineStr">
         <is>
-          <t>2-Year JGB Auction</t>
+          <t>Tourist Arrivals YoYDEC</t>
         </is>
       </c>
       <c r="D1941" t="inlineStr"/>
       <c r="E1941" t="inlineStr">
         <is>
-          <t>0.602%</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="F1941" t="inlineStr"/>
@@ -63300,59 +63220,63 @@
     <row r="1942">
       <c r="A1942" t="inlineStr">
         <is>
-          <t>09:05 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1942" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1942" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Unemployment ChangeJAN</t>
         </is>
       </c>
       <c r="D1942" t="inlineStr"/>
       <c r="E1942" t="inlineStr">
         <is>
-          <t>0.3657%</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="F1942" t="inlineStr"/>
-      <c r="G1942" t="inlineStr"/>
+      <c r="G1942" t="inlineStr">
+        <is>
+          <t>7.0K</t>
+        </is>
+      </c>
       <c r="H1942" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1943">
       <c r="A1943" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1943" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1943" t="inlineStr">
         <is>
-          <t>Housing Starts YoYDEC</t>
+          <t>Unemployed PersonsJAN</t>
         </is>
       </c>
       <c r="D1943" t="inlineStr"/>
       <c r="E1943" t="inlineStr">
         <is>
-          <t>-1.8%</t>
+          <t>2.869M</t>
         </is>
       </c>
       <c r="F1943" t="inlineStr"/>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.876M</t>
         </is>
       </c>
       <c r="H1943" t="inlineStr">
@@ -63364,65 +63288,61 @@
     <row r="1944">
       <c r="A1944" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:25 PM</t>
         </is>
       </c>
       <c r="B1944" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1944" t="inlineStr">
         <is>
-          <t>Construction Orders YoYDEC</t>
+          <t>Unemployment RateJAN</t>
         </is>
       </c>
       <c r="D1944" t="inlineStr"/>
       <c r="E1944" t="inlineStr">
         <is>
-          <t>-10.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="F1944" t="inlineStr"/>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>6.2%</t>
         </is>
       </c>
       <c r="H1944" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1945" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1945" t="inlineStr">
         <is>
-          <t>Business ConfidenceQ4</t>
+          <t>Baden Wuerttemberg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1945" t="inlineStr"/>
       <c r="E1945" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1945" t="inlineStr"/>
-      <c r="G1945" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+      <c r="G1945" t="inlineStr"/>
       <c r="H1945" t="inlineStr">
         <is>
           <t>3</t>
@@ -63432,7 +63352,7 @@
     <row r="1946">
       <c r="A1946" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1946" t="inlineStr">
@@ -63442,31 +63362,27 @@
       </c>
       <c r="C1946" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Baden Wuerttemberg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1946" t="inlineStr"/>
       <c r="E1946" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F1946" t="inlineStr"/>
-      <c r="G1946" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1946" t="inlineStr"/>
       <c r="H1946" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1947" t="inlineStr">
@@ -63476,31 +63392,27 @@
       </c>
       <c r="C1947" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bavaria CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1947" t="inlineStr"/>
       <c r="E1947" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1947" t="inlineStr"/>
-      <c r="G1947" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="G1947" t="inlineStr"/>
       <c r="H1947" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1948" t="inlineStr">
@@ -63510,21 +63422,17 @@
       </c>
       <c r="C1948" t="inlineStr">
         <is>
-          <t>Import Prices MoMDEC</t>
+          <t>Bavaria CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1948" t="inlineStr"/>
       <c r="E1948" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F1948" t="inlineStr"/>
-      <c r="G1948" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1948" t="inlineStr"/>
       <c r="H1948" t="inlineStr">
         <is>
           <t>3</t>
@@ -63534,7 +63442,7 @@
     <row r="1949">
       <c r="A1949" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1949" t="inlineStr">
@@ -63544,21 +63452,17 @@
       </c>
       <c r="C1949" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Brandenburg CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1949" t="inlineStr"/>
       <c r="E1949" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1949" t="inlineStr"/>
-      <c r="G1949" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="G1949" t="inlineStr"/>
       <c r="H1949" t="inlineStr">
         <is>
           <t>3</t>
@@ -63568,69 +63472,57 @@
     <row r="1950">
       <c r="A1950" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1950" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1950" t="inlineStr">
         <is>
-          <t>Balance of Trade FinalDEC</t>
+          <t>Brandenburg CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1950" t="inlineStr"/>
       <c r="E1950" t="inlineStr">
         <is>
-          <t>$-7.46B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1950" t="inlineStr"/>
-      <c r="G1950" t="inlineStr">
-        <is>
-          <t>$-8.82B</t>
-        </is>
-      </c>
+      <c r="G1950" t="inlineStr"/>
       <c r="H1950" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1951">
       <c r="A1951" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1951" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1951" t="inlineStr">
         <is>
-          <t>Exports FinalDEC</t>
+          <t>Hesse CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1951" t="inlineStr"/>
       <c r="E1951" t="inlineStr">
         <is>
-          <t>$22.29B</t>
-        </is>
-      </c>
-      <c r="F1951" t="inlineStr">
-        <is>
-          <t>$23.46B</t>
-        </is>
-      </c>
-      <c r="G1951" t="inlineStr">
-        <is>
-          <t>$ 23.46B</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1951" t="inlineStr"/>
+      <c r="G1951" t="inlineStr"/>
       <c r="H1951" t="inlineStr">
         <is>
           <t>3</t>
@@ -63640,31 +63532,27 @@
     <row r="1952">
       <c r="A1952" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1952" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1952" t="inlineStr">
         <is>
-          <t>Imports FinalDEC</t>
+          <t>Hesse CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1952" t="inlineStr"/>
       <c r="E1952" t="inlineStr">
         <is>
-          <t>$29.75B</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1952" t="inlineStr"/>
-      <c r="G1952" t="inlineStr">
-        <is>
-          <t>$32.29B</t>
-        </is>
-      </c>
+      <c r="G1952" t="inlineStr"/>
       <c r="H1952" t="inlineStr">
         <is>
           <t>3</t>
@@ -63674,31 +63562,27 @@
     <row r="1953">
       <c r="A1953" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
         <is>
-          <t>Tourism RevenuesQ4</t>
+          <t>North Rhine Westphalia CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1953" t="inlineStr"/>
       <c r="E1953" t="inlineStr">
         <is>
-          <t>$23.22B</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1953" t="inlineStr"/>
-      <c r="G1953" t="inlineStr">
-        <is>
-          <t>$ 23.5B</t>
-        </is>
-      </c>
+      <c r="G1953" t="inlineStr"/>
       <c r="H1953" t="inlineStr">
         <is>
           <t>3</t>
@@ -63708,165 +63592,153 @@
     <row r="1954">
       <c r="A1954" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices MoMJAN</t>
+          <t>North Rhine Westphalia CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1954" t="inlineStr"/>
       <c r="E1954" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F1954" t="inlineStr"/>
-      <c r="G1954" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="G1954" t="inlineStr"/>
       <c r="H1954" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1955" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1955" t="inlineStr">
         <is>
-          <t>Nationwide Housing Prices YoYJAN</t>
+          <t>Saxony CPI MoMJAN</t>
         </is>
       </c>
       <c r="D1955" t="inlineStr"/>
       <c r="E1955" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F1955" t="inlineStr"/>
-      <c r="G1955" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="G1955" t="inlineStr"/>
       <c r="H1955" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1956" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>Saxony CPI YoYJAN</t>
         </is>
       </c>
       <c r="D1956" t="inlineStr"/>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F1956" t="inlineStr"/>
-      <c r="G1956" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
+      <c r="G1956" t="inlineStr"/>
       <c r="H1956" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>02:30 PM</t>
         </is>
       </c>
       <c r="B1957" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D1957" t="inlineStr"/>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€4.9B</t>
         </is>
       </c>
       <c r="F1957" t="inlineStr"/>
       <c r="G1957" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€5.0B</t>
         </is>
       </c>
       <c r="H1957" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1958">
       <c r="A1958" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1958" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D1958" t="inlineStr"/>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="F1958" t="inlineStr"/>
       <c r="G1958" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="H1958" t="inlineStr">
@@ -63878,29 +63750,29 @@
     <row r="1959">
       <c r="A1959" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1959" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D1959" t="inlineStr"/>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="F1959" t="inlineStr"/>
       <c r="G1959" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H1959" t="inlineStr">
@@ -63912,31 +63784,27 @@
     <row r="1960">
       <c r="A1960" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Government Budget ValueDEC</t>
         </is>
       </c>
       <c r="D1960" t="inlineStr"/>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>INR-8465.9B</t>
         </is>
       </c>
       <c r="F1960" t="inlineStr"/>
-      <c r="G1960" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1960" t="inlineStr"/>
       <c r="H1960" t="inlineStr">
         <is>
           <t>3</t>
@@ -63946,29 +63814,29 @@
     <row r="1961">
       <c r="A1961" t="inlineStr">
         <is>
-          <t>01:15 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Gross Debt to GDPDEC</t>
         </is>
       </c>
       <c r="D1961" t="inlineStr"/>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>77.7%</t>
         </is>
       </c>
       <c r="F1961" t="inlineStr"/>
       <c r="G1961" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>77.9%</t>
         </is>
       </c>
       <c r="H1961" t="inlineStr">
@@ -63980,29 +63848,29 @@
     <row r="1962">
       <c r="A1962" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1962" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1962" t="inlineStr">
         <is>
-          <t>Retail Sales MoMDEC</t>
+          <t>Nominal Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D1962" t="inlineStr"/>
       <c r="E1962" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>BRL-99.1B</t>
         </is>
       </c>
       <c r="F1962" t="inlineStr"/>
       <c r="G1962" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>BRL-103.0B</t>
         </is>
       </c>
       <c r="H1962" t="inlineStr">
@@ -64014,31 +63882,27 @@
     <row r="1963">
       <c r="A1963" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1963" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1963" t="inlineStr">
         <is>
-          <t>Retail Sales YoYDEC</t>
+          <t>Bank Loan Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1963" t="inlineStr"/>
       <c r="E1963" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="F1963" t="inlineStr"/>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="G1963" t="inlineStr"/>
       <c r="H1963" t="inlineStr">
         <is>
           <t>3</t>
@@ -64048,23 +63912,23 @@
     <row r="1964">
       <c r="A1964" t="inlineStr">
         <is>
-          <t>01:30 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1964" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1964" t="inlineStr">
         <is>
-          <t>Tourist Arrivals YoYDEC</t>
+          <t>Deposit Growth YoYJAN/17</t>
         </is>
       </c>
       <c r="D1964" t="inlineStr"/>
       <c r="E1964" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>9.8%</t>
         </is>
       </c>
       <c r="F1964" t="inlineStr"/>
@@ -64078,85 +63942,77 @@
     <row r="1965">
       <c r="A1965" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1965" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1965" t="inlineStr">
         <is>
-          <t>Unemployment ChangeJAN</t>
+          <t>Foreign Exchange ReservesJAN/24</t>
         </is>
       </c>
       <c r="D1965" t="inlineStr"/>
-      <c r="E1965" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="E1965" t="inlineStr"/>
       <c r="F1965" t="inlineStr"/>
-      <c r="G1965" t="inlineStr">
-        <is>
-          <t>7.0K</t>
-        </is>
-      </c>
+      <c r="G1965" t="inlineStr"/>
       <c r="H1965" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1966">
       <c r="A1966" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:00 PM</t>
         </is>
       </c>
       <c r="B1966" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C1966" t="inlineStr">
         <is>
-          <t>Unemployed PersonsJAN</t>
+          <t>Infrastructure Output YoYDEC</t>
         </is>
       </c>
       <c r="D1966" t="inlineStr"/>
       <c r="E1966" t="inlineStr">
         <is>
-          <t>2.869M</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F1966" t="inlineStr"/>
       <c r="G1966" t="inlineStr">
         <is>
-          <t>2.876M</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="H1966" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1967">
       <c r="A1967" t="inlineStr">
         <is>
-          <t>02:25 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D1967" t="inlineStr"/>
@@ -64168,7 +64024,7 @@
       <c r="F1967" t="inlineStr"/>
       <c r="G1967" t="inlineStr">
         <is>
-          <t>6.2%</t>
+          <t>6.1%</t>
         </is>
       </c>
       <c r="H1967" t="inlineStr">
@@ -64180,37 +64036,41 @@
     <row r="1968">
       <c r="A1968" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI MoMJAN</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D1968" t="inlineStr"/>
       <c r="E1968" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>ZAR34.7B</t>
         </is>
       </c>
       <c r="F1968" t="inlineStr"/>
-      <c r="G1968" t="inlineStr"/>
+      <c r="G1968" t="inlineStr">
+        <is>
+          <t>ZAR 18B</t>
+        </is>
+      </c>
       <c r="H1968" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1969">
       <c r="A1969" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1969" t="inlineStr">
@@ -64220,7 +64080,7 @@
       </c>
       <c r="C1969" t="inlineStr">
         <is>
-          <t>Baden Wuerttemberg CPI YoYJAN</t>
+          <t>Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1969" t="inlineStr"/>
@@ -64230,17 +64090,21 @@
         </is>
       </c>
       <c r="F1969" t="inlineStr"/>
-      <c r="G1969" t="inlineStr"/>
+      <c r="G1969" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H1969" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1970">
       <c r="A1970" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1970" t="inlineStr">
@@ -64250,7 +64114,7 @@
       </c>
       <c r="C1970" t="inlineStr">
         <is>
-          <t>Bavaria CPI MoMJAN</t>
+          <t>Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1970" t="inlineStr"/>
@@ -64260,17 +64124,21 @@
         </is>
       </c>
       <c r="F1970" t="inlineStr"/>
-      <c r="G1970" t="inlineStr"/>
+      <c r="G1970" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1970" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1971">
       <c r="A1971" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1971" t="inlineStr">
@@ -64280,17 +64148,21 @@
       </c>
       <c r="C1971" t="inlineStr">
         <is>
-          <t>Bavaria CPI YoYJAN</t>
+          <t>Harmonised Inflation Rate MoM PrelJAN</t>
         </is>
       </c>
       <c r="D1971" t="inlineStr"/>
       <c r="E1971" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="F1971" t="inlineStr"/>
-      <c r="G1971" t="inlineStr"/>
+      <c r="G1971" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1971" t="inlineStr">
         <is>
           <t>3</t>
@@ -64300,7 +64172,7 @@
     <row r="1972">
       <c r="A1972" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1972" t="inlineStr">
@@ -64310,17 +64182,21 @@
       </c>
       <c r="C1972" t="inlineStr">
         <is>
-          <t>Brandenburg CPI MoMJAN</t>
+          <t>Harmonised Inflation Rate YoY PrelJAN</t>
         </is>
       </c>
       <c r="D1972" t="inlineStr"/>
       <c r="E1972" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1972" t="inlineStr"/>
-      <c r="G1972" t="inlineStr"/>
+      <c r="G1972" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H1972" t="inlineStr">
         <is>
           <t>3</t>
@@ -64330,339 +64206,383 @@
     <row r="1973">
       <c r="A1973" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1973" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1973" t="inlineStr">
         <is>
-          <t>Brandenburg CPI YoYJAN</t>
+          <t>GDP MoMNOV</t>
         </is>
       </c>
       <c r="D1973" t="inlineStr"/>
       <c r="E1973" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F1973" t="inlineStr"/>
-      <c r="G1973" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1973" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="G1973" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H1973" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1974">
       <c r="A1974" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
         <is>
-          <t>Hesse CPI MoMJAN</t>
+          <t>GDP MoM PrelDEC</t>
         </is>
       </c>
       <c r="D1974" t="inlineStr"/>
       <c r="E1974" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1974" t="inlineStr"/>
-      <c r="G1974" t="inlineStr"/>
+      <c r="G1974" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1974" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1975">
       <c r="A1975" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
         <is>
-          <t>Hesse CPI YoYJAN</t>
+          <t>Core PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1975" t="inlineStr"/>
       <c r="E1975" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1975" t="inlineStr"/>
-      <c r="G1975" t="inlineStr"/>
+      <c r="G1975" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H1975" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1976">
       <c r="A1976" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1976" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1976" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI MoMJAN</t>
+          <t>Personal Income MoMDEC</t>
         </is>
       </c>
       <c r="D1976" t="inlineStr"/>
       <c r="E1976" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1976" t="inlineStr"/>
-      <c r="G1976" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1976" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1976" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H1976" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1977">
       <c r="A1977" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1977" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1977" t="inlineStr">
         <is>
-          <t>North Rhine Westphalia CPI YoYJAN</t>
+          <t>Personal Spending MoMDEC</t>
         </is>
       </c>
       <c r="D1977" t="inlineStr"/>
       <c r="E1977" t="inlineStr">
         <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F1977" t="inlineStr"/>
-      <c r="G1977" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1977" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1977" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="H1977" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1978">
       <c r="A1978" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1978" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1978" t="inlineStr">
         <is>
-          <t>Saxony CPI MoMJAN</t>
+          <t>Employment Cost - Benefits QoQQ4</t>
         </is>
       </c>
       <c r="D1978" t="inlineStr"/>
       <c r="E1978" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1978" t="inlineStr"/>
-      <c r="G1978" t="inlineStr"/>
+      <c r="G1978" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1978" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1979">
       <c r="A1979" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1979" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1979" t="inlineStr">
         <is>
-          <t>Saxony CPI YoYJAN</t>
+          <t>Employment Cost - Wages QoQQ4</t>
         </is>
       </c>
       <c r="D1979" t="inlineStr"/>
       <c r="E1979" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1979" t="inlineStr"/>
-      <c r="G1979" t="inlineStr"/>
+      <c r="G1979" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H1979" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1980">
       <c r="A1980" t="inlineStr">
         <is>
-          <t>02:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1980" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1980" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Employment Cost Index QoQQ4</t>
         </is>
       </c>
       <c r="D1980" t="inlineStr"/>
       <c r="E1980" t="inlineStr">
         <is>
-          <t>€4.9B</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="F1980" t="inlineStr"/>
       <c r="G1980" t="inlineStr">
         <is>
-          <t>€5.0B</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="H1980" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1981">
       <c r="A1981" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>PCE Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D1981" t="inlineStr"/>
       <c r="E1981" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F1981" t="inlineStr"/>
       <c r="G1981" t="inlineStr">
         <is>
-          <t>0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H1981" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1982">
       <c r="A1982" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1982" t="inlineStr"/>
       <c r="E1982" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F1982" t="inlineStr"/>
       <c r="G1982" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="H1982" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1983">
       <c r="A1983" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1983" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1983" t="inlineStr">
         <is>
-          <t>Government Budget ValueDEC</t>
+          <t>Core PCE Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D1983" t="inlineStr"/>
       <c r="E1983" t="inlineStr">
         <is>
-          <t>INR-8465.9B</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F1983" t="inlineStr"/>
-      <c r="G1983" t="inlineStr"/>
+      <c r="G1983" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H1983" t="inlineStr">
         <is>
           <t>3</t>
@@ -64672,63 +64592,63 @@
     <row r="1984">
       <c r="A1984" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B1984" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1984" t="inlineStr">
         <is>
-          <t>Gross Debt to GDPDEC</t>
+          <t>Chicago PMIJAN</t>
         </is>
       </c>
       <c r="D1984" t="inlineStr"/>
       <c r="E1984" t="inlineStr">
         <is>
-          <t>77.7%</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="F1984" t="inlineStr"/>
       <c r="G1984" t="inlineStr">
         <is>
-          <t>77.9%</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="H1984" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1985">
       <c r="A1985" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1985" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C1985" t="inlineStr">
         <is>
-          <t>Nominal Budget BalanceDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D1985" t="inlineStr"/>
       <c r="E1985" t="inlineStr">
         <is>
-          <t>BRL-99.1B</t>
+          <t>C$-1.49B</t>
         </is>
       </c>
       <c r="F1985" t="inlineStr"/>
       <c r="G1985" t="inlineStr">
         <is>
-          <t>BRL-103.0B</t>
+          <t>C$-1.9B</t>
         </is>
       </c>
       <c r="H1985" t="inlineStr">
@@ -64740,25 +64660,21 @@
     <row r="1986">
       <c r="A1986" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
         <is>
-          <t>Bank Loan Growth YoYJAN/17</t>
+          <t>Baker Hughes Oil Rig CountJAN/31</t>
         </is>
       </c>
       <c r="D1986" t="inlineStr"/>
-      <c r="E1986" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="E1986" t="inlineStr"/>
       <c r="F1986" t="inlineStr"/>
       <c r="G1986" t="inlineStr"/>
       <c r="H1986" t="inlineStr">
@@ -64770,25 +64686,21 @@
     <row r="1987">
       <c r="A1987" t="inlineStr">
         <is>
-          <t>05:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1987" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C1987" t="inlineStr">
         <is>
-          <t>Deposit Growth YoYJAN/17</t>
+          <t>Baker Hughes Total Rigs CountJAN/31</t>
         </is>
       </c>
       <c r="D1987" t="inlineStr"/>
-      <c r="E1987" t="inlineStr">
-        <is>
-          <t>9.8%</t>
-        </is>
-      </c>
+      <c r="E1987" t="inlineStr"/>
       <c r="F1987" t="inlineStr"/>
       <c r="G1987" t="inlineStr"/>
       <c r="H1987" t="inlineStr">
@@ -64798,25 +64710,29 @@
       </c>
     </row>
     <row r="1988">
-      <c r="A1988" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A1988" t="inlineStr"/>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/24</t>
+          <t>Fiscal BalanceDEC</t>
         </is>
       </c>
       <c r="D1988" t="inlineStr"/>
-      <c r="E1988" t="inlineStr"/>
+      <c r="E1988" t="inlineStr">
+        <is>
+          <t>MXN-1064.93B</t>
+        </is>
+      </c>
       <c r="F1988" t="inlineStr"/>
-      <c r="G1988" t="inlineStr"/>
+      <c r="G1988" t="inlineStr">
+        <is>
+          <t>MXN-1120.0B</t>
+        </is>
+      </c>
       <c r="H1988" t="inlineStr">
         <is>
           <t>3</t>
@@ -64824,31 +64740,27 @@
       </c>
     </row>
     <row r="1989">
-      <c r="A1989" t="inlineStr">
-        <is>
-          <t>05:00 PM</t>
-        </is>
-      </c>
+      <c r="A1989" t="inlineStr"/>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
         <is>
-          <t>Infrastructure Output YoYDEC</t>
+          <t>CoreLogic Dwelling Prices MoMJAN</t>
         </is>
       </c>
       <c r="D1989" t="inlineStr"/>
       <c r="E1989" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F1989" t="inlineStr"/>
       <c r="G1989" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="H1989" t="inlineStr">
@@ -64858,994 +64770,224 @@
       </c>
     </row>
     <row r="1990">
-      <c r="A1990" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A1990" t="inlineStr"/>
       <c r="B1990" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C1990" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1990" t="inlineStr"/>
       <c r="E1990" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="F1990" t="inlineStr"/>
       <c r="G1990" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H1990" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1991">
-      <c r="A1991" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
+      <c r="A1991" t="inlineStr"/>
       <c r="B1991" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C1991" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>New Car Sales YoYJAN</t>
         </is>
       </c>
       <c r="D1991" t="inlineStr"/>
       <c r="E1991" t="inlineStr">
         <is>
-          <t>ZAR34.7B</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="F1991" t="inlineStr"/>
       <c r="G1991" t="inlineStr">
         <is>
-          <t>ZAR 18B</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="H1991" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1992">
-      <c r="A1992" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A1992" t="inlineStr"/>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY PrelJAN</t>
+          <t>New Car Registrations YoYJAN</t>
         </is>
       </c>
       <c r="D1992" t="inlineStr"/>
       <c r="E1992" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="F1992" t="inlineStr"/>
       <c r="G1992" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-4.0%</t>
         </is>
       </c>
       <c r="H1992" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1993">
-      <c r="A1993" t="inlineStr">
-        <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
+      <c r="A1993" t="inlineStr"/>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM PrelJAN</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D1993" t="inlineStr"/>
       <c r="E1993" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F1993" t="inlineStr"/>
       <c r="G1993" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>20.7%</t>
         </is>
       </c>
       <c r="H1993" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1994">
       <c r="A1994" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1994" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C1994" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM PrelJAN</t>
-        </is>
-      </c>
+          <t>Saturday February 01 2025</t>
+        </is>
+      </c>
+      <c r="B1994" t="inlineStr"/>
+      <c r="C1994" t="inlineStr"/>
       <c r="D1994" t="inlineStr"/>
-      <c r="E1994" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="E1994" t="inlineStr"/>
       <c r="F1994" t="inlineStr"/>
-      <c r="G1994" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1994" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1994" t="inlineStr"/>
+      <c r="H1994" t="inlineStr"/>
     </row>
     <row r="1995">
       <c r="A1995" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY PrelJAN</t>
+          <t>Exports YoYJAN</t>
         </is>
       </c>
       <c r="D1995" t="inlineStr"/>
       <c r="E1995" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>6.6%</t>
         </is>
       </c>
       <c r="F1995" t="inlineStr"/>
-      <c r="G1995" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G1995" t="inlineStr"/>
       <c r="H1995" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1996">
       <c r="A1996" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
         <is>
-          <t>GDP MoMNOV</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="D1996" t="inlineStr"/>
       <c r="E1996" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1996" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1996" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+          <t>$6.49B</t>
+        </is>
+      </c>
+      <c r="F1996" t="inlineStr"/>
+      <c r="G1996" t="inlineStr"/>
       <c r="H1996" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B1997" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C1997" t="inlineStr">
         <is>
-          <t>GDP MoM PrelDEC</t>
+          <t>Imports YoYJAN</t>
         </is>
       </c>
       <c r="D1997" t="inlineStr"/>
       <c r="E1997" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F1997" t="inlineStr"/>
-      <c r="G1997" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G1997" t="inlineStr"/>
       <c r="H1997" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1998">
-      <c r="A1998" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1998" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1998" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1998" t="inlineStr"/>
-      <c r="E1998" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1998" t="inlineStr"/>
-      <c r="G1998" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H1998" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1999">
-      <c r="A1999" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1999" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C1999" t="inlineStr">
-        <is>
-          <t>Personal Income MoMDEC</t>
-        </is>
-      </c>
-      <c r="D1999" t="inlineStr"/>
-      <c r="E1999" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1999" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1999" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H1999" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2000">
-      <c r="A2000" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2000" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2000" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2000" t="inlineStr"/>
-      <c r="E2000" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F2000" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G2000" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="H2000" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2001">
-      <c r="A2001" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2001" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2001" t="inlineStr">
-        <is>
-          <t>Employment Cost - Benefits QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2001" t="inlineStr"/>
-      <c r="E2001" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2001" t="inlineStr"/>
-      <c r="G2001" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2001" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2002">
-      <c r="A2002" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2002" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2002" t="inlineStr">
-        <is>
-          <t>Employment Cost - Wages QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2002" t="inlineStr"/>
-      <c r="E2002" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2002" t="inlineStr"/>
-      <c r="G2002" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2002" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2003">
-      <c r="A2003" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2003" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2003" t="inlineStr">
-        <is>
-          <t>Employment Cost Index QoQQ4</t>
-        </is>
-      </c>
-      <c r="D2003" t="inlineStr"/>
-      <c r="E2003" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="F2003" t="inlineStr"/>
-      <c r="G2003" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H2003" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2004">
-      <c r="A2004" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2004" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2004" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D2004" t="inlineStr"/>
-      <c r="E2004" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F2004" t="inlineStr"/>
-      <c r="G2004" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H2004" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2005">
-      <c r="A2005" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2005" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2005" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2005" t="inlineStr"/>
-      <c r="E2005" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F2005" t="inlineStr"/>
-      <c r="G2005" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H2005" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2006">
-      <c r="A2006" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B2006" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2006" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2006" t="inlineStr"/>
-      <c r="E2006" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="F2006" t="inlineStr"/>
-      <c r="G2006" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H2006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2007">
-      <c r="A2007" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B2007" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2007" t="inlineStr">
-        <is>
-          <t>Chicago PMIJAN</t>
-        </is>
-      </c>
-      <c r="D2007" t="inlineStr"/>
-      <c r="E2007" t="inlineStr">
-        <is>
-          <t>36.9</t>
-        </is>
-      </c>
-      <c r="F2007" t="inlineStr"/>
-      <c r="G2007" t="inlineStr">
-        <is>
-          <t>37.2</t>
-        </is>
-      </c>
-      <c r="H2007" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2008">
-      <c r="A2008" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B2008" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C2008" t="inlineStr">
-        <is>
-          <t>Budget BalanceNOV</t>
-        </is>
-      </c>
-      <c r="D2008" t="inlineStr"/>
-      <c r="E2008" t="inlineStr">
-        <is>
-          <t>C$-1.49B</t>
-        </is>
-      </c>
-      <c r="F2008" t="inlineStr"/>
-      <c r="G2008" t="inlineStr">
-        <is>
-          <t>C$-1.9B</t>
-        </is>
-      </c>
-      <c r="H2008" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2009">
-      <c r="A2009" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2009" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2009" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2009" t="inlineStr"/>
-      <c r="E2009" t="inlineStr"/>
-      <c r="F2009" t="inlineStr"/>
-      <c r="G2009" t="inlineStr"/>
-      <c r="H2009" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2010">
-      <c r="A2010" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B2010" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C2010" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/31</t>
-        </is>
-      </c>
-      <c r="D2010" t="inlineStr"/>
-      <c r="E2010" t="inlineStr"/>
-      <c r="F2010" t="inlineStr"/>
-      <c r="G2010" t="inlineStr"/>
-      <c r="H2010" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2011">
-      <c r="A2011" t="inlineStr"/>
-      <c r="B2011" t="inlineStr">
-        <is>
-          <t>MX</t>
-        </is>
-      </c>
-      <c r="C2011" t="inlineStr">
-        <is>
-          <t>Fiscal BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D2011" t="inlineStr"/>
-      <c r="E2011" t="inlineStr">
-        <is>
-          <t>MXN-1064.93B</t>
-        </is>
-      </c>
-      <c r="F2011" t="inlineStr"/>
-      <c r="G2011" t="inlineStr">
-        <is>
-          <t>MXN-1120.0B</t>
-        </is>
-      </c>
-      <c r="H2011" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" t="inlineStr"/>
-      <c r="B2012" t="inlineStr">
-        <is>
-          <t>AU</t>
-        </is>
-      </c>
-      <c r="C2012" t="inlineStr">
-        <is>
-          <t>CoreLogic Dwelling Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="D2012" t="inlineStr"/>
-      <c r="E2012" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F2012" t="inlineStr"/>
-      <c r="G2012" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="H2012" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" t="inlineStr"/>
-      <c r="B2013" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C2013" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2013" t="inlineStr"/>
-      <c r="E2013" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F2013" t="inlineStr"/>
-      <c r="G2013" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="H2013" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2014">
-      <c r="A2014" t="inlineStr"/>
-      <c r="B2014" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C2014" t="inlineStr">
-        <is>
-          <t>New Car Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2014" t="inlineStr"/>
-      <c r="E2014" t="inlineStr">
-        <is>
-          <t>28.8%</t>
-        </is>
-      </c>
-      <c r="F2014" t="inlineStr"/>
-      <c r="G2014" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="H2014" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2015">
-      <c r="A2015" t="inlineStr"/>
-      <c r="B2015" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="C2015" t="inlineStr">
-        <is>
-          <t>New Car Registrations YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2015" t="inlineStr"/>
-      <c r="E2015" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="F2015" t="inlineStr"/>
-      <c r="G2015" t="inlineStr">
-        <is>
-          <t>-4.0%</t>
-        </is>
-      </c>
-      <c r="H2015" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2016">
-      <c r="A2016" t="inlineStr"/>
-      <c r="B2016" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C2016" t="inlineStr">
-        <is>
-          <t>M2 Money Supply YoYDEC</t>
-        </is>
-      </c>
-      <c r="D2016" t="inlineStr"/>
-      <c r="E2016" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="F2016" t="inlineStr"/>
-      <c r="G2016" t="inlineStr">
-        <is>
-          <t>20.7%</t>
-        </is>
-      </c>
-      <c r="H2016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2017">
-      <c r="A2017" t="inlineStr">
-        <is>
-          <t>Saturday February 01 2025</t>
-        </is>
-      </c>
-      <c r="B2017" t="inlineStr"/>
-      <c r="C2017" t="inlineStr"/>
-      <c r="D2017" t="inlineStr"/>
-      <c r="E2017" t="inlineStr"/>
-      <c r="F2017" t="inlineStr"/>
-      <c r="G2017" t="inlineStr"/>
-      <c r="H2017" t="inlineStr"/>
-    </row>
-    <row r="2018">
-      <c r="A2018" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2018" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2018" t="inlineStr">
-        <is>
-          <t>Exports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2018" t="inlineStr"/>
-      <c r="E2018" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="F2018" t="inlineStr"/>
-      <c r="G2018" t="inlineStr"/>
-      <c r="H2018" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2019">
-      <c r="A2019" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2019" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2019" t="inlineStr">
-        <is>
-          <t>Balance of TradeJAN</t>
-        </is>
-      </c>
-      <c r="D2019" t="inlineStr"/>
-      <c r="E2019" t="inlineStr">
-        <is>
-          <t>$6.49B</t>
-        </is>
-      </c>
-      <c r="F2019" t="inlineStr"/>
-      <c r="G2019" t="inlineStr"/>
-      <c r="H2019" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2020">
-      <c r="A2020" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B2020" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C2020" t="inlineStr">
-        <is>
-          <t>Imports YoYJAN</t>
-        </is>
-      </c>
-      <c r="D2020" t="inlineStr"/>
-      <c r="E2020" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F2020" t="inlineStr"/>
-      <c r="G2020" t="inlineStr"/>
-      <c r="H2020" t="inlineStr">
         <is>
           <t>3</t>
         </is>
